--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Code/spz/spz-signup-app/src/spz/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE5A8A-00F6-CA44-A0ED-18825AA1ED26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C635289-3692-2F41-A6A3-3AB0A5A788DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -1030,36 +1030,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1085,6 +1055,36 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1357,15 +1357,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D6EF78-CE9B-CE49-8D84-470E633C58CD}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D6EF78-CE9B-CE49-8D84-470E633C58CD}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B1:G2" xr:uid="{D53E307F-7E5A-AF47-9B1D-B15194DA8CA2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E320765-FED5-2349-A3B8-A1FB2FDB34E0}" name="Nachname" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C94E62B4-32B9-B943-81E6-68CB060B28F3}" name="Vorname" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3C20CFC7-6904-4C42-A03A-98A370049761}" name="Hochschule" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1216CC6F-6E17-8048-AEC8-31AEBEAC2215}" name="Matrikelnummer" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{AE34A6B8-B1F1-CF49-8559-234F376337D5}" name="E-Mail" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AF514290-AAE7-E44D-82AA-92741890AD40}" name="Telefon" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2E320765-FED5-2349-A3B8-A1FB2FDB34E0}" name="Nachname" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C94E62B4-32B9-B943-81E6-68CB060B28F3}" name="Vorname" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3C20CFC7-6904-4C42-A03A-98A370049761}" name="Hochschule" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1216CC6F-6E17-8048-AEC8-31AEBEAC2215}" name="Matrikelnummer" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AE34A6B8-B1F1-CF49-8559-234F376337D5}" name="E-Mail" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{AF514290-AAE7-E44D-82AA-92741890AD40}" name="Telefon" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1375,21 +1375,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1685,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1909,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1929,7 +1929,7 @@
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Code/spz/spz-signup-app/src/spz/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C635289-3692-2F41-A6A3-3AB0A5A788DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FCBA0-5589-4432-AEEB-6B1E9D51B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Datum:_________________________                Unterschrift:_______________________________________</t>
-  </si>
-  <si>
-    <t>SS 2021</t>
   </si>
   <si>
     <t>Spanisch Temas de la Actualidad</t>
@@ -429,6 +426,24 @@
   </si>
   <si>
     <t>applicant.phone</t>
+  </si>
+  <si>
+    <t>course.ger</t>
+  </si>
+  <si>
+    <t>course.ects_points</t>
+  </si>
+  <si>
+    <t>course.full_name</t>
+  </si>
+  <si>
+    <t>course.full_name_english</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>exam_date</t>
   </si>
 </sst>
 </file>
@@ -726,20 +741,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,88 +763,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -837,10 +844,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -857,29 +860,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -890,10 +892,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -904,35 +906,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -941,7 +942,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,76 +956,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="16">
@@ -1036,7 +1029,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1107,7 +1100,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1689,222 +1682,222 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="44" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="E12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="E13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="E14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="E15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="E16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="E17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
@@ -1929,579 +1922,579 @@
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.1640625" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.83203125" style="2" hidden="1"/>
+    <col min="13" max="13" width="6.44140625" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.109375" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.77734375" style="2" hidden="1"/>
     <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
     <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.5" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.5" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.5" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.44140625" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.44140625" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.44140625" style="1" hidden="1"/>
     <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.83203125" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.5" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.77734375" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.44140625" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.5" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.5" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.5" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.5" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.44140625" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.44140625" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.44140625" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.44140625" style="1" hidden="1"/>
     <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.83203125" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.5" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.77734375" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.44140625" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.5" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.5" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.5" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.5" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.44140625" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.44140625" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.44140625" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.44140625" style="1" hidden="1"/>
     <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.83203125" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.5" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.77734375" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.44140625" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.5" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.5" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.5" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.5" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.44140625" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.44140625" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.44140625" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.44140625" style="1" hidden="1"/>
     <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.83203125" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.5" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.77734375" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.44140625" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.5" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.5" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.5" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.5" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.44140625" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.44140625" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.44140625" style="1" hidden="1"/>
     <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.83203125" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.5" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.77734375" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.44140625" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.5" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.5" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.5" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.5" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.44140625" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.44140625" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.44140625" style="1" hidden="1"/>
     <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.83203125" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.5" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.77734375" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.44140625" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.5" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.5" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.5" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.5" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.44140625" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.44140625" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.44140625" style="1" hidden="1"/>
     <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.83203125" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.5" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.77734375" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.44140625" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.5" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.5" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.5" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.5" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.44140625" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.44140625" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.44140625" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.44140625" style="1" hidden="1"/>
     <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.83203125" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.5" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.77734375" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.44140625" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.5" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.5" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.5" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.5" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.44140625" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.44140625" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.44140625" style="1" hidden="1"/>
     <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.83203125" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.5" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.77734375" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.44140625" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.5" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.5" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.5" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.5" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.44140625" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.44140625" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.44140625" style="1" hidden="1"/>
     <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.83203125" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.5" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.77734375" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.44140625" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.5" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.5" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.5" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.5" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.44140625" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.44140625" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.44140625" style="1" hidden="1"/>
     <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.83203125" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.5" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.77734375" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.44140625" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.5" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.5" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.5" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.5" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.44140625" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.44140625" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.44140625" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.44140625" style="1" hidden="1"/>
     <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.83203125" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.5" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.77734375" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.44140625" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.5" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.5" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.5" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.5" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.44140625" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.44140625" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.44140625" style="1" hidden="1"/>
     <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.83203125" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.5" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.77734375" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.44140625" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.5" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.5" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.5" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.5" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.44140625" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.44140625" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.44140625" style="1" hidden="1"/>
     <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.83203125" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.5" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.77734375" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.44140625" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.5" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.5" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.5" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.5" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.44140625" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.44140625" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.44140625" style="1" hidden="1"/>
     <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.83203125" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.5" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.77734375" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.44140625" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.5" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.5" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.5" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.5" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.44140625" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.44140625" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.44140625" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.44140625" style="1" hidden="1"/>
     <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.83203125" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.5" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.77734375" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.44140625" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.5" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.5" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.5" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.5" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.44140625" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.44140625" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.44140625" style="1" hidden="1"/>
     <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.83203125" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.5" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.77734375" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.44140625" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.5" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.5" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.5" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.5" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.44140625" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.44140625" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.44140625" style="1" hidden="1"/>
     <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.83203125" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.5" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.77734375" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.44140625" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.5" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.5" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.5" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.5" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.44140625" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.44140625" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.44140625" style="1" hidden="1"/>
     <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.83203125" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.5" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.77734375" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.44140625" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.5" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.5" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.5" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.5" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.44140625" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.44140625" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.44140625" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.44140625" style="1" hidden="1"/>
     <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.83203125" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.5" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.77734375" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.44140625" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.5" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.5" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.5" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.5" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.44140625" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.44140625" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.44140625" style="1" hidden="1"/>
     <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.83203125" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.5" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.77734375" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.44140625" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.5" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.5" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.5" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.5" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.44140625" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.44140625" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.44140625" style="1" hidden="1"/>
     <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.83203125" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.5" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.77734375" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.44140625" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.5" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.5" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.5" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.5" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.44140625" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.44140625" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.44140625" style="1" hidden="1"/>
     <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.83203125" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.5" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.77734375" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.44140625" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.5" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.5" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.5" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.5" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.44140625" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.44140625" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.44140625" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.44140625" style="1" hidden="1"/>
     <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.83203125" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.5" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.77734375" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.44140625" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.5" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.5" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.5" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.5" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.44140625" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.44140625" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.44140625" style="1" hidden="1"/>
     <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.83203125" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.5" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.77734375" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.44140625" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.5" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.5" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.5" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.5" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.44140625" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.44140625" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.44140625" style="1" hidden="1"/>
     <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.83203125" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.5" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.77734375" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.44140625" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.5" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.5" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.5" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.5" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.44140625" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.44140625" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.44140625" style="1" hidden="1"/>
     <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.83203125" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.5" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.77734375" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.44140625" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.5" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.5" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.5" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.5" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.44140625" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.44140625" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.44140625" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.44140625" style="1" hidden="1"/>
     <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.83203125" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.5" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.77734375" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.44140625" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.5" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.5" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.5" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.5" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.44140625" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.44140625" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.44140625" style="1" hidden="1"/>
     <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.83203125" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.5" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.77734375" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.44140625" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.5" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.5" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.5" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.5" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.44140625" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.44140625" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.44140625" style="1" hidden="1"/>
     <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.83203125" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.5" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.77734375" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.44140625" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.5" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.5" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.5" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.5" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.44140625" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.44140625" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.44140625" style="1" hidden="1"/>
     <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.83203125" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.5" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.77734375" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.44140625" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.5" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.5" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.5" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.5" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.44140625" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.44140625" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.44140625" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.44140625" style="1" hidden="1"/>
     <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.83203125" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.5" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.77734375" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.44140625" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.5" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.5" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.5" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.5" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.44140625" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.44140625" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.44140625" style="1" hidden="1"/>
     <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.83203125" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.5" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.77734375" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.44140625" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.5" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.5" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.5" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.5" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.44140625" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.44140625" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.44140625" style="1" hidden="1"/>
     <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.83203125" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.5" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.77734375" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.44140625" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.5" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.5" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.5" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.5" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.44140625" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.44140625" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.44140625" style="1" hidden="1"/>
     <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.83203125" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.5" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.77734375" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.44140625" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.5" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.5" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.5" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.5" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.44140625" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.44140625" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.44140625" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.44140625" style="1" hidden="1"/>
     <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.83203125" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.5" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.77734375" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.44140625" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.5" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.5" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.5" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.5" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.44140625" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.44140625" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.44140625" style="1" hidden="1"/>
     <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.83203125" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.5" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.77734375" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.44140625" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.5" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.5" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.5" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.5" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.44140625" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.44140625" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.44140625" style="1" hidden="1"/>
     <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.83203125" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.5" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.77734375" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.44140625" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.5" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.5" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.5" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.5" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.44140625" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.44140625" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.44140625" style="1" hidden="1"/>
     <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.83203125" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.5" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.77734375" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.44140625" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.5" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.5" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.5" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.5" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.44140625" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.44140625" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.44140625" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.44140625" style="1" hidden="1"/>
     <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.83203125" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.5" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.77734375" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.44140625" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.5" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.5" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.5" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.5" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.44140625" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.44140625" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.44140625" style="1" hidden="1"/>
     <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.83203125" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.5" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.77734375" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.44140625" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.5" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.5" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.5" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.5" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.44140625" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.44140625" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.44140625" style="1" hidden="1"/>
     <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.83203125" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.5" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.77734375" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.44140625" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.5" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.5" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.5" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.5" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.44140625" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.44140625" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.44140625" style="1" hidden="1"/>
     <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.83203125" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.5" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.77734375" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.44140625" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.5" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.5" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.5" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.5" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.44140625" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.44140625" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.44140625" style="1" hidden="1"/>
     <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.83203125" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.5" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.77734375" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.44140625" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.5" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.5" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.5" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.5" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.44140625" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.44140625" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.44140625" style="1" hidden="1"/>
     <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.83203125" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.5" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.77734375" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.44140625" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.5" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.5" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.5" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.5" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.44140625" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.44140625" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.44140625" style="1" hidden="1"/>
     <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.83203125" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.5" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.77734375" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.44140625" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.5" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.5" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.5" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.5" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.44140625" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.44140625" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.44140625" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.44140625" style="1" hidden="1"/>
     <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.83203125" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.5" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.77734375" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.44140625" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.5" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.5" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.5" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.5" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.44140625" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.44140625" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.44140625" style="1" hidden="1"/>
     <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.83203125" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.5" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.77734375" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.44140625" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.5" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.5" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.5" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.5" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.44140625" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.44140625" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.44140625" style="1" hidden="1"/>
     <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.83203125" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.5" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.77734375" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.44140625" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.5" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.5" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.5" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.5" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.44140625" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.44140625" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.44140625" style="1" hidden="1"/>
     <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.83203125" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.5" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.77734375" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.44140625" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.5" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.5" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.5" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.5" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.44140625" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.44140625" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.44140625" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.44140625" style="1" hidden="1"/>
     <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.83203125" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.5" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.77734375" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.44140625" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.5" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.5" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.5" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.5" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.44140625" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.44140625" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.44140625" style="1" hidden="1"/>
     <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.83203125" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.5" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.77734375" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.44140625" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.5" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.5" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.5" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.5" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.44140625" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.44140625" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.44140625" style="1" hidden="1"/>
     <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.83203125" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.5" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.77734375" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.44140625" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.5" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.5" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.5" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.5" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.44140625" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.44140625" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.44140625" style="1" hidden="1"/>
     <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.83203125" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.5" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.77734375" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.44140625" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.5" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.5" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.5" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.5" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.44140625" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.44140625" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.44140625" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.44140625" style="1" hidden="1"/>
     <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.83203125" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.5" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.77734375" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.44140625" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.5" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.5" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.5" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.5" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.44140625" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.44140625" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.44140625" style="1" hidden="1"/>
     <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.83203125" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.5" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.77734375" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.44140625" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.5" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.5" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.5" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.5" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.44140625" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.44140625" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.44140625" style="1" hidden="1"/>
     <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.83203125" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.5" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.77734375" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.44140625" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.5" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.5" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.5" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.5" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.44140625" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.44140625" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.44140625" style="1" hidden="1"/>
     <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.83203125" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.5" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.77734375" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.44140625" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.5" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.5" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.5" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.5" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.44140625" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.44140625" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.44140625" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.44140625" style="1" hidden="1"/>
     <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.83203125" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.5" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.77734375" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.44140625" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.5" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.5" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.5" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.5" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.44140625" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.44140625" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.44140625" style="1" hidden="1"/>
     <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.83203125" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.5" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.77734375" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.44140625" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.5" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.5" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.5" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.5" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.44140625" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.44140625" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.44140625" style="1" hidden="1"/>
     <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.83203125" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.5" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.77734375" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.44140625" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.5" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.5" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.5" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.5" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.44140625" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.44140625" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.44140625" style="1" hidden="1"/>
     <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.83203125" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.5" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.77734375" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.44140625" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.5" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.5" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.5" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.5" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.44140625" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.44140625" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.44140625" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.44140625" style="1" hidden="1"/>
     <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.83203125" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.5" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.77734375" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.44140625" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.5" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.5" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.5" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.5" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
     <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.83203125" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.5" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.77734375" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.44140625" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.5" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.5" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.44140625" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.44140625" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.5" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.5" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.44140625" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="32" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="25"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2518,37 +2511,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="str">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="29" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="C2" s="33" t="str">
+      <c r="C2" s="30" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="D2" s="33" t="str">
+      <c r="D2" s="30" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34" t="str">
+      <c r="E2" s="34"/>
+      <c r="F2" s="30" t="str">
         <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37" t="str">
+      <c r="H2" s="35"/>
+      <c r="I2" s="33" t="str">
         <f t="shared" ref="I2:I26" si="0">IF(E2&gt;0,"X","")</f>
         <v/>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="25"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="2">
         <f>IF(E2&gt;0,$B$33,0)</f>
         <v>0</v>
@@ -2570,37 +2563,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="34" t="str">
+      <c r="E3" s="34"/>
+      <c r="F3" s="30" t="str">
         <f>LOOKUP(E3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37" t="str">
+      <c r="H3" s="35"/>
+      <c r="I3" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="25"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M26" si="1">IF(E3&gt;0,$B$33,0)</f>
         <v>0</v>
@@ -2622,37 +2615,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="34" t="str">
+      <c r="E4" s="34"/>
+      <c r="F4" s="30" t="str">
         <f>LOOKUP(E4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37" t="str">
+      <c r="H4" s="35"/>
+      <c r="I4" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2674,37 +2667,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="34" t="str">
+      <c r="E5" s="34"/>
+      <c r="F5" s="30" t="str">
         <f>LOOKUP(E5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="37" t="str">
+      <c r="H5" s="35"/>
+      <c r="I5" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2726,37 +2719,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="34" t="str">
+      <c r="E6" s="34"/>
+      <c r="F6" s="30" t="str">
         <f>LOOKUP(E6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="37" t="str">
+      <c r="H6" s="35"/>
+      <c r="I6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2778,37 +2771,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="34" t="str">
+      <c r="E7" s="34"/>
+      <c r="F7" s="30" t="str">
         <f>LOOKUP(E7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37" t="str">
+      <c r="H7" s="35"/>
+      <c r="I7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2830,37 +2823,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34" t="str">
+      <c r="E8" s="34"/>
+      <c r="F8" s="30" t="str">
         <f>LOOKUP(E8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37" t="str">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2882,37 +2875,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="34" t="str">
+      <c r="E9" s="34"/>
+      <c r="F9" s="30" t="str">
         <f>LOOKUP(E9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37" t="str">
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="25"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2934,37 +2927,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="34" t="str">
+      <c r="E10" s="34"/>
+      <c r="F10" s="30" t="str">
         <f>LOOKUP(E10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="37" t="str">
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2986,37 +2979,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="34" t="str">
+      <c r="E11" s="34"/>
+      <c r="F11" s="30" t="str">
         <f>LOOKUP(E11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37" t="str">
+      <c r="H11" s="35"/>
+      <c r="I11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3038,37 +3031,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="34" t="str">
+      <c r="E12" s="34"/>
+      <c r="F12" s="30" t="str">
         <f>LOOKUP(E12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37" t="str">
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="41"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3090,37 +3083,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34" t="str">
+      <c r="E13" s="34"/>
+      <c r="F13" s="30" t="str">
         <f>LOOKUP(E13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37" t="str">
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3142,37 +3135,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="30">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="34" t="str">
+      <c r="E14" s="34"/>
+      <c r="F14" s="30" t="str">
         <f>LOOKUP(E14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37" t="str">
+      <c r="H14" s="35"/>
+      <c r="I14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3194,37 +3187,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="30">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="34" t="str">
+      <c r="E15" s="34"/>
+      <c r="F15" s="30" t="str">
         <f>LOOKUP(E15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="37" t="str">
+      <c r="H15" s="35"/>
+      <c r="I15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3246,37 +3239,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="29">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="30">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="34" t="str">
+      <c r="E16" s="34"/>
+      <c r="F16" s="30" t="str">
         <f>LOOKUP(E16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="37" t="str">
+      <c r="H16" s="35"/>
+      <c r="I16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3298,37 +3291,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="29">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="34" t="str">
+      <c r="E17" s="34"/>
+      <c r="F17" s="30" t="str">
         <f>LOOKUP(E17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="37" t="str">
+      <c r="H17" s="35"/>
+      <c r="I17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3350,37 +3343,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="34" t="str">
+      <c r="E18" s="34"/>
+      <c r="F18" s="30" t="str">
         <f>LOOKUP(E18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="37" t="str">
+      <c r="H18" s="35"/>
+      <c r="I18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="41"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="25"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3402,37 +3395,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="29">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="30">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="30">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="34" t="str">
+      <c r="E19" s="34"/>
+      <c r="F19" s="30" t="str">
         <f>LOOKUP(E19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37" t="str">
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3454,37 +3447,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="29">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="30">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="34" t="str">
+      <c r="E20" s="34"/>
+      <c r="F20" s="30" t="str">
         <f>LOOKUP(E20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="37" t="str">
+      <c r="H20" s="35"/>
+      <c r="I20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3506,37 +3499,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="30">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="34" t="str">
+      <c r="E21" s="34"/>
+      <c r="F21" s="30" t="str">
         <f>LOOKUP(E21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="37" t="str">
+      <c r="H21" s="35"/>
+      <c r="I21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3558,37 +3551,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="29">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="30">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="30">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="34" t="str">
+      <c r="E22" s="34"/>
+      <c r="F22" s="30" t="str">
         <f>LOOKUP(E22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="37" t="str">
+      <c r="H22" s="35"/>
+      <c r="I22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3610,37 +3603,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="30">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="30">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="34" t="str">
+      <c r="E23" s="34"/>
+      <c r="F23" s="30" t="str">
         <f>LOOKUP(E23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="37" t="str">
+      <c r="H23" s="35"/>
+      <c r="I23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="25"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3662,37 +3655,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="29">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="30">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="30">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="34" t="str">
+      <c r="E24" s="34"/>
+      <c r="F24" s="30" t="str">
         <f>LOOKUP(E24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="37" t="str">
+      <c r="H24" s="35"/>
+      <c r="I24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="41"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3714,37 +3707,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="29">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="34" t="str">
+      <c r="E25" s="34"/>
+      <c r="F25" s="30" t="str">
         <f>LOOKUP(E25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="37" t="str">
+      <c r="H25" s="35"/>
+      <c r="I25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3766,37 +3759,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="32">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="29">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="30">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="30">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="34" t="str">
+      <c r="E26" s="34"/>
+      <c r="F26" s="30" t="str">
         <f>LOOKUP(E26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="37" t="str">
+      <c r="H26" s="35"/>
+      <c r="I26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="25"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3818,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3832,10 +3825,9 @@
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="25"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3848,10 +3840,9 @@
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="25"/>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -3868,199 +3859,197 @@
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="40">
-        <v>2</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="10" t="str">
-        <f>INDEX(Einstellungen!B2:B18,MATCH(Notenliste!B34,Einstellungen!A2:A18,0))</f>
-        <v>Spanish - Listening Skills</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="69">
-        <v>44773</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-    </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-    </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-    </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="62"/>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="62"/>
-    </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="62"/>
-    </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="62"/>
+        <v>54</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+    </row>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -4068,19 +4057,10 @@
   <mergeCells count="1">
     <mergeCell ref="D31:G37"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekter Kursname" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Kursname" prompt="Bitte geben Sie den entsprechenden Kursname an. Wählen Sie aus der Dropdown-Liste." sqref="B34" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>KURSNAME</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>DOZENT</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>NIVEAU</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>ECTS</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -4108,29 +4088,29 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
-        <v>Spanisch Mejora tu oído</v>
-      </c>
-      <c r="B1" s="92"/>
+        <v>course.full_name</v>
+      </c>
+      <c r="B1" s="82"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="e">
+      <c r="D1" s="13" t="e">
         <f>Notenliste!F28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4147,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -4156,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -4165,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -4174,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -4183,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -4192,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -4201,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -4210,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -4219,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4228,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -4263,1634 +4243,1634 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="21" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="23" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="11.5" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="67" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="str">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>Spanisch Mejora tu oído / Spanish - Listening Skills</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:14" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="str">
+        <v>course.full_name / course.full_name_english</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+    </row>
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
-        <v>Semster: SS 2021</v>
-      </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" s="68" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+        <v>Semster: semester</v>
+      </c>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="18" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="18" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="19" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="E4" s="20" t="str">
+      <c r="E4" s="19" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="18" t="str">
         <f>RAWDATA!F2</f>
         <v>applicant.mail</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="18" t="str">
         <f>RAWDATA!G2</f>
         <v>applicant.phone</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f>RAWDATA!H2</f>
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f>RAWDATA!I2</f>
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!H2)</f>
         <v/>
       </c>
-      <c r="K4" s="18" t="str">
+      <c r="K4" s="17" t="str">
         <f>IF(L4&lt;=4,"X","")</f>
         <v/>
       </c>
-      <c r="L4" s="18" t="str">
+      <c r="L4" s="17" t="str">
         <f>Notenliste!F2</f>
         <v>KP</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f>Notenliste!E2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="20" t="str">
+      <c r="N4" s="19" t="str">
         <f>UPPER(Notenliste!J2)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>RAWDATA!F3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="J5" s="17" t="str">
         <f>UPPER(Notenliste!H3)</f>
         <v/>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
         <v/>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="17" t="str">
         <f>Notenliste!F3</f>
         <v>KP</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="20" t="str">
+      <c r="N5" s="19" t="str">
         <f>UPPER(Notenliste!J3)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>RAWDATA!F4</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="17" t="str">
         <f>UPPER(Notenliste!H4)</f>
         <v/>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="17" t="str">
         <f>Notenliste!F4</f>
         <v>KP</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="19" t="str">
         <f>UPPER(Notenliste!J4)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f>RAWDATA!F5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="17" t="str">
         <f>UPPER(Notenliste!H5)</f>
         <v/>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="17" t="str">
         <f>Notenliste!F5</f>
         <v>KP</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="19" t="str">
         <f>UPPER(Notenliste!J5)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>RAWDATA!F6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="17" t="str">
         <f>UPPER(Notenliste!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="17" t="str">
         <f>Notenliste!F6</f>
         <v>KP</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="19" t="str">
         <f>UPPER(Notenliste!J6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>RAWDATA!F7</f>
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="17" t="str">
         <f>UPPER(Notenliste!H7)</f>
         <v/>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="17" t="str">
         <f>Notenliste!F7</f>
         <v>KP</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="19" t="str">
         <f>UPPER(Notenliste!J7)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f>RAWDATA!F8</f>
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="17" t="str">
         <f>UPPER(Notenliste!H8)</f>
         <v/>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="17" t="str">
         <f>Notenliste!F8</f>
         <v>KP</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="19" t="str">
         <f>UPPER(Notenliste!J8)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f>RAWDATA!F9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="17" t="str">
         <f>UPPER(Notenliste!H9)</f>
         <v/>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="17" t="str">
         <f>Notenliste!F9</f>
         <v>KP</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="20" t="str">
+      <c r="N11" s="19" t="str">
         <f>UPPER(Notenliste!J9)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f>RAWDATA!F10</f>
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="17" t="str">
         <f>UPPER(Notenliste!H10)</f>
         <v/>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="17" t="str">
         <f>Notenliste!F10</f>
         <v>KP</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="19" t="str">
         <f>UPPER(Notenliste!J10)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>RAWDATA!F11</f>
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="17" t="str">
         <f>UPPER(Notenliste!H11)</f>
         <v/>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="17" t="str">
         <f>Notenliste!F11</f>
         <v>KP</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="19" t="str">
         <f>UPPER(Notenliste!J11)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>RAWDATA!F12</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="17" t="str">
         <f>UPPER(Notenliste!H12)</f>
         <v/>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="17" t="str">
         <f>Notenliste!F12</f>
         <v>KP</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="19" t="str">
         <f>UPPER(Notenliste!J12)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>RAWDATA!F13</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="17" t="str">
         <f>UPPER(Notenliste!H13)</f>
         <v/>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="17" t="str">
         <f>Notenliste!F13</f>
         <v>KP</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="17">
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="19" t="str">
         <f>UPPER(Notenliste!J13)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f>RAWDATA!F14</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="17" t="str">
         <f>UPPER(Notenliste!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="17" t="str">
         <f>Notenliste!F14</f>
         <v>KP</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="17">
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="20" t="str">
+      <c r="N16" s="19" t="str">
         <f>UPPER(Notenliste!J14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f>RAWDATA!F15</f>
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="17" t="str">
         <f>UPPER(Notenliste!H15)</f>
         <v/>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="17" t="str">
         <f>Notenliste!F15</f>
         <v>KP</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="20" t="str">
+      <c r="N17" s="19" t="str">
         <f>UPPER(Notenliste!J15)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f>RAWDATA!F16</f>
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="17" t="str">
         <f>UPPER(Notenliste!H16)</f>
         <v/>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="17" t="str">
         <f>Notenliste!F16</f>
         <v>KP</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="17">
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="20" t="str">
+      <c r="N18" s="19" t="str">
         <f>UPPER(Notenliste!J16)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f>RAWDATA!F17</f>
         <v>0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="17" t="str">
         <f>UPPER(Notenliste!H17)</f>
         <v/>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="17" t="str">
         <f>Notenliste!F17</f>
         <v>KP</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="20" t="str">
+      <c r="N19" s="19" t="str">
         <f>UPPER(Notenliste!J17)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f>RAWDATA!F18</f>
         <v>0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="17" t="str">
         <f>UPPER(Notenliste!H18)</f>
         <v/>
       </c>
-      <c r="K20" s="18" t="str">
+      <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="17" t="str">
         <f>Notenliste!F18</f>
         <v>KP</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="17">
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="20" t="str">
+      <c r="N20" s="19" t="str">
         <f>UPPER(Notenliste!J18)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f>RAWDATA!F19</f>
         <v>0</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="17" t="str">
         <f>UPPER(Notenliste!H19)</f>
         <v/>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="17" t="str">
         <f>Notenliste!F19</f>
         <v>KP</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="20" t="str">
+      <c r="N21" s="19" t="str">
         <f>UPPER(Notenliste!J19)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f>RAWDATA!F20</f>
         <v>0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="17" t="str">
         <f>UPPER(Notenliste!H20)</f>
         <v/>
       </c>
-      <c r="K22" s="18" t="str">
+      <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="17" t="str">
         <f>Notenliste!F20</f>
         <v>KP</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="17">
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="20" t="str">
+      <c r="N22" s="19" t="str">
         <f>UPPER(Notenliste!J20)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f>RAWDATA!F21</f>
         <v>0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="17" t="str">
         <f>UPPER(Notenliste!H21)</f>
         <v/>
       </c>
-      <c r="K23" s="18" t="str">
+      <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="17" t="str">
         <f>Notenliste!F21</f>
         <v>KP</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="17">
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="20" t="str">
+      <c r="N23" s="19" t="str">
         <f>UPPER(Notenliste!J21)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f>RAWDATA!F22</f>
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="17" t="str">
         <f>UPPER(Notenliste!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="18" t="str">
+      <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="17" t="str">
         <f>Notenliste!F22</f>
         <v>KP</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="20" t="str">
+      <c r="N24" s="19" t="str">
         <f>UPPER(Notenliste!J22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f>RAWDATA!F23</f>
         <v>0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="17" t="str">
         <f>UPPER(Notenliste!H23)</f>
         <v/>
       </c>
-      <c r="K25" s="18" t="str">
+      <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="17" t="str">
         <f>Notenliste!F23</f>
         <v>KP</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="20" t="str">
+      <c r="N25" s="19" t="str">
         <f>UPPER(Notenliste!J23)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f>RAWDATA!F24</f>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="17" t="str">
         <f>UPPER(Notenliste!H24)</f>
         <v/>
       </c>
-      <c r="K26" s="18" t="str">
+      <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="17" t="str">
         <f>Notenliste!F24</f>
         <v>KP</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="17">
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="20" t="str">
+      <c r="N26" s="19" t="str">
         <f>UPPER(Notenliste!J24)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f>RAWDATA!F25</f>
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="17" t="str">
         <f>UPPER(Notenliste!H25)</f>
         <v/>
       </c>
-      <c r="K27" s="18" t="str">
+      <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="17" t="str">
         <f>Notenliste!F25</f>
         <v>KP</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="20" t="str">
+      <c r="N27" s="19" t="str">
         <f>UPPER(Notenliste!J25)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f>RAWDATA!F26</f>
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="17" t="str">
         <f>UPPER(Notenliste!H26)</f>
         <v/>
       </c>
-      <c r="K28" s="18" t="str">
+      <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="17" t="str">
         <f>Notenliste!F26</f>
         <v>KP</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="20" t="str">
+      <c r="N28" s="19" t="str">
         <f>UPPER(Notenliste!J26)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="18">
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="17">
         <f>COUNTIF(J4:J28,"X")</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <f>COUNTIF(K4:K28,"X")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="66"/>
-    </row>
-    <row r="30" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96" t="s">
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="60"/>
+    </row>
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-    </row>
-    <row r="31" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-    </row>
-    <row r="32" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-    </row>
-    <row r="33" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="67"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+    </row>
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+    </row>
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+    </row>
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -5926,1204 +5906,1204 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="0.83203125" style="23" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="0.83203125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="60" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="61" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="44" customWidth="1"/>
-    <col min="25" max="31" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.5" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.77734375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="str">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>Spanisch Mejora tu oído / Spanish - Listening Skills</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-    </row>
-    <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+        <v>course.full_name / course.full_name_english</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:24" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="str">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-    </row>
-    <row r="4" spans="1:24" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="107" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="98" t="s">
+      <c r="X4" s="87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>4</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>6</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>7</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>8</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>9</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>10</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>11</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>12</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <v>13</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <v>14</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="U5" s="48"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="18" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="18" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="18" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+    </row>
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="F8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="F9" s="52"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+    </row>
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="F10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="F11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+    </row>
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="F12" s="52"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>8</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="F13" s="52"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+    </row>
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>9</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="F14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>11</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="F16" s="52"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>12</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="F17" s="52"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+    </row>
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>13</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="F18" s="52"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>14</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="F19" s="52"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>15</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="F20" s="52"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>16</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="F21" s="52"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+    </row>
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>17</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="F22" s="52"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>18</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+    </row>
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>19</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="F24" s="52"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+    </row>
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>20</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="F25" s="52"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>21</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="F26" s="52"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+    </row>
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>22</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>23</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="F28" s="52"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+    </row>
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>24</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="F29" s="52"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+    </row>
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>25</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -7163,542 +7143,492 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="70" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="74" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="18" style="64" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="str">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="75" t="str">
+        <v>course.ects_points</v>
+      </c>
+      <c r="D2" s="68" t="str">
         <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="66" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v>44773</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="str">
+        <v>exam_date</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" s="73" t="str">
+      <c r="C3" t="str">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D3" s="75" t="str">
+      <c r="D3" s="68" t="str">
         <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="72" t="str">
+      <c r="E3" s="66" t="str">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="str">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C4" s="73" t="str">
+      <c r="C4" t="str">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="68" t="str">
         <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="72" t="str">
+      <c r="E4" s="66" t="str">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="str">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C5" s="73" t="str">
+      <c r="C5" t="str">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="75" t="str">
+      <c r="D5" s="68" t="str">
         <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="72" t="str">
+      <c r="E5" s="66" t="str">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="str">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C6" s="73" t="str">
+      <c r="C6" t="str">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="D6" s="68" t="str">
         <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="72" t="str">
+      <c r="E6" s="66" t="str">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="str">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C7" s="73" t="str">
+      <c r="C7" t="str">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="68" t="str">
         <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="72" t="str">
+      <c r="E7" s="66" t="str">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="str">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C8" s="73" t="str">
+      <c r="C8" t="str">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D8" s="75" t="str">
+      <c r="D8" s="68" t="str">
         <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="72" t="str">
+      <c r="E8" s="66" t="str">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="str">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C9" s="73" t="str">
+      <c r="C9" t="str">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="D9" s="68" t="str">
         <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="66" t="str">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="str">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C10" s="73" t="str">
+      <c r="C10" t="str">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="68" t="str">
         <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="66" t="str">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="str">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C11" s="73" t="str">
+      <c r="C11" t="str">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="68" t="str">
         <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="72" t="str">
+      <c r="E11" s="66" t="str">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="str">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C12" s="73" t="str">
+      <c r="C12" t="str">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="75" t="str">
+      <c r="D12" s="68" t="str">
         <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="72" t="str">
+      <c r="E12" s="66" t="str">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="str">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C13" s="73" t="str">
+      <c r="C13" t="str">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="75" t="str">
+      <c r="D13" s="68" t="str">
         <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="72" t="str">
+      <c r="E13" s="66" t="str">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="str">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C14" s="73" t="str">
+      <c r="C14" t="str">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D14" s="75" t="str">
+      <c r="D14" s="68" t="str">
         <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="72" t="str">
+      <c r="E14" s="66" t="str">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="str">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C15" s="73" t="str">
+      <c r="C15" t="str">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="D15" s="68" t="str">
         <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="72" t="str">
+      <c r="E15" s="66" t="str">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="str">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C16" s="73" t="str">
+      <c r="C16" t="str">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="68" t="str">
         <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="72" t="str">
+      <c r="E16" s="66" t="str">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="str">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C17" s="73" t="str">
+      <c r="C17" t="str">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="75" t="str">
+      <c r="D17" s="68" t="str">
         <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="72" t="str">
+      <c r="E17" s="66" t="str">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="str">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C18" s="73" t="str">
+      <c r="C18" t="str">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="75" t="str">
+      <c r="D18" s="68" t="str">
         <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="72" t="str">
+      <c r="E18" s="66" t="str">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="str">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="73" t="str">
+      <c r="C19" t="str">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D19" s="75" t="str">
+      <c r="D19" s="68" t="str">
         <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="72" t="str">
+      <c r="E19" s="66" t="str">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="str">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C20" s="73" t="str">
+      <c r="C20" t="str">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D20" s="75" t="str">
+      <c r="D20" s="68" t="str">
         <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="72" t="str">
+      <c r="E20" s="66" t="str">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="str">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C21" s="73" t="str">
+      <c r="C21" t="str">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D21" s="75" t="str">
+      <c r="D21" s="68" t="str">
         <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="72" t="str">
+      <c r="E21" s="66" t="str">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="str">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C22" s="73" t="str">
+      <c r="C22" t="str">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D22" s="75" t="str">
+      <c r="D22" s="68" t="str">
         <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="72" t="str">
+      <c r="E22" s="66" t="str">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="str">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" t="str">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D23" s="75" t="str">
+      <c r="D23" s="68" t="str">
         <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="72" t="str">
+      <c r="E23" s="66" t="str">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="str">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C24" s="73" t="str">
+      <c r="C24" t="str">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="75" t="str">
+      <c r="D24" s="68" t="str">
         <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="72" t="str">
+      <c r="E24" s="66" t="str">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="str">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C25" s="73" t="str">
+      <c r="C25" t="str">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="68" t="str">
         <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="72" t="str">
+      <c r="E25" s="66" t="str">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="str">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C26" s="73" t="str">
+      <c r="C26" t="str">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D26" s="75" t="str">
+      <c r="D26" s="68" t="str">
         <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="72" t="str">
+      <c r="E26" s="66" t="str">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -7736,260 +7666,251 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="84"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="F1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="H1" s="70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="F2" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B3" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="D10" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="D11" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="D12" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="D13" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="D14" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="D15" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="81"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="D10" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="D11" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="D12" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="D13" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="D14" s="79" t="s">
+      <c r="F15" s="71"/>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="D15" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="79"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="D16" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="89"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="89"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="89"/>
+      <c r="F16" s="71"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="H18" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FCBA0-5589-4432-AEEB-6B1E9D51B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE32A9-5451-453C-B3B4-0CDAC1079060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -434,16 +434,16 @@
     <t>course.ects_points</t>
   </si>
   <si>
-    <t>course.full_name</t>
-  </si>
-  <si>
-    <t>course.full_name_english</t>
-  </si>
-  <si>
     <t>semester</t>
   </si>
   <si>
     <t>exam_date</t>
+  </si>
+  <si>
+    <t>course.name</t>
+  </si>
+  <si>
+    <t>course.name_english</t>
   </si>
 </sst>
 </file>
@@ -1922,8 +1922,8 @@
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3936,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="81"/>
@@ -3954,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="81"/>
@@ -3972,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="81"/>
@@ -3990,7 +3990,7 @@
         <v>54</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="81"/>
@@ -4099,7 +4099,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
-        <v>course.full_name</v>
+        <v>course.name</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="8" t="s">
@@ -4260,7 +4260,7 @@
     <row r="1" spans="1:14" s="61" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>course.full_name / course.full_name_english</v>
+        <v>course.name / course.name_english</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -5926,7 +5926,7 @@
     <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>course.full_name / course.full_name_english</v>
+        <v>course.name / course.name_english</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Code/spz/spz-signup-app/src/spz/templates/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C635289-3692-2F41-A6A3-3AB0A5A788DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE32A9-5451-453C-B3B4-0CDAC1079060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Datum:_________________________                Unterschrift:_______________________________________</t>
-  </si>
-  <si>
-    <t>SS 2021</t>
   </si>
   <si>
     <t>Spanisch Temas de la Actualidad</t>
@@ -429,6 +426,24 @@
   </si>
   <si>
     <t>applicant.phone</t>
+  </si>
+  <si>
+    <t>course.ger</t>
+  </si>
+  <si>
+    <t>course.ects_points</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>exam_date</t>
+  </si>
+  <si>
+    <t>course.name</t>
+  </si>
+  <si>
+    <t>course.name_english</t>
   </si>
 </sst>
 </file>
@@ -726,20 +741,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,88 +763,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -837,10 +844,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -857,29 +860,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -890,10 +892,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -904,35 +906,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -941,7 +942,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -956,76 +956,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="16">
@@ -1036,7 +1029,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1107,7 +1100,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1689,222 +1682,222 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="44" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="F2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="E6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+      <c r="E9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="E11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="E12" s="41"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="E13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+      <c r="E14" s="41"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+      <c r="E15" s="41"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="E16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="E17" s="41"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
@@ -1929,579 +1922,579 @@
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.1640625" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.83203125" style="2" hidden="1"/>
+    <col min="13" max="13" width="6.44140625" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.109375" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.77734375" style="2" hidden="1"/>
     <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
     <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.5" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.5" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.5" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.44140625" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.44140625" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.44140625" style="1" hidden="1"/>
     <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.83203125" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.5" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.77734375" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.44140625" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.5" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.5" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.5" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.5" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.44140625" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.44140625" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.44140625" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.44140625" style="1" hidden="1"/>
     <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.83203125" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.5" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.77734375" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.44140625" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.5" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.5" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.5" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.5" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.44140625" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.44140625" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.44140625" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.44140625" style="1" hidden="1"/>
     <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.83203125" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.5" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.77734375" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.44140625" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.5" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.5" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.5" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.5" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.44140625" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.44140625" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.44140625" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.44140625" style="1" hidden="1"/>
     <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.83203125" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.5" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.77734375" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.44140625" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.5" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.5" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.5" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.5" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.44140625" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.44140625" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.44140625" style="1" hidden="1"/>
     <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.83203125" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.5" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.77734375" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.44140625" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.5" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.5" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.5" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.5" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.44140625" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.44140625" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.44140625" style="1" hidden="1"/>
     <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.83203125" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.5" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.77734375" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.44140625" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.5" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.5" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.5" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.5" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.44140625" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.44140625" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.44140625" style="1" hidden="1"/>
     <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.83203125" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.5" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.77734375" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.44140625" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.5" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.5" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.5" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.5" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.44140625" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.44140625" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.44140625" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.44140625" style="1" hidden="1"/>
     <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.83203125" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.5" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.77734375" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.44140625" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.5" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.5" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.5" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.5" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.44140625" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.44140625" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.44140625" style="1" hidden="1"/>
     <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.83203125" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.5" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.77734375" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.44140625" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.5" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.5" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.5" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.5" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.44140625" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.44140625" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.44140625" style="1" hidden="1"/>
     <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.83203125" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.5" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.77734375" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.44140625" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.5" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.5" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.5" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.5" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.44140625" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.44140625" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.44140625" style="1" hidden="1"/>
     <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.83203125" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.5" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.77734375" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.44140625" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.5" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.5" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.5" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.5" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.44140625" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.44140625" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.44140625" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.44140625" style="1" hidden="1"/>
     <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.83203125" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.5" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.77734375" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.44140625" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.5" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.5" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.5" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.5" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.44140625" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.44140625" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.44140625" style="1" hidden="1"/>
     <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.83203125" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.5" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.77734375" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.44140625" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.5" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.5" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.5" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.5" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.44140625" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.44140625" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.44140625" style="1" hidden="1"/>
     <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.83203125" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.5" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.77734375" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.44140625" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.5" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.5" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.5" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.5" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.44140625" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.44140625" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.44140625" style="1" hidden="1"/>
     <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.83203125" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.5" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.77734375" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.44140625" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.5" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.5" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.5" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.5" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.44140625" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.44140625" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.44140625" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.44140625" style="1" hidden="1"/>
     <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.83203125" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.5" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.77734375" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.44140625" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.5" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.5" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.5" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.5" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.44140625" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.44140625" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.44140625" style="1" hidden="1"/>
     <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.83203125" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.5" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.77734375" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.44140625" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.5" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.5" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.5" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.5" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.44140625" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.44140625" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.44140625" style="1" hidden="1"/>
     <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.83203125" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.5" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.77734375" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.44140625" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.5" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.5" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.5" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.5" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.44140625" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.44140625" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.44140625" style="1" hidden="1"/>
     <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.83203125" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.5" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.77734375" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.44140625" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.5" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.5" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.5" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.5" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.44140625" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.44140625" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.44140625" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.44140625" style="1" hidden="1"/>
     <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.83203125" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.5" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.77734375" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.44140625" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.5" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.5" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.5" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.5" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.44140625" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.44140625" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.44140625" style="1" hidden="1"/>
     <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.83203125" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.5" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.77734375" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.44140625" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.5" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.5" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.5" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.5" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.44140625" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.44140625" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.44140625" style="1" hidden="1"/>
     <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.83203125" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.5" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.77734375" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.44140625" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.5" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.5" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.5" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.5" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.44140625" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.44140625" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.44140625" style="1" hidden="1"/>
     <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.83203125" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.5" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.77734375" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.44140625" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.5" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.5" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.5" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.5" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.44140625" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.44140625" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.44140625" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.44140625" style="1" hidden="1"/>
     <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.83203125" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.5" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.77734375" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.44140625" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.5" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.5" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.5" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.5" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.44140625" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.44140625" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.44140625" style="1" hidden="1"/>
     <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.83203125" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.5" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.77734375" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.44140625" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.5" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.5" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.5" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.5" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.44140625" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.44140625" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.44140625" style="1" hidden="1"/>
     <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.83203125" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.5" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.77734375" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.44140625" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.5" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.5" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.5" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.5" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.44140625" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.44140625" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.44140625" style="1" hidden="1"/>
     <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.83203125" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.5" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.77734375" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.44140625" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.5" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.5" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.5" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.5" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.44140625" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.44140625" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.44140625" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.44140625" style="1" hidden="1"/>
     <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.83203125" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.5" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.77734375" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.44140625" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.5" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.5" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.5" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.5" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.44140625" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.44140625" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.44140625" style="1" hidden="1"/>
     <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.83203125" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.5" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.77734375" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.44140625" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.5" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.5" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.5" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.5" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.44140625" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.44140625" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.44140625" style="1" hidden="1"/>
     <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.83203125" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.5" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.77734375" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.44140625" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.5" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.5" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.5" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.5" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.44140625" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.44140625" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.44140625" style="1" hidden="1"/>
     <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.83203125" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.5" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.77734375" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.44140625" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.5" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.5" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.5" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.5" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.44140625" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.44140625" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.44140625" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.44140625" style="1" hidden="1"/>
     <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.83203125" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.5" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.77734375" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.44140625" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.5" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.5" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.5" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.5" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.44140625" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.44140625" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.44140625" style="1" hidden="1"/>
     <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.83203125" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.5" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.77734375" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.44140625" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.5" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.5" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.5" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.5" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.44140625" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.44140625" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.44140625" style="1" hidden="1"/>
     <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.83203125" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.5" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.77734375" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.44140625" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.5" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.5" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.5" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.5" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.44140625" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.44140625" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.44140625" style="1" hidden="1"/>
     <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.83203125" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.5" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.77734375" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.44140625" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.5" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.5" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.5" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.5" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.44140625" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.44140625" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.44140625" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.44140625" style="1" hidden="1"/>
     <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.83203125" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.5" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.77734375" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.44140625" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.5" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.5" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.5" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.5" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.44140625" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.44140625" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.44140625" style="1" hidden="1"/>
     <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.83203125" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.5" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.77734375" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.44140625" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.5" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.5" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.5" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.5" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.44140625" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.44140625" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.44140625" style="1" hidden="1"/>
     <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.83203125" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.5" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.77734375" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.44140625" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.5" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.5" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.5" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.5" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.44140625" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.44140625" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.44140625" style="1" hidden="1"/>
     <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.83203125" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.5" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.77734375" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.44140625" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.5" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.5" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.5" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.5" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.44140625" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.44140625" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.44140625" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.44140625" style="1" hidden="1"/>
     <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.83203125" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.5" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.77734375" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.44140625" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.5" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.5" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.5" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.5" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.44140625" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.44140625" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.44140625" style="1" hidden="1"/>
     <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.83203125" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.5" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.77734375" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.44140625" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.5" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.5" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.5" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.5" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.44140625" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.44140625" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.44140625" style="1" hidden="1"/>
     <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.83203125" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.5" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.77734375" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.44140625" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.5" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.5" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.5" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.5" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.44140625" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.44140625" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.44140625" style="1" hidden="1"/>
     <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.83203125" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.5" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.77734375" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.44140625" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.5" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.5" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.5" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.5" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.44140625" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.44140625" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.44140625" style="1" hidden="1"/>
     <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.83203125" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.5" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.77734375" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.44140625" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.5" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.5" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.5" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.5" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.44140625" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.44140625" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.44140625" style="1" hidden="1"/>
     <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.83203125" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.5" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.77734375" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.44140625" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.5" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.5" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.5" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.5" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.44140625" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.44140625" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.44140625" style="1" hidden="1"/>
     <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.83203125" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.5" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.77734375" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.44140625" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.5" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.5" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.5" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.5" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.44140625" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.44140625" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.44140625" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.44140625" style="1" hidden="1"/>
     <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.83203125" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.5" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.77734375" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.44140625" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.5" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.5" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.5" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.5" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.44140625" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.44140625" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.44140625" style="1" hidden="1"/>
     <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.83203125" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.5" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.77734375" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.44140625" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.5" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.5" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.5" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.5" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.44140625" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.44140625" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.44140625" style="1" hidden="1"/>
     <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.83203125" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.5" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.77734375" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.44140625" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.5" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.5" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.5" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.5" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.44140625" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.44140625" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.44140625" style="1" hidden="1"/>
     <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.83203125" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.5" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.77734375" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.44140625" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.5" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.5" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.5" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.5" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.44140625" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.44140625" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.44140625" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.44140625" style="1" hidden="1"/>
     <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.83203125" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.5" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.77734375" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.44140625" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.5" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.5" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.5" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.5" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.44140625" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.44140625" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.44140625" style="1" hidden="1"/>
     <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.83203125" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.5" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.77734375" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.44140625" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.5" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.5" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.5" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.5" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.44140625" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.44140625" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.44140625" style="1" hidden="1"/>
     <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.83203125" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.5" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.77734375" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.44140625" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.5" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.5" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.5" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.5" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.44140625" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.44140625" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.44140625" style="1" hidden="1"/>
     <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.83203125" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.5" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.77734375" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.44140625" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.5" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.5" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.5" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.5" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.44140625" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.44140625" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.44140625" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.44140625" style="1" hidden="1"/>
     <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.83203125" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.5" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.77734375" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.44140625" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.5" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.5" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.5" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.5" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.44140625" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.44140625" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.44140625" style="1" hidden="1"/>
     <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.83203125" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.5" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.77734375" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.44140625" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.5" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.5" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.5" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.5" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.44140625" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.44140625" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.44140625" style="1" hidden="1"/>
     <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.83203125" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.5" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.77734375" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.44140625" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.5" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.5" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.5" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.5" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.44140625" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.44140625" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.44140625" style="1" hidden="1"/>
     <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.83203125" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.5" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.77734375" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.44140625" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.5" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.5" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.5" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.5" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.44140625" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.44140625" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.44140625" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.44140625" style="1" hidden="1"/>
     <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.83203125" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.5" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.77734375" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.44140625" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.5" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.5" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.5" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.5" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.44140625" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.44140625" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.44140625" style="1" hidden="1"/>
     <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.83203125" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.5" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.77734375" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.44140625" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.5" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.5" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.5" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.5" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.44140625" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.44140625" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.44140625" style="1" hidden="1"/>
     <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.83203125" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.5" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.77734375" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.44140625" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.5" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.5" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.5" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.5" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.44140625" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.44140625" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.44140625" style="1" hidden="1"/>
     <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.83203125" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.5" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.77734375" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.44140625" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.5" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.5" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.5" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.5" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.44140625" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.44140625" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.44140625" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.44140625" style="1" hidden="1"/>
     <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.83203125" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.5" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.77734375" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.44140625" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.5" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.5" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.5" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.5" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
     <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.83203125" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.5" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.77734375" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.44140625" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.5" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.5" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.44140625" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.44140625" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.5" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.5" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.44140625" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="32" t="s">
         <v>31</v>
       </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="25"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2518,37 +2511,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="str">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="B2" s="32" t="str">
+      <c r="B2" s="29" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="C2" s="33" t="str">
+      <c r="C2" s="30" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="D2" s="33" t="str">
+      <c r="D2" s="30" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34" t="str">
+      <c r="E2" s="34"/>
+      <c r="F2" s="30" t="str">
         <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37" t="str">
+      <c r="H2" s="35"/>
+      <c r="I2" s="33" t="str">
         <f t="shared" ref="I2:I26" si="0">IF(E2&gt;0,"X","")</f>
         <v/>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="25"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="2">
         <f>IF(E2&gt;0,$B$33,0)</f>
         <v>0</v>
@@ -2570,37 +2563,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="30">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="34" t="str">
+      <c r="E3" s="34"/>
+      <c r="F3" s="30" t="str">
         <f>LOOKUP(E3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="37" t="str">
+      <c r="H3" s="35"/>
+      <c r="I3" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="25"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M26" si="1">IF(E3&gt;0,$B$33,0)</f>
         <v>0</v>
@@ -2622,37 +2615,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="30">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="30">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="34" t="str">
+      <c r="E4" s="34"/>
+      <c r="F4" s="30" t="str">
         <f>LOOKUP(E4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="37" t="str">
+      <c r="H4" s="35"/>
+      <c r="I4" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="25"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2674,37 +2667,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="29">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="30">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="34" t="str">
+      <c r="E5" s="34"/>
+      <c r="F5" s="30" t="str">
         <f>LOOKUP(E5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="37" t="str">
+      <c r="H5" s="35"/>
+      <c r="I5" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="25"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2726,37 +2719,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="29">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="30">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="34" t="str">
+      <c r="E6" s="34"/>
+      <c r="F6" s="30" t="str">
         <f>LOOKUP(E6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="37" t="str">
+      <c r="H6" s="35"/>
+      <c r="I6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="25"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2778,37 +2771,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="29">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="30">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="34" t="str">
+      <c r="E7" s="34"/>
+      <c r="F7" s="30" t="str">
         <f>LOOKUP(E7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37" t="str">
+      <c r="H7" s="35"/>
+      <c r="I7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2830,37 +2823,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="30">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34" t="str">
+      <c r="E8" s="34"/>
+      <c r="F8" s="30" t="str">
         <f>LOOKUP(E8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37" t="str">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2882,37 +2875,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="34" t="str">
+      <c r="E9" s="34"/>
+      <c r="F9" s="30" t="str">
         <f>LOOKUP(E9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37" t="str">
+      <c r="H9" s="35"/>
+      <c r="I9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="41"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="25"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2934,37 +2927,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="29">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="34" t="str">
+      <c r="E10" s="34"/>
+      <c r="F10" s="30" t="str">
         <f>LOOKUP(E10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="37" t="str">
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="41"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2986,37 +2979,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="29">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="30">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="34" t="str">
+      <c r="E11" s="34"/>
+      <c r="F11" s="30" t="str">
         <f>LOOKUP(E11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37" t="str">
+      <c r="H11" s="35"/>
+      <c r="I11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3038,37 +3031,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="30">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="34" t="str">
+      <c r="E12" s="34"/>
+      <c r="F12" s="30" t="str">
         <f>LOOKUP(E12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37" t="str">
+      <c r="H12" s="35"/>
+      <c r="I12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="41"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3090,37 +3083,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="29">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="30">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="30">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34" t="str">
+      <c r="E13" s="34"/>
+      <c r="F13" s="30" t="str">
         <f>LOOKUP(E13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37" t="str">
+      <c r="H13" s="35"/>
+      <c r="I13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="41"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3142,37 +3135,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="29">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="30">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="30">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="34" t="str">
+      <c r="E14" s="34"/>
+      <c r="F14" s="30" t="str">
         <f>LOOKUP(E14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37" t="str">
+      <c r="H14" s="35"/>
+      <c r="I14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="41"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3194,37 +3187,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="29">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="30">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="30">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="34" t="str">
+      <c r="E15" s="34"/>
+      <c r="F15" s="30" t="str">
         <f>LOOKUP(E15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="37" t="str">
+      <c r="H15" s="35"/>
+      <c r="I15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="41"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3246,37 +3239,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="29">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="30">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="30">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="34" t="str">
+      <c r="E16" s="34"/>
+      <c r="F16" s="30" t="str">
         <f>LOOKUP(E16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="37" t="str">
+      <c r="H16" s="35"/>
+      <c r="I16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3298,37 +3291,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="29">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="30">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="30">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="34" t="str">
+      <c r="E17" s="34"/>
+      <c r="F17" s="30" t="str">
         <f>LOOKUP(E17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="37" t="str">
+      <c r="H17" s="35"/>
+      <c r="I17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="41"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3350,37 +3343,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="34" t="str">
+      <c r="E18" s="34"/>
+      <c r="F18" s="30" t="str">
         <f>LOOKUP(E18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="37" t="str">
+      <c r="H18" s="35"/>
+      <c r="I18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="41"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="25"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3402,37 +3395,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="29">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="30">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="30">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="34" t="str">
+      <c r="E19" s="34"/>
+      <c r="F19" s="30" t="str">
         <f>LOOKUP(E19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37" t="str">
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3454,37 +3447,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="32">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="29">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="30">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="30">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="34" t="str">
+      <c r="E20" s="34"/>
+      <c r="F20" s="30" t="str">
         <f>LOOKUP(E20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="37" t="str">
+      <c r="H20" s="35"/>
+      <c r="I20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="22"/>
       <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3506,37 +3499,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="32">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="29">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="30">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="34" t="str">
+      <c r="E21" s="34"/>
+      <c r="F21" s="30" t="str">
         <f>LOOKUP(E21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="37" t="str">
+      <c r="H21" s="35"/>
+      <c r="I21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="41"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="22"/>
       <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3558,37 +3551,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="32">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="29">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="30">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="30">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="34" t="str">
+      <c r="E22" s="34"/>
+      <c r="F22" s="30" t="str">
         <f>LOOKUP(E22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="37" t="str">
+      <c r="H22" s="35"/>
+      <c r="I22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3610,37 +3603,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="32">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="29">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="30">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="30">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="34" t="str">
+      <c r="E23" s="34"/>
+      <c r="F23" s="30" t="str">
         <f>LOOKUP(E23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="37" t="str">
+      <c r="H23" s="35"/>
+      <c r="I23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="41"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="25"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3662,37 +3655,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="32">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="29">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="30">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="30">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="34" t="str">
+      <c r="E24" s="34"/>
+      <c r="F24" s="30" t="str">
         <f>LOOKUP(E24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="37" t="str">
+      <c r="H24" s="35"/>
+      <c r="I24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="41"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3714,37 +3707,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="32">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="29">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="34" t="str">
+      <c r="E25" s="34"/>
+      <c r="F25" s="30" t="str">
         <f>LOOKUP(E25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="37" t="str">
+      <c r="H25" s="35"/>
+      <c r="I25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3766,37 +3759,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="32">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="29">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="30">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="30">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="34" t="str">
+      <c r="E26" s="34"/>
+      <c r="F26" s="30" t="str">
         <f>LOOKUP(E26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="37" t="str">
+      <c r="H26" s="35"/>
+      <c r="I26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="25"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3818,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3832,10 +3825,9 @@
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="25"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3848,10 +3840,9 @@
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="25"/>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -3868,199 +3859,197 @@
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="40">
-        <v>2</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="10" t="str">
-        <f>INDEX(Einstellungen!B2:B18,MATCH(Notenliste!B34,Einstellungen!A2:A18,0))</f>
-        <v>Spanish - Listening Skills</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="69">
-        <v>44773</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="62"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="62"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="62"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="62"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="62"/>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
-    </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-    </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62"/>
-    </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="62"/>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="62"/>
-    </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="62"/>
-    </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="62"/>
+        <v>54</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+    </row>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+    </row>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+    </row>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+    </row>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+    </row>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -4068,19 +4057,10 @@
   <mergeCells count="1">
     <mergeCell ref="D31:G37"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekter Kursname" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Kursname" prompt="Bitte geben Sie den entsprechenden Kursname an. Wählen Sie aus der Dropdown-Liste." sqref="B34" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>KURSNAME</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>DOZENT</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0100-000003000000}">
-      <formula1>NIVEAU</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33" xr:uid="{00000000-0002-0000-0100-000004000000}">
-      <formula1>ECTS</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -4108,29 +4088,29 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
-        <v>Spanisch Mejora tu oído</v>
-      </c>
-      <c r="B1" s="92"/>
+        <v>course.name</v>
+      </c>
+      <c r="B1" s="82"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="14" t="e">
+      <c r="D1" s="13" t="e">
         <f>Notenliste!F28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4147,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -4156,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -4165,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -4174,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -4183,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -4192,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -4201,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -4210,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -4219,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4228,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -4263,1634 +4243,1634 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="21" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="23" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="11.5" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="67" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="str">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>Spanisch Mejora tu oído / Spanish - Listening Skills</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:14" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="94" t="str">
+        <v>course.name / course.name_english</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+    </row>
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95" t="str">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
-        <v>Semster: SS 2021</v>
-      </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" s="68" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+        <v>Semster: semester</v>
+      </c>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="str">
+      <c r="B4" s="18" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="18" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" s="19" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="E4" s="20" t="str">
+      <c r="E4" s="19" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="18" t="str">
         <f>RAWDATA!F2</f>
         <v>applicant.mail</v>
       </c>
-      <c r="G4" s="19" t="str">
+      <c r="G4" s="18" t="str">
         <f>RAWDATA!G2</f>
         <v>applicant.phone</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <f>RAWDATA!H2</f>
         <v>0</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f>RAWDATA!I2</f>
         <v>0</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!H2)</f>
         <v/>
       </c>
-      <c r="K4" s="18" t="str">
+      <c r="K4" s="17" t="str">
         <f>IF(L4&lt;=4,"X","")</f>
         <v/>
       </c>
-      <c r="L4" s="18" t="str">
+      <c r="L4" s="17" t="str">
         <f>Notenliste!F2</f>
         <v>KP</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f>Notenliste!E2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="20" t="str">
+      <c r="N4" s="19" t="str">
         <f>UPPER(Notenliste!J2)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>RAWDATA!F3</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="J5" s="17" t="str">
         <f>UPPER(Notenliste!H3)</f>
         <v/>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
         <v/>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="17" t="str">
         <f>Notenliste!F3</f>
         <v>KP</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="20" t="str">
+      <c r="N5" s="19" t="str">
         <f>UPPER(Notenliste!J3)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>RAWDATA!F4</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="17" t="str">
         <f>UPPER(Notenliste!H4)</f>
         <v/>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="17" t="str">
         <f>Notenliste!F4</f>
         <v>KP</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="19" t="str">
         <f>UPPER(Notenliste!J4)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <f>RAWDATA!F5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="17" t="str">
         <f>UPPER(Notenliste!H5)</f>
         <v/>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="17" t="str">
         <f>Notenliste!F5</f>
         <v>KP</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="19" t="str">
         <f>UPPER(Notenliste!J5)</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>RAWDATA!F6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="17" t="str">
         <f>UPPER(Notenliste!H6)</f>
         <v/>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="17" t="str">
         <f>Notenliste!F6</f>
         <v>KP</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="19" t="str">
         <f>UPPER(Notenliste!J6)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f>RAWDATA!F7</f>
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="17" t="str">
         <f>UPPER(Notenliste!H7)</f>
         <v/>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="17" t="str">
         <f>Notenliste!F7</f>
         <v>KP</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="19" t="str">
         <f>UPPER(Notenliste!J7)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f>RAWDATA!F8</f>
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="17" t="str">
         <f>UPPER(Notenliste!H8)</f>
         <v/>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="17" t="str">
         <f>Notenliste!F8</f>
         <v>KP</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="19" t="str">
         <f>UPPER(Notenliste!J8)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f>RAWDATA!F9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="17" t="str">
         <f>UPPER(Notenliste!H9)</f>
         <v/>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="17" t="str">
         <f>Notenliste!F9</f>
         <v>KP</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="20" t="str">
+      <c r="N11" s="19" t="str">
         <f>UPPER(Notenliste!J9)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f>RAWDATA!F10</f>
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="17" t="str">
         <f>UPPER(Notenliste!H10)</f>
         <v/>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="18" t="str">
+      <c r="L12" s="17" t="str">
         <f>Notenliste!F10</f>
         <v>KP</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="19" t="str">
         <f>UPPER(Notenliste!J10)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>RAWDATA!F11</f>
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="17" t="str">
         <f>UPPER(Notenliste!H11)</f>
         <v/>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="17" t="str">
         <f>Notenliste!F11</f>
         <v>KP</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="19" t="str">
         <f>UPPER(Notenliste!J11)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>RAWDATA!F12</f>
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="17" t="str">
         <f>UPPER(Notenliste!H12)</f>
         <v/>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="17" t="str">
         <f>Notenliste!F12</f>
         <v>KP</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="17">
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="19" t="str">
         <f>UPPER(Notenliste!J12)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>RAWDATA!F13</f>
         <v>0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="17" t="str">
         <f>UPPER(Notenliste!H13)</f>
         <v/>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="18" t="str">
+      <c r="L15" s="17" t="str">
         <f>Notenliste!F13</f>
         <v>KP</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="17">
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="19" t="str">
         <f>UPPER(Notenliste!J13)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f>RAWDATA!F14</f>
         <v>0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="17" t="str">
         <f>UPPER(Notenliste!H14)</f>
         <v/>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="17" t="str">
         <f>Notenliste!F14</f>
         <v>KP</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="17">
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="20" t="str">
+      <c r="N16" s="19" t="str">
         <f>UPPER(Notenliste!J14)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f>RAWDATA!F15</f>
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="17" t="str">
         <f>UPPER(Notenliste!H15)</f>
         <v/>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="17" t="str">
         <f>Notenliste!F15</f>
         <v>KP</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="20" t="str">
+      <c r="N17" s="19" t="str">
         <f>UPPER(Notenliste!J15)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>15</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f>RAWDATA!F16</f>
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="17" t="str">
         <f>UPPER(Notenliste!H16)</f>
         <v/>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="17" t="str">
         <f>Notenliste!F16</f>
         <v>KP</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="17">
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="20" t="str">
+      <c r="N18" s="19" t="str">
         <f>UPPER(Notenliste!J16)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <f>RAWDATA!F17</f>
         <v>0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="17" t="str">
         <f>UPPER(Notenliste!H17)</f>
         <v/>
       </c>
-      <c r="K19" s="18" t="str">
+      <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="18" t="str">
+      <c r="L19" s="17" t="str">
         <f>Notenliste!F17</f>
         <v>KP</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="17">
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="20" t="str">
+      <c r="N19" s="19" t="str">
         <f>UPPER(Notenliste!J17)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>17</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f>RAWDATA!F18</f>
         <v>0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="17" t="str">
         <f>UPPER(Notenliste!H18)</f>
         <v/>
       </c>
-      <c r="K20" s="18" t="str">
+      <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="18" t="str">
+      <c r="L20" s="17" t="str">
         <f>Notenliste!F18</f>
         <v>KP</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="17">
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="20" t="str">
+      <c r="N20" s="19" t="str">
         <f>UPPER(Notenliste!J18)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f>RAWDATA!F19</f>
         <v>0</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="17" t="str">
         <f>UPPER(Notenliste!H19)</f>
         <v/>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="17" t="str">
         <f>Notenliste!F19</f>
         <v>KP</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="17">
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="20" t="str">
+      <c r="N21" s="19" t="str">
         <f>UPPER(Notenliste!J19)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>19</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <f>RAWDATA!F20</f>
         <v>0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="17" t="str">
         <f>UPPER(Notenliste!H20)</f>
         <v/>
       </c>
-      <c r="K22" s="18" t="str">
+      <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="18" t="str">
+      <c r="L22" s="17" t="str">
         <f>Notenliste!F20</f>
         <v>KP</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="17">
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="20" t="str">
+      <c r="N22" s="19" t="str">
         <f>UPPER(Notenliste!J20)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f>RAWDATA!F21</f>
         <v>0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="17" t="str">
         <f>UPPER(Notenliste!H21)</f>
         <v/>
       </c>
-      <c r="K23" s="18" t="str">
+      <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="18" t="str">
+      <c r="L23" s="17" t="str">
         <f>Notenliste!F21</f>
         <v>KP</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="17">
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="20" t="str">
+      <c r="N23" s="19" t="str">
         <f>UPPER(Notenliste!J21)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>21</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f>RAWDATA!F22</f>
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="17" t="str">
         <f>UPPER(Notenliste!H22)</f>
         <v/>
       </c>
-      <c r="K24" s="18" t="str">
+      <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="18" t="str">
+      <c r="L24" s="17" t="str">
         <f>Notenliste!F22</f>
         <v>KP</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="20" t="str">
+      <c r="N24" s="19" t="str">
         <f>UPPER(Notenliste!J22)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f>RAWDATA!F23</f>
         <v>0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="17" t="str">
         <f>UPPER(Notenliste!H23)</f>
         <v/>
       </c>
-      <c r="K25" s="18" t="str">
+      <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="18" t="str">
+      <c r="L25" s="17" t="str">
         <f>Notenliste!F23</f>
         <v>KP</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="20" t="str">
+      <c r="N25" s="19" t="str">
         <f>UPPER(Notenliste!J23)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>23</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f>RAWDATA!F24</f>
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="17" t="str">
         <f>UPPER(Notenliste!H24)</f>
         <v/>
       </c>
-      <c r="K26" s="18" t="str">
+      <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="17" t="str">
         <f>Notenliste!F24</f>
         <v>KP</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="17">
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="20" t="str">
+      <c r="N26" s="19" t="str">
         <f>UPPER(Notenliste!J24)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>24</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f>RAWDATA!F25</f>
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="17" t="str">
         <f>UPPER(Notenliste!H25)</f>
         <v/>
       </c>
-      <c r="K27" s="18" t="str">
+      <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L27" s="18" t="str">
+      <c r="L27" s="17" t="str">
         <f>Notenliste!F25</f>
         <v>KP</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="17">
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="20" t="str">
+      <c r="N27" s="19" t="str">
         <f>UPPER(Notenliste!J25)</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f>RAWDATA!F26</f>
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="17" t="str">
         <f>UPPER(Notenliste!H26)</f>
         <v/>
       </c>
-      <c r="K28" s="18" t="str">
+      <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="18" t="str">
+      <c r="L28" s="17" t="str">
         <f>Notenliste!F26</f>
         <v>KP</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="17">
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="20" t="str">
+      <c r="N28" s="19" t="str">
         <f>UPPER(Notenliste!J26)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="18">
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="17">
         <f>COUNTIF(J4:J28,"X")</f>
         <v>0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="17">
         <f>COUNTIF(K4:K28,"X")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="66"/>
-    </row>
-    <row r="30" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="96" t="s">
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="60"/>
+    </row>
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-    </row>
-    <row r="31" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-    </row>
-    <row r="32" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-    </row>
-    <row r="33" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="67"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+    </row>
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+    </row>
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+    </row>
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -5926,1204 +5906,1204 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="0.83203125" style="23" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="0.83203125" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="60" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="61" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="44" customWidth="1"/>
-    <col min="25" max="31" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.5" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.77734375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="str">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
-        <v>Spanisch Mejora tu oído / Spanish - Listening Skills</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-    </row>
-    <row r="2" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+        <v>course.name / course.name_english</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-    </row>
-    <row r="3" spans="1:24" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="str">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-    </row>
-    <row r="4" spans="1:24" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="107" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="98" t="s">
+      <c r="X4" s="87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>4</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>6</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>7</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>8</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>9</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>10</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>11</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>12</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <v>13</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <v>14</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="U5" s="48"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="18" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="D6" s="19" t="str">
+      <c r="D6" s="18" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="E6" s="19" t="str">
+      <c r="E6" s="18" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+    </row>
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+    </row>
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="F8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="F9" s="52"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+    </row>
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="F10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+    </row>
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="F11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+    </row>
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="F12" s="52"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>8</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="F13" s="52"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+    </row>
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>9</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="F14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+    </row>
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>11</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="F16" s="52"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+    </row>
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>12</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="F17" s="52"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+    </row>
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>13</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="F18" s="52"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+    </row>
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>14</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="F19" s="52"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>15</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="F20" s="52"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>16</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="F21" s="52"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+    </row>
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>17</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="F22" s="52"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+    </row>
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>18</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+    </row>
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>19</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="F24" s="52"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+    </row>
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>20</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
+      <c r="F25" s="52"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+    </row>
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>21</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="F26" s="52"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+    </row>
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>22</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>23</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="F28" s="52"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+    </row>
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>24</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+      <c r="F29" s="52"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+    </row>
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>25</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -7163,542 +7143,492 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="70" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="74" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
+    <col min="1" max="1" width="18" style="64" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="str">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="75" t="str">
+        <v>course.ects_points</v>
+      </c>
+      <c r="D2" s="68" t="str">
         <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="66" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
-        <v>44773</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="str">
+        <v>exam_date</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C3" s="73" t="str">
+      <c r="C3" t="str">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D3" s="75" t="str">
+      <c r="D3" s="68" t="str">
         <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="72" t="str">
+      <c r="E3" s="66" t="str">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="str">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C4" s="73" t="str">
+      <c r="C4" t="str">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="68" t="str">
         <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="72" t="str">
+      <c r="E4" s="66" t="str">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="70" t="str">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C5" s="73" t="str">
+      <c r="C5" t="str">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="75" t="str">
+      <c r="D5" s="68" t="str">
         <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="72" t="str">
+      <c r="E5" s="66" t="str">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="str">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C6" s="73" t="str">
+      <c r="C6" t="str">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="D6" s="68" t="str">
         <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="72" t="str">
+      <c r="E6" s="66" t="str">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="str">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C7" s="73" t="str">
+      <c r="C7" t="str">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="68" t="str">
         <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="72" t="str">
+      <c r="E7" s="66" t="str">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="str">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C8" s="73" t="str">
+      <c r="C8" t="str">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D8" s="75" t="str">
+      <c r="D8" s="68" t="str">
         <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="72" t="str">
+      <c r="E8" s="66" t="str">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="str">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C9" s="73" t="str">
+      <c r="C9" t="str">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="D9" s="68" t="str">
         <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="66" t="str">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="str">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C10" s="73" t="str">
+      <c r="C10" t="str">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="68" t="str">
         <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="66" t="str">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="str">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C11" s="73" t="str">
+      <c r="C11" t="str">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="68" t="str">
         <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="72" t="str">
+      <c r="E11" s="66" t="str">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="70" t="str">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C12" s="73" t="str">
+      <c r="C12" t="str">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="75" t="str">
+      <c r="D12" s="68" t="str">
         <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="72" t="str">
+      <c r="E12" s="66" t="str">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="str">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C13" s="73" t="str">
+      <c r="C13" t="str">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="75" t="str">
+      <c r="D13" s="68" t="str">
         <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="72" t="str">
+      <c r="E13" s="66" t="str">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="str">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C14" s="73" t="str">
+      <c r="C14" t="str">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D14" s="75" t="str">
+      <c r="D14" s="68" t="str">
         <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="72" t="str">
+      <c r="E14" s="66" t="str">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="str">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C15" s="73" t="str">
+      <c r="C15" t="str">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="D15" s="68" t="str">
         <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="72" t="str">
+      <c r="E15" s="66" t="str">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="str">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C16" s="73" t="str">
+      <c r="C16" t="str">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="68" t="str">
         <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="72" t="str">
+      <c r="E16" s="66" t="str">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="str">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C17" s="73" t="str">
+      <c r="C17" t="str">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="75" t="str">
+      <c r="D17" s="68" t="str">
         <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="72" t="str">
+      <c r="E17" s="66" t="str">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="str">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C18" s="73" t="str">
+      <c r="C18" t="str">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="75" t="str">
+      <c r="D18" s="68" t="str">
         <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="72" t="str">
+      <c r="E18" s="66" t="str">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="str">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="73" t="str">
+      <c r="C19" t="str">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D19" s="75" t="str">
+      <c r="D19" s="68" t="str">
         <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="72" t="str">
+      <c r="E19" s="66" t="str">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="str">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C20" s="73" t="str">
+      <c r="C20" t="str">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D20" s="75" t="str">
+      <c r="D20" s="68" t="str">
         <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="72" t="str">
+      <c r="E20" s="66" t="str">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="str">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C21" s="73" t="str">
+      <c r="C21" t="str">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D21" s="75" t="str">
+      <c r="D21" s="68" t="str">
         <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="72" t="str">
+      <c r="E21" s="66" t="str">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="str">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C22" s="73" t="str">
+      <c r="C22" t="str">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D22" s="75" t="str">
+      <c r="D22" s="68" t="str">
         <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="72" t="str">
+      <c r="E22" s="66" t="str">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="str">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C23" s="73" t="str">
+      <c r="C23" t="str">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D23" s="75" t="str">
+      <c r="D23" s="68" t="str">
         <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="72" t="str">
+      <c r="E23" s="66" t="str">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="70" t="str">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C24" s="73" t="str">
+      <c r="C24" t="str">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="75" t="str">
+      <c r="D24" s="68" t="str">
         <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="72" t="str">
+      <c r="E24" s="66" t="str">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="str">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C25" s="73" t="str">
+      <c r="C25" t="str">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="68" t="str">
         <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="72" t="str">
+      <c r="E25" s="66" t="str">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="str">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C26" s="73" t="str">
+      <c r="C26" t="str">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D26" s="75" t="str">
+      <c r="D26" s="68" t="str">
         <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="72" t="str">
+      <c r="E26" s="66" t="str">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
@@ -7736,260 +7666,251 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="84"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.77734375" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="F1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="H1" s="70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="F2" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B3" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="D10" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="D11" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="D12" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="D13" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="D14" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="D15" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="81"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="81"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="D10" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="D11" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="D12" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="D13" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="D14" s="79" t="s">
+      <c r="F15" s="71"/>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="D15" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="79"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="D16" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="79"/>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="H17" s="81"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="89"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="89"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="89"/>
+      <c r="F16" s="71"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="H18" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE32A9-5451-453C-B3B4-0CDAC1079060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
     <sheet name="Notenliste" sheetId="9" r:id="rId2"/>
-    <sheet name="Notenverteilung" sheetId="8" r:id="rId3"/>
-    <sheet name="Printlist" sheetId="10" r:id="rId4"/>
-    <sheet name="Paricipantlist" sheetId="12" r:id="rId5"/>
-    <sheet name="Teilnehmer" sheetId="13" r:id="rId6"/>
-    <sheet name="Einstellungen" sheetId="14" r:id="rId7"/>
+    <sheet name="Extrapunkte" sheetId="15" r:id="rId3"/>
+    <sheet name="Notenverteilung" sheetId="8" r:id="rId4"/>
+    <sheet name="Printlist" sheetId="10" r:id="rId5"/>
+    <sheet name="Paricipantlist" sheetId="12" r:id="rId6"/>
+    <sheet name="Teilnehmer" sheetId="13" r:id="rId7"/>
+    <sheet name="Einstellungen" sheetId="14" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -445,11 +449,44 @@
   <si>
     <t>course.name_english</t>
   </si>
+  <si>
+    <t>Ines Gallego Perez</t>
+  </si>
+  <si>
+    <t>Victor Rubio Moreno</t>
+  </si>
+  <si>
+    <t>Aktivität 1</t>
+  </si>
+  <si>
+    <t>Aktivität 2</t>
+  </si>
+  <si>
+    <t>Aktivität 3</t>
+  </si>
+  <si>
+    <t>Aktivität 4</t>
+  </si>
+  <si>
+    <t>Punkte (30)</t>
+  </si>
+  <si>
+    <t>Gesamt Aktivitäten</t>
+  </si>
+  <si>
+    <t>comunicación oral</t>
+  </si>
+  <si>
+    <t>Aktivitäten</t>
+  </si>
+  <si>
+    <t>mündliche Beteiligung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -741,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -965,9 +1002,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,11 +1088,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1349,41 +1426,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RAWDATA"/>
+      <sheetName val="Notenliste"/>
+      <sheetName val="Extrapunkte"/>
+      <sheetName val="Notenverteilung"/>
+      <sheetName val="Printlist"/>
+      <sheetName val="Paricipantlist"/>
+      <sheetName val="Teilnehmer"/>
+      <sheetName val="Einstellungen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>course.name</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{59D6EF78-CE9B-CE49-8D84-470E633C58CD}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B1:G2" xr:uid="{D53E307F-7E5A-AF47-9B1D-B15194DA8CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B1:G2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2E320765-FED5-2349-A3B8-A1FB2FDB34E0}" name="Nachname" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C94E62B4-32B9-B943-81E6-68CB060B28F3}" name="Vorname" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3C20CFC7-6904-4C42-A03A-98A370049761}" name="Hochschule" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1216CC6F-6E17-8048-AEC8-31AEBEAC2215}" name="Matrikelnummer" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AE34A6B8-B1F1-CF49-8559-234F376337D5}" name="E-Mail" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{AF514290-AAE7-E44D-82AA-92741890AD40}" name="Telefon" dataDxfId="8"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="13"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="12"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="11"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="10"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="9"/>
+    <tableColumn id="6" name="Telefon" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1675,28 +1785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.77734375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1748,103 +1858,103 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="E4" s="39"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="E7" s="39"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11" s="39"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="41"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="E13" s="41"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="41"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" s="41"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1852,7 +1962,7 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1860,7 +1970,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1868,7 +1978,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1876,27 +1986,27 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1916,555 +2026,555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.109375" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.77734375" style="2" hidden="1"/>
-    <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.140625" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" hidden="1"/>
+    <col min="16" max="16" width="17.7109375" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
-    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.44140625" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.44140625" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.44140625" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.77734375" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.44140625" style="1" hidden="1"/>
+    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.42578125" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.42578125" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.42578125" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.7109375" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.7109375" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.42578125" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.44140625" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.44140625" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.44140625" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.44140625" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.77734375" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.44140625" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.42578125" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.42578125" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.42578125" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.42578125" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.7109375" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.7109375" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.42578125" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.44140625" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.44140625" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.44140625" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.44140625" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.77734375" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.44140625" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.42578125" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.42578125" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.42578125" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.42578125" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.7109375" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.7109375" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.42578125" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.44140625" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.44140625" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.44140625" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.44140625" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.77734375" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.44140625" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.42578125" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.42578125" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.42578125" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.42578125" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.7109375" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.7109375" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.42578125" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.44140625" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.44140625" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.44140625" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.44140625" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.77734375" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.44140625" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.42578125" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.42578125" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.42578125" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.42578125" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.7109375" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.7109375" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.42578125" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.44140625" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.44140625" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.44140625" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.44140625" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.77734375" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.44140625" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.42578125" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.42578125" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.42578125" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.42578125" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.7109375" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.7109375" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.42578125" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.44140625" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.44140625" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.44140625" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.44140625" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.77734375" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.44140625" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.42578125" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.42578125" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.42578125" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.42578125" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.7109375" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.7109375" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.42578125" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.44140625" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.44140625" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.44140625" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.44140625" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.77734375" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.44140625" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.42578125" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.42578125" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.42578125" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.42578125" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.7109375" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.7109375" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.42578125" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.44140625" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.44140625" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.44140625" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.44140625" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.77734375" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.44140625" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.42578125" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.42578125" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.42578125" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.42578125" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.7109375" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.7109375" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.42578125" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.44140625" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.44140625" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.44140625" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.44140625" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.77734375" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.44140625" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.42578125" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.42578125" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.42578125" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.42578125" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.7109375" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.7109375" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.42578125" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.44140625" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.44140625" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.44140625" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.44140625" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.77734375" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.44140625" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.42578125" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.42578125" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.42578125" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.42578125" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.7109375" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.7109375" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.42578125" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.44140625" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.44140625" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.44140625" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.44140625" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.77734375" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.44140625" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.42578125" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.42578125" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.42578125" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.42578125" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.7109375" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.7109375" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.42578125" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.44140625" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.44140625" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.44140625" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.44140625" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.77734375" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.44140625" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.42578125" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.42578125" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.42578125" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.42578125" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.7109375" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.7109375" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.42578125" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.44140625" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.44140625" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.44140625" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.44140625" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.77734375" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.44140625" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.42578125" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.42578125" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.42578125" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.42578125" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.7109375" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.7109375" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.42578125" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.44140625" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.44140625" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.44140625" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.44140625" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.77734375" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.44140625" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.42578125" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.42578125" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.42578125" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.42578125" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.7109375" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.7109375" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.42578125" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.44140625" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.44140625" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.44140625" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.44140625" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.77734375" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.44140625" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.42578125" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.42578125" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.42578125" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.42578125" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.7109375" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.7109375" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.42578125" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.44140625" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.44140625" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.44140625" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.44140625" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.77734375" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.44140625" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.42578125" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.42578125" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.42578125" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.42578125" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.7109375" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.7109375" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.42578125" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.44140625" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.44140625" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.44140625" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.44140625" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.77734375" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.44140625" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.42578125" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.42578125" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.42578125" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.42578125" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.7109375" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.7109375" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.42578125" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.44140625" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.44140625" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.44140625" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.44140625" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.77734375" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.44140625" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.42578125" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.42578125" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.42578125" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.42578125" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.7109375" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.7109375" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.42578125" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.44140625" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.44140625" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.44140625" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.44140625" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.77734375" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.44140625" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.42578125" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.42578125" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.42578125" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.42578125" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.7109375" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.7109375" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.42578125" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.44140625" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.44140625" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.44140625" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.44140625" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.77734375" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.44140625" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.42578125" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.42578125" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.42578125" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.42578125" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.7109375" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.7109375" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.42578125" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.44140625" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.44140625" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.44140625" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.44140625" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.77734375" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.44140625" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.42578125" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.42578125" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.42578125" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.42578125" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.7109375" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.7109375" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.42578125" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.44140625" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.44140625" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.44140625" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.44140625" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.77734375" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.44140625" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.42578125" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.42578125" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.42578125" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.42578125" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.7109375" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.7109375" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.42578125" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.44140625" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.44140625" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.44140625" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.44140625" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.77734375" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.44140625" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.42578125" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.42578125" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.42578125" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.42578125" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.7109375" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.7109375" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.42578125" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.44140625" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.44140625" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.44140625" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.44140625" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.77734375" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.44140625" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.42578125" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.42578125" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.42578125" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.42578125" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.7109375" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.7109375" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.42578125" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.44140625" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.44140625" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.44140625" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.44140625" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.77734375" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.44140625" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.42578125" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.42578125" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.42578125" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.42578125" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.7109375" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.7109375" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.42578125" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.44140625" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.44140625" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.44140625" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.44140625" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.77734375" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.44140625" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.42578125" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.42578125" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.42578125" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.42578125" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.7109375" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.7109375" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.42578125" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.44140625" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.44140625" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.44140625" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.44140625" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.77734375" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.44140625" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.42578125" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.42578125" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.42578125" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.42578125" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.7109375" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.7109375" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.42578125" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.44140625" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.44140625" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.44140625" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.44140625" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.77734375" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.44140625" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.42578125" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.42578125" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.42578125" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.42578125" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.7109375" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.7109375" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.42578125" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.44140625" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.44140625" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.44140625" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.44140625" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.77734375" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.44140625" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.42578125" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.42578125" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.42578125" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.42578125" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.7109375" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.7109375" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.42578125" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.44140625" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.44140625" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.44140625" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.44140625" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.77734375" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.44140625" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.42578125" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.42578125" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.42578125" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.42578125" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.7109375" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.7109375" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.42578125" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.44140625" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.44140625" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.44140625" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.44140625" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.77734375" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.44140625" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.42578125" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.42578125" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.42578125" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.42578125" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.7109375" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.7109375" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.42578125" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.44140625" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.44140625" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.44140625" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.44140625" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.77734375" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.44140625" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.42578125" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.42578125" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.42578125" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.42578125" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.7109375" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.7109375" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.42578125" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.44140625" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.44140625" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.44140625" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.44140625" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.77734375" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.44140625" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.42578125" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.42578125" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.42578125" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.42578125" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.7109375" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.7109375" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.42578125" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.44140625" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.44140625" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.44140625" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.44140625" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.77734375" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.44140625" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.42578125" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.42578125" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.42578125" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.42578125" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.7109375" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.7109375" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.42578125" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.44140625" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.44140625" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.44140625" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.44140625" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.77734375" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.44140625" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.42578125" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.42578125" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.42578125" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.42578125" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.7109375" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.7109375" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.42578125" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.44140625" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.44140625" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.44140625" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.44140625" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.77734375" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.44140625" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.42578125" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.42578125" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.42578125" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.42578125" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.7109375" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.7109375" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.42578125" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.44140625" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.44140625" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.44140625" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.44140625" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.77734375" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.44140625" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.42578125" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.42578125" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.42578125" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.42578125" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.7109375" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.7109375" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.42578125" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.44140625" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.44140625" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.44140625" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.44140625" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.77734375" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.44140625" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.42578125" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.42578125" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.42578125" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.42578125" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.7109375" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.7109375" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.42578125" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.44140625" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.44140625" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.44140625" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.44140625" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.77734375" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.44140625" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.42578125" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.42578125" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.42578125" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.42578125" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.7109375" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.7109375" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.42578125" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.44140625" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.44140625" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.44140625" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.44140625" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.77734375" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.44140625" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.42578125" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.42578125" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.42578125" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.42578125" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.7109375" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.7109375" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.42578125" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.44140625" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.44140625" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.44140625" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.44140625" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.77734375" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.44140625" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.42578125" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.42578125" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.42578125" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.42578125" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.7109375" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.7109375" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.42578125" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.44140625" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.44140625" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.44140625" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.44140625" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.77734375" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.44140625" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.42578125" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.42578125" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.42578125" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.42578125" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.7109375" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.7109375" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.42578125" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.44140625" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.44140625" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.44140625" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.44140625" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.77734375" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.44140625" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.42578125" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.42578125" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.42578125" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.42578125" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.7109375" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.7109375" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.42578125" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.44140625" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.44140625" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.44140625" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.44140625" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.77734375" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.44140625" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.42578125" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.42578125" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.42578125" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.42578125" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.7109375" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.7109375" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.42578125" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.44140625" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.44140625" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.44140625" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.44140625" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.77734375" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.44140625" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.42578125" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.42578125" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.42578125" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.42578125" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.7109375" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.7109375" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.42578125" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.44140625" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.44140625" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.44140625" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.44140625" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.77734375" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.44140625" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.42578125" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.42578125" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.42578125" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.42578125" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.7109375" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.7109375" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.42578125" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.44140625" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.44140625" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.44140625" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.44140625" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.77734375" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.44140625" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.42578125" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.42578125" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.42578125" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.42578125" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.7109375" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.7109375" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.42578125" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.44140625" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.44140625" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.44140625" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.44140625" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.77734375" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.44140625" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.42578125" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.42578125" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.42578125" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.42578125" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.7109375" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.7109375" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.42578125" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.44140625" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.44140625" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.44140625" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.44140625" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.77734375" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.44140625" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.42578125" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.42578125" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.42578125" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.42578125" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.7109375" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.7109375" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.42578125" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.44140625" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.44140625" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.44140625" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.44140625" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.77734375" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.44140625" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.42578125" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.42578125" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.42578125" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.42578125" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.7109375" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.7109375" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.42578125" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.44140625" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.44140625" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.44140625" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.44140625" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.77734375" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.44140625" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.42578125" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.42578125" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.42578125" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.42578125" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.7109375" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.7109375" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.42578125" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.44140625" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.44140625" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.44140625" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.44140625" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.77734375" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.44140625" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.42578125" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.42578125" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.42578125" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.42578125" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.7109375" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.7109375" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.42578125" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.44140625" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.44140625" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.44140625" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.44140625" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.77734375" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.44140625" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.42578125" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.42578125" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.42578125" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.42578125" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.7109375" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.7109375" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.42578125" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.44140625" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.44140625" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.44140625" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.44140625" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.77734375" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.44140625" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.42578125" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.42578125" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.42578125" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.42578125" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.7109375" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.7109375" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.42578125" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.44140625" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.44140625" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.44140625" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.44140625" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.77734375" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.44140625" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.42578125" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.42578125" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.42578125" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.42578125" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.7109375" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.7109375" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.42578125" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.44140625" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.44140625" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.44140625" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.44140625" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.77734375" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.44140625" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.42578125" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.42578125" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.42578125" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.42578125" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.7109375" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.7109375" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.42578125" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.44140625" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.44140625" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.44140625" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.44140625" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.77734375" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.44140625" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.42578125" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.42578125" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.42578125" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.42578125" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.7109375" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.7109375" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.42578125" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.44140625" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.44140625" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.44140625" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.44140625" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.77734375" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.44140625" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.42578125" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.42578125" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.42578125" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.42578125" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.7109375" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.7109375" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.42578125" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.44140625" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.44140625" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.44140625" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.44140625" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.77734375" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.44140625" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.42578125" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.42578125" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.42578125" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.42578125" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.7109375" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.7109375" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.42578125" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.44140625" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.44140625" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.44140625" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.44140625" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.77734375" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.44140625" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.42578125" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.42578125" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.42578125" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.42578125" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.7109375" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.7109375" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.42578125" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.44140625" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.44140625" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.44140625" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.44140625" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.77734375" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.44140625" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.42578125" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.42578125" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.42578125" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.42578125" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.7109375" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.7109375" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.42578125" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.44140625" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.44140625" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.44140625" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.44140625" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.77734375" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.44140625" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.42578125" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.42578125" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.42578125" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.42578125" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.7109375" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.7109375" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.42578125" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.44140625" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.44140625" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.77734375" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.44140625" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.42578125" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.42578125" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.42578125" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.7109375" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.7109375" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.42578125" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.44140625" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.44140625" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.42578125" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.42578125" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.44140625" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.42578125" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2563,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2615,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2667,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2719,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2771,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2823,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -2875,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -2927,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -2979,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3031,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3083,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3135,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3187,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3239,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3291,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3343,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3395,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3447,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3499,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3551,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -3603,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -3655,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -3707,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -3759,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -3811,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3827,7 +3937,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3842,7 +3952,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -3861,7 +3971,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -3875,7 +3985,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3883,19 +3993,19 @@
         <v>63</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -3903,17 +4013,17 @@
         <v>106</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="31"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3921,17 +4031,17 @@
         <v>107</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="31"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3939,17 +4049,17 @@
         <v>110</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -3957,17 +4067,17 @@
         <v>111</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="31"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -3975,17 +4085,17 @@
         <v>108</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="31"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -3993,62 +4103,62 @@
         <v>109</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="22"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4058,17 +4168,18 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31">
       <formula1>DOZENT</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Fett"&amp;14&amp;A&amp;R&amp;"Arial Black,Standard"&amp;28SpZ</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Standard"&amp;12Seite &amp;P von &amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4078,7 +4189,963 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="111" t="str">
+        <f>[1]Notenliste!B34</f>
+        <v>course.name</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="83"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="str">
+        <f>RAWDATA!B2</f>
+        <v>applicant.last_name</v>
+      </c>
+      <c r="B3" s="29" t="str">
+        <f>RAWDATA!C2</f>
+        <v>applicant.first_name</v>
+      </c>
+      <c r="C3" s="30" t="str">
+        <f>RAWDATA!D2</f>
+        <v>applicant.origin.short_name</v>
+      </c>
+      <c r="D3" s="30" t="str">
+        <f>RAWDATA!E2</f>
+        <v>applicant.tag</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="112">
+        <f>SUM(E3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="86">
+        <f>SUM(I3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <f>RAWDATA!B3</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="29">
+        <f>RAWDATA!C3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <f>RAWDATA!D3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <f>RAWDATA!E3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="112">
+        <f t="shared" ref="I4:I27" si="0">SUM(E4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="86">
+        <f t="shared" ref="K4:K27" si="1">SUM(I4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <f>RAWDATA!B4</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="29">
+        <f>RAWDATA!C4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="30">
+        <f>RAWDATA!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <f>RAWDATA!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <f>RAWDATA!B5</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="29">
+        <f>RAWDATA!C5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="30">
+        <f>RAWDATA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <f>RAWDATA!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <f>RAWDATA!B6</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="29">
+        <f>RAWDATA!C6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <f>RAWDATA!D6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <f>RAWDATA!E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <f>RAWDATA!B7</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="29">
+        <f>RAWDATA!C7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <f>RAWDATA!D7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <f>RAWDATA!E7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <f>RAWDATA!B8</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="29">
+        <f>RAWDATA!C8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <f>RAWDATA!D8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <f>RAWDATA!E8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <f>RAWDATA!B9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="29">
+        <f>RAWDATA!C9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <f>RAWDATA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <f>RAWDATA!E9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <f>RAWDATA!B10</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="29">
+        <f>RAWDATA!C10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="30">
+        <f>RAWDATA!D10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <f>RAWDATA!E10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <f>RAWDATA!B11</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="29">
+        <f>RAWDATA!C11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="30">
+        <f>RAWDATA!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f>RAWDATA!E11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <f>RAWDATA!B12</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="29">
+        <f>RAWDATA!C12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="30">
+        <f>RAWDATA!D12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f>RAWDATA!E12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <f>RAWDATA!B13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="29">
+        <f>RAWDATA!C13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <f>RAWDATA!D13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <f>RAWDATA!E13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <f>RAWDATA!B14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="29">
+        <f>RAWDATA!C14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="30">
+        <f>RAWDATA!D14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <f>RAWDATA!E14</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <f>RAWDATA!B15</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="29">
+        <f>RAWDATA!C15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="30">
+        <f>RAWDATA!D15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <f>RAWDATA!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <f>RAWDATA!B16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="29">
+        <f>RAWDATA!C16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <f>RAWDATA!D16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <f>RAWDATA!E16</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <f>RAWDATA!B17</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="29">
+        <f>RAWDATA!C17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
+        <f>RAWDATA!D17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
+        <f>RAWDATA!E17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <f>RAWDATA!B18</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="29">
+        <f>RAWDATA!C18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="30">
+        <f>RAWDATA!D18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <f>RAWDATA!E18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <f>RAWDATA!B19</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="29">
+        <f>RAWDATA!C19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="30">
+        <f>RAWDATA!D19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <f>RAWDATA!E19</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <f>RAWDATA!B20</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="29">
+        <f>RAWDATA!C20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="30">
+        <f>RAWDATA!D20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="30">
+        <f>RAWDATA!E20</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <f>RAWDATA!B21</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="29">
+        <f>RAWDATA!C21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="30">
+        <f>RAWDATA!D21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
+        <f>RAWDATA!E21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <f>RAWDATA!B22</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="29">
+        <f>RAWDATA!C22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="30">
+        <f>RAWDATA!D22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <f>RAWDATA!E22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <f>RAWDATA!B23</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="29">
+        <f>RAWDATA!C23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <f>RAWDATA!D23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <f>RAWDATA!E23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <f>RAWDATA!B24</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="29">
+        <f>RAWDATA!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="30">
+        <f>RAWDATA!D24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
+        <f>RAWDATA!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="86">
+        <f>SUM(I25:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <f>RAWDATA!B25</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="29">
+        <f>RAWDATA!C25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="30">
+        <f>RAWDATA!D25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="30">
+        <f>RAWDATA!E25</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <f>RAWDATA!B26</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="29">
+        <f>RAWDATA!C26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="30">
+        <f>RAWDATA!D26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
+        <f>RAWDATA!E26</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="112">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90">
+        <f>AVERAGE(IF(ISNUMBER(K3:K27),K3:K27))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="91">
+        <f>ROUNDUP(STDEVP(K3:K19),1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4088,20 +5155,20 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -4110,7 +5177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +5185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4127,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -4136,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -4145,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -4154,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -4163,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -4172,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -4181,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -4190,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -4199,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -4208,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -4232,8 +5299,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4243,62 +5310,62 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="str">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-    </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85" t="str">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+    </row>
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -4342,7 +5409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -4399,7 +5466,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -4456,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -4513,7 +5580,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -4570,7 +5637,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -4627,7 +5694,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -4684,7 +5751,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -4741,7 +5808,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -4798,7 +5865,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -4855,7 +5922,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -4912,7 +5979,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -4969,7 +6036,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -5026,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -5083,7 +6150,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -5140,7 +6207,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -5197,7 +6264,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -5254,7 +6321,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -5311,7 +6378,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -5368,7 +6435,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -5425,7 +6492,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -5482,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -5539,7 +6606,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -5596,7 +6663,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -5653,7 +6720,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -5710,7 +6777,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -5767,7 +6834,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -5789,87 +6856,87 @@
       <c r="M29" s="58"/>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-    </row>
-    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-    </row>
-    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-    </row>
-    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+    </row>
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+    </row>
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+    </row>
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -5895,8 +6962,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5906,123 +6973,123 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.77734375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.77734375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="str">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="107" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="44"/>
@@ -6041,22 +7108,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="87" t="s">
+      <c r="X4" s="100" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="95"/>
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -6101,11 +7168,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V5" s="110"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -6145,7 +7212,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -6185,7 +7252,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -6225,7 +7292,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -6265,7 +7332,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -6305,7 +7372,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -6345,7 +7412,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -6385,7 +7452,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -6425,7 +7492,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -6465,7 +7532,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -6505,7 +7572,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -6545,7 +7612,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -6585,7 +7652,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -6625,7 +7692,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -6665,7 +7732,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -6705,7 +7772,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -6745,7 +7812,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -6785,7 +7852,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -6825,7 +7892,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -6865,7 +7932,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -6905,7 +7972,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -6945,7 +8012,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -6985,7 +8052,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -7025,7 +8092,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -7065,7 +8132,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -7135,26 +8202,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -7180,7 +8247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -7198,7 +8265,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -7216,7 +8283,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -7234,7 +8301,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -7252,7 +8319,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -7270,7 +8337,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -7288,7 +8355,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -7306,7 +8373,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -7324,7 +8391,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -7342,7 +8409,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -7360,7 +8427,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -7378,7 +8445,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -7396,7 +8463,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -7414,7 +8481,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -7432,7 +8499,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -7450,7 +8517,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -7468,7 +8535,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -7486,7 +8553,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -7504,7 +8571,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -7522,7 +8589,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -7540,7 +8607,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -7558,7 +8625,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -7576,7 +8643,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -7594,7 +8661,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -7612,7 +8679,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -7633,21 +8700,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -7664,27 +8731,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -7701,7 +8768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -7718,7 +8785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -7735,7 +8802,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -7750,7 +8817,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -7765,7 +8832,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -7780,7 +8847,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -7795,7 +8862,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -7810,7 +8877,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -7825,7 +8892,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -7836,7 +8903,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -7847,7 +8914,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -7858,7 +8925,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -7869,7 +8936,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -7880,32 +8947,36 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="71"/>
+      <c r="F15" s="71" t="s">
+        <v>112</v>
+      </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="71" t="s">
+        <v>113</v>
+      </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
       <c r="F17" s="71"/>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -21,9 +21,6 @@
     <sheet name="Teilnehmer" sheetId="13" r:id="rId7"/>
     <sheet name="Einstellungen" sheetId="14" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
@@ -1035,63 +1032,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1424,39 +1421,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RAWDATA"/>
-      <sheetName val="Notenliste"/>
-      <sheetName val="Extrapunkte"/>
-      <sheetName val="Notenverteilung"/>
-      <sheetName val="Printlist"/>
-      <sheetName val="Paricipantlist"/>
-      <sheetName val="Teilnehmer"/>
-      <sheetName val="Einstellungen"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>course.name</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3993,12 +3957,12 @@
         <v>63</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
@@ -4013,10 +3977,10 @@
         <v>106</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
       <c r="H32" s="31"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
@@ -4031,10 +3995,10 @@
         <v>107</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="31"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
@@ -4049,10 +4013,10 @@
         <v>110</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
@@ -4067,10 +4031,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="31"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
@@ -4085,10 +4049,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
       <c r="H36" s="31"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
@@ -4103,10 +4067,10 @@
         <v>109</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
       <c r="H37" s="22"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
@@ -4193,7 +4157,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,16 +4174,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="str">
-        <f>[1]Notenliste!B34</f>
+      <c r="A1" s="93" t="str">
+        <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
       <c r="I1" s="82"/>
       <c r="J1" s="92" t="s">
         <v>120</v>
@@ -4283,7 +4247,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="112">
+      <c r="I3" s="94">
         <f>SUM(E3:H3)</f>
         <v>0</v>
       </c>
@@ -4315,7 +4279,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
-      <c r="I4" s="112">
+      <c r="I4" s="94">
         <f t="shared" ref="I4:I27" si="0">SUM(E4:H4)</f>
         <v>0</v>
       </c>
@@ -4347,7 +4311,7 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="112">
+      <c r="I5" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4379,7 +4343,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="112">
+      <c r="I6" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4411,7 +4375,7 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="112">
+      <c r="I7" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4443,7 +4407,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="112">
+      <c r="I8" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4475,7 +4439,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="112">
+      <c r="I9" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4507,7 +4471,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="112">
+      <c r="I10" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4539,7 +4503,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="112">
+      <c r="I11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4571,7 +4535,7 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="112">
+      <c r="I12" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4603,7 +4567,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="112">
+      <c r="I13" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4635,7 +4599,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="112">
+      <c r="I14" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4667,7 +4631,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="112">
+      <c r="I15" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4699,7 +4663,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="112">
+      <c r="I16" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4731,7 +4695,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="112">
+      <c r="I17" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4763,7 +4727,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="112">
+      <c r="I18" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4795,7 +4759,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="112">
+      <c r="I19" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4827,7 +4791,7 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="112">
+      <c r="I20" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4859,7 +4823,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="112">
+      <c r="I21" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4891,7 +4855,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="112">
+      <c r="I22" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4923,7 +4887,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="112">
+      <c r="I23" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4955,7 +4919,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="112">
+      <c r="I24" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4987,7 +4951,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="112">
+      <c r="I25" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5019,7 +4983,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="112">
+      <c r="I26" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5051,7 +5015,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="112">
+      <c r="I27" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5164,11 +5128,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="97"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -5325,45 +5289,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="str">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
     </row>
     <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="str">
+      <c r="A2" s="99" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
     </row>
     <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -6857,86 +6821,86 @@
       <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
     </row>
     <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
     </row>
     <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
     </row>
     <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -6991,105 +6955,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="str">
+      <c r="A1" s="104" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="str">
+      <c r="A3" s="105" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="109" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="44"/>
@@ -7108,22 +7072,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="109" t="s">
+      <c r="V4" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="W4" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="100" t="s">
+      <c r="X4" s="102" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="108"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -7168,9 +7132,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>mündliche Beteiligung</t>
+  </si>
+  <si>
+    <t>Gabriela Fahra</t>
+  </si>
+  <si>
+    <t>Lucía Serres</t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1090,6 +1096,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1996,8 +2004,8 @@
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4156,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8697,10 +8705,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8742,7 +8750,7 @@
       <c r="D2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="80" t="s">
         <v>63</v>
       </c>
       <c r="H2" s="72" t="s">
@@ -8806,8 +8814,8 @@
       <c r="D6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>82</v>
+      <c r="F6" s="113" t="s">
+        <v>123</v>
       </c>
       <c r="H6" s="73"/>
     </row>
@@ -8822,7 +8830,7 @@
         <v>74</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="73"/>
     </row>
@@ -8837,7 +8845,7 @@
         <v>95</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H8" s="73"/>
     </row>
@@ -8852,7 +8860,7 @@
         <v>96</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H9" s="73"/>
     </row>
@@ -8863,7 +8871,7 @@
         <v>75</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="73"/>
     </row>
@@ -8874,7 +8882,7 @@
         <v>76</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="73"/>
     </row>
@@ -8885,7 +8893,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="73"/>
     </row>
@@ -8896,7 +8904,7 @@
         <v>91</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="73"/>
     </row>
@@ -8907,7 +8915,7 @@
         <v>92</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="H14" s="73"/>
     </row>
@@ -8918,7 +8926,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H15" s="73"/>
     </row>
@@ -8929,7 +8937,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H16" s="73"/>
     </row>
@@ -8937,15 +8945,25 @@
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="71" t="s">
+        <v>112</v>
+      </c>
       <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="F18" s="74" t="s">
+        <v>124</v>
+      </c>
       <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="114"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="114"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C0C64-ABE1-4F88-B724-3A8D45A16A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -23,12 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,6 +38,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -485,11 +488,14 @@
   <si>
     <t>Lucía Serres</t>
   </si>
+  <si>
+    <t>applicant.sanitized_grade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -781,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1009,43 +1015,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1096,14 +1079,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1182,7 +1166,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1432,40 +1416,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B1:G2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Nachname" dataDxfId="13"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="12"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="11"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="10"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="9"/>
-    <tableColumn id="6" name="Telefon" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:H2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B1:H2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1FDD9F40-DF9B-4ABF-9CFE-566CD69EFF35}" name="Note" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1757,28 +1742,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" style="39" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.6640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1794,20 +1780,23 @@
       <c r="E1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1824,161 +1813,183 @@
         <v>103</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="41"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="E13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1998,555 +2009,555 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.140625" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.7109375" style="2" hidden="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" hidden="1"/>
+    <col min="13" max="13" width="6.44140625" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.109375" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.6640625" style="2" hidden="1"/>
+    <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
-    <col min="18" max="18" width="17.7109375" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.42578125" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.42578125" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.42578125" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.7109375" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.7109375" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.42578125" style="1" hidden="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.44140625" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.44140625" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.44140625" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.6640625" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.44140625" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.42578125" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.42578125" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.42578125" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.42578125" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.7109375" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.7109375" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.42578125" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.44140625" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.44140625" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.44140625" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.44140625" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.6640625" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.44140625" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.42578125" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.42578125" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.42578125" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.42578125" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.7109375" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.7109375" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.42578125" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.44140625" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.44140625" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.44140625" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.44140625" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.6640625" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.44140625" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.42578125" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.42578125" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.42578125" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.42578125" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.7109375" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.7109375" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.42578125" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.44140625" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.44140625" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.44140625" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.44140625" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.6640625" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.44140625" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.42578125" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.42578125" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.42578125" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.42578125" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.7109375" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.7109375" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.42578125" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.44140625" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.44140625" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.44140625" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.6640625" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.44140625" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.42578125" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.42578125" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.42578125" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.42578125" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.7109375" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.7109375" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.42578125" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.44140625" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.44140625" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.44140625" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.6640625" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.44140625" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.42578125" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.42578125" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.42578125" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.42578125" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.7109375" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.7109375" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.42578125" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.44140625" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.44140625" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.44140625" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.6640625" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.44140625" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.42578125" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.42578125" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.42578125" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.42578125" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.7109375" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.7109375" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.42578125" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.44140625" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.44140625" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.44140625" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.44140625" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.6640625" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.44140625" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.42578125" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.42578125" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.42578125" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.42578125" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.7109375" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.7109375" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.42578125" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.44140625" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.44140625" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.44140625" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.6640625" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.44140625" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.42578125" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.42578125" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.42578125" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.42578125" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.7109375" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.7109375" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.42578125" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.44140625" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.44140625" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.44140625" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.6640625" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.44140625" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.42578125" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.42578125" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.42578125" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.42578125" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.7109375" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.7109375" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.42578125" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.44140625" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.44140625" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.44140625" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.6640625" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.44140625" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.42578125" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.42578125" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.42578125" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.42578125" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.7109375" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.7109375" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.42578125" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.44140625" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.44140625" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.44140625" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.44140625" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.6640625" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.44140625" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.42578125" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.42578125" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.42578125" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.42578125" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.7109375" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.7109375" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.42578125" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.44140625" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.44140625" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.44140625" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.6640625" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.44140625" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.42578125" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.42578125" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.42578125" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.42578125" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.7109375" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.7109375" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.42578125" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.44140625" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.44140625" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.44140625" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.6640625" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.44140625" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.42578125" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.42578125" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.42578125" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.42578125" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.7109375" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.7109375" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.42578125" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.44140625" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.44140625" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.44140625" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.6640625" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.44140625" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.42578125" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.42578125" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.42578125" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.42578125" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.7109375" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.7109375" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.42578125" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.44140625" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.44140625" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.44140625" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.44140625" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.6640625" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.44140625" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.42578125" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.42578125" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.42578125" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.42578125" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.7109375" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.7109375" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.42578125" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.44140625" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.44140625" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.44140625" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.6640625" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.44140625" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.42578125" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.42578125" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.42578125" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.42578125" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.7109375" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.7109375" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.42578125" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.44140625" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.44140625" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.44140625" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.6640625" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.44140625" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.42578125" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.42578125" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.42578125" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.42578125" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.7109375" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.7109375" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.42578125" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.44140625" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.44140625" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.44140625" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.6640625" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.44140625" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.42578125" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.42578125" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.42578125" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.42578125" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.7109375" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.7109375" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.42578125" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.44140625" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.44140625" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.44140625" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.44140625" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.6640625" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.44140625" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.42578125" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.42578125" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.42578125" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.42578125" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.7109375" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.7109375" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.42578125" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.44140625" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.44140625" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.44140625" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.6640625" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.44140625" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.42578125" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.42578125" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.42578125" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.42578125" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.7109375" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.7109375" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.42578125" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.44140625" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.44140625" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.44140625" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.6640625" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.44140625" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.42578125" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.42578125" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.42578125" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.42578125" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.7109375" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.7109375" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.42578125" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.44140625" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.44140625" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.44140625" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.6640625" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.44140625" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.42578125" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.42578125" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.42578125" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.42578125" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.7109375" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.7109375" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.42578125" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.44140625" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.44140625" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.44140625" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.44140625" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.6640625" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.44140625" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.42578125" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.42578125" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.42578125" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.42578125" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.7109375" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.7109375" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.42578125" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.44140625" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.44140625" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.44140625" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.6640625" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.44140625" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.42578125" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.42578125" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.42578125" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.42578125" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.7109375" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.7109375" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.42578125" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.44140625" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.44140625" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.44140625" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.6640625" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.44140625" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.42578125" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.42578125" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.42578125" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.42578125" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.7109375" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.7109375" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.42578125" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.44140625" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.44140625" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.44140625" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.6640625" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.44140625" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.42578125" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.42578125" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.42578125" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.42578125" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.7109375" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.7109375" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.42578125" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.44140625" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.44140625" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.44140625" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.44140625" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.6640625" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.44140625" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.42578125" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.42578125" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.42578125" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.42578125" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.7109375" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.7109375" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.42578125" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.44140625" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.44140625" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.44140625" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.6640625" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.44140625" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.42578125" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.42578125" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.42578125" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.42578125" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.7109375" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.7109375" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.42578125" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.44140625" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.44140625" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.44140625" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.6640625" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.44140625" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.42578125" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.42578125" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.42578125" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.42578125" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.7109375" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.7109375" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.42578125" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.44140625" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.44140625" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.44140625" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.6640625" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.44140625" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.42578125" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.42578125" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.42578125" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.42578125" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.7109375" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.7109375" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.42578125" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.44140625" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.44140625" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.44140625" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.44140625" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.6640625" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.44140625" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.42578125" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.42578125" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.42578125" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.42578125" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.7109375" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.7109375" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.42578125" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.44140625" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.44140625" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.44140625" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.6640625" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.44140625" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.42578125" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.42578125" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.42578125" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.42578125" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.7109375" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.7109375" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.42578125" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.44140625" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.44140625" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.44140625" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.6640625" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.44140625" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.42578125" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.42578125" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.42578125" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.42578125" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.7109375" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.7109375" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.42578125" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.44140625" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.44140625" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.44140625" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.6640625" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.44140625" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.42578125" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.42578125" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.42578125" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.42578125" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.7109375" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.7109375" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.42578125" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.44140625" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.44140625" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.44140625" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.44140625" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.6640625" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.44140625" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.42578125" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.42578125" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.42578125" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.42578125" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.7109375" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.7109375" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.42578125" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.44140625" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.44140625" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.44140625" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.6640625" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.44140625" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.42578125" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.42578125" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.42578125" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.42578125" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.7109375" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.7109375" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.42578125" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.44140625" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.44140625" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.44140625" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.6640625" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.44140625" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.42578125" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.42578125" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.42578125" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.42578125" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.7109375" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.7109375" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.42578125" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.44140625" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.44140625" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.44140625" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.6640625" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.44140625" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.42578125" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.42578125" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.42578125" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.42578125" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.7109375" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.7109375" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.42578125" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.44140625" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.44140625" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.44140625" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.44140625" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.6640625" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.44140625" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.42578125" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.42578125" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.42578125" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.42578125" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.7109375" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.7109375" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.42578125" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.44140625" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.44140625" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.44140625" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.6640625" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.44140625" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.42578125" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.42578125" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.42578125" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.42578125" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.7109375" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.7109375" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.42578125" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.44140625" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.44140625" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.44140625" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.6640625" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.44140625" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.42578125" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.42578125" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.42578125" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.42578125" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.7109375" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.7109375" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.42578125" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.44140625" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.44140625" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.44140625" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.6640625" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.44140625" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.42578125" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.42578125" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.42578125" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.42578125" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.7109375" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.7109375" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.42578125" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.44140625" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.44140625" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.44140625" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.6640625" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.44140625" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.42578125" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.42578125" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.42578125" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.42578125" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.7109375" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.7109375" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.42578125" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.44140625" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.44140625" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.44140625" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.6640625" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.44140625" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.42578125" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.42578125" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.42578125" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.42578125" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.7109375" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.7109375" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.42578125" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.44140625" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.44140625" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.44140625" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.6640625" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.44140625" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.42578125" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.42578125" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.42578125" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.42578125" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.7109375" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.7109375" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.42578125" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.44140625" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.44140625" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.44140625" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.44140625" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.6640625" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.44140625" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.42578125" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.42578125" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.42578125" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.42578125" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.7109375" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.7109375" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.42578125" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.44140625" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.44140625" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.44140625" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.6640625" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.44140625" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.42578125" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.42578125" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.42578125" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.42578125" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.7109375" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.7109375" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.42578125" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.44140625" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.44140625" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.44140625" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.6640625" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.44140625" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.42578125" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.42578125" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.42578125" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.42578125" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.7109375" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.7109375" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.42578125" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.44140625" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.44140625" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.44140625" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.6640625" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.44140625" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.42578125" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.42578125" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.42578125" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.42578125" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.7109375" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.7109375" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.42578125" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.44140625" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.44140625" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.44140625" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.44140625" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.6640625" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.44140625" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.42578125" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.42578125" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.42578125" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.42578125" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.7109375" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.7109375" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.42578125" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.44140625" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.44140625" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.44140625" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.6640625" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.44140625" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.42578125" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.42578125" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.42578125" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.42578125" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.7109375" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.7109375" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.42578125" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.44140625" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.44140625" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.44140625" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.6640625" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.44140625" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.42578125" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.42578125" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.42578125" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.42578125" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.7109375" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.7109375" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.42578125" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.44140625" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.44140625" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.44140625" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.6640625" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.44140625" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.42578125" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.42578125" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.42578125" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.42578125" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.7109375" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.7109375" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.42578125" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.44140625" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.44140625" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.44140625" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.44140625" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.6640625" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.44140625" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.42578125" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.42578125" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.42578125" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.42578125" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.7109375" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.7109375" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.42578125" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.44140625" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.44140625" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.44140625" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.6640625" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.44140625" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.42578125" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.42578125" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.42578125" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.42578125" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.7109375" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.7109375" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.42578125" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.44140625" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.44140625" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.44140625" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.6640625" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.44140625" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.42578125" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.42578125" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.42578125" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.42578125" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.7109375" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.7109375" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.42578125" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.44140625" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.44140625" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.44140625" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.6640625" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.44140625" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.42578125" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.42578125" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.42578125" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.42578125" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.7109375" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.7109375" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.42578125" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.44140625" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.44140625" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.44140625" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.44140625" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.6640625" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.44140625" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.42578125" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.42578125" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.42578125" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.42578125" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.7109375" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.7109375" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.42578125" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.44140625" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.44140625" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.44140625" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.6640625" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.44140625" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.42578125" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.42578125" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.42578125" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.42578125" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.7109375" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.7109375" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.42578125" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.44140625" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.44140625" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.44140625" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.6640625" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.44140625" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.42578125" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.42578125" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.42578125" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.42578125" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.7109375" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.7109375" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.42578125" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.44140625" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.44140625" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.44140625" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.6640625" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.44140625" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.42578125" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.42578125" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.42578125" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.42578125" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.7109375" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.7109375" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.42578125" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.44140625" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.44140625" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.44140625" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.44140625" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.6640625" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.44140625" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.42578125" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.42578125" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.42578125" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.7109375" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.7109375" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.42578125" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.6640625" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.44140625" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.42578125" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.42578125" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.44140625" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.44140625" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.42578125" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.44140625" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2593,7 +2604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2610,42 +2621,45 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="30" t="str">
+      <c r="E2" s="34" t="str">
+        <f>RAWDATA!F2</f>
+        <v>applicant.sanitized_grade</v>
+      </c>
+      <c r="F2" s="30" t="e">
         <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
-        <v>KP</v>
+        <v>#N/A</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="35"/>
       <c r="I2" s="33" t="str">
         <f t="shared" ref="I2:I26" si="0">IF(E2&gt;0,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="4"/>
       <c r="L2" s="22"/>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="str">
         <f>IF(E2&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+        <v>course.ects_points</v>
+      </c>
+      <c r="N2" s="2" t="str">
         <f>IF(E2&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
+        <v>course.ger</v>
+      </c>
+      <c r="O2" s="11" t="e">
         <f>IF(E2&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" s="1" t="str">
         <f>IF(E2&gt;0,$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
+        <v>course.name</v>
+      </c>
+      <c r="Q2" s="1" t="str">
         <f>IF(E2&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>Elena Moya Royo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2662,7 +2676,10 @@
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="34">
+        <f>RAWDATA!F3</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="30" t="str">
         <f>LOOKUP(E3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2697,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2714,7 +2731,10 @@
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="34">
+        <f>RAWDATA!F4</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="30" t="str">
         <f>LOOKUP(E4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2749,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2766,7 +2786,10 @@
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="34">
+        <f>RAWDATA!F5</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="30" t="str">
         <f>LOOKUP(E5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2801,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2818,7 +2841,10 @@
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="34">
+        <f>RAWDATA!F6</f>
+        <v>0</v>
+      </c>
       <c r="F6" s="30" t="str">
         <f>LOOKUP(E6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2853,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2870,7 +2896,10 @@
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34">
+        <f>RAWDATA!F7</f>
+        <v>0</v>
+      </c>
       <c r="F7" s="30" t="str">
         <f>LOOKUP(E7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2905,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -2922,7 +2951,10 @@
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="34">
+        <f>RAWDATA!F8</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="30" t="str">
         <f>LOOKUP(E8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -2957,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -2974,7 +3006,10 @@
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="34">
+        <f>RAWDATA!F9</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="30" t="str">
         <f>LOOKUP(E9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3009,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3026,7 +3061,10 @@
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="34">
+        <f>RAWDATA!F10</f>
+        <v>0</v>
+      </c>
       <c r="F10" s="30" t="str">
         <f>LOOKUP(E10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3061,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3078,7 +3116,10 @@
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="34">
+        <f>RAWDATA!F11</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="30" t="str">
         <f>LOOKUP(E11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3113,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3130,7 +3171,10 @@
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="34">
+        <f>RAWDATA!F12</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="30" t="str">
         <f>LOOKUP(E12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3165,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3182,7 +3226,10 @@
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="34">
+        <f>RAWDATA!F13</f>
+        <v>0</v>
+      </c>
       <c r="F13" s="30" t="str">
         <f>LOOKUP(E13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3217,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3234,7 +3281,10 @@
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="34">
+        <f>RAWDATA!F14</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="30" t="str">
         <f>LOOKUP(E14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3269,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3286,7 +3336,10 @@
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="34">
+        <f>RAWDATA!F15</f>
+        <v>0</v>
+      </c>
       <c r="F15" s="30" t="str">
         <f>LOOKUP(E15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3321,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3338,7 +3391,10 @@
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="34">
+        <f>RAWDATA!F16</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="30" t="str">
         <f>LOOKUP(E16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3373,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3390,7 +3446,10 @@
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="34">
+        <f>RAWDATA!F17</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="30" t="str">
         <f>LOOKUP(E17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3425,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3442,7 +3501,10 @@
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="34">
+        <f>RAWDATA!F18</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="30" t="str">
         <f>LOOKUP(E18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3477,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3494,7 +3556,10 @@
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="34">
+        <f>RAWDATA!F19</f>
+        <v>0</v>
+      </c>
       <c r="F19" s="30" t="str">
         <f>LOOKUP(E19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3529,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3546,7 +3611,10 @@
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="34">
+        <f>RAWDATA!F20</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="30" t="str">
         <f>LOOKUP(E20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3581,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3598,7 +3666,10 @@
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="34">
+        <f>RAWDATA!F21</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="30" t="str">
         <f>LOOKUP(E21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3633,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -3650,7 +3721,10 @@
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="34">
+        <f>RAWDATA!F22</f>
+        <v>0</v>
+      </c>
       <c r="F22" s="30" t="str">
         <f>LOOKUP(E22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3685,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -3702,7 +3776,10 @@
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="34">
+        <f>RAWDATA!F23</f>
+        <v>0</v>
+      </c>
       <c r="F23" s="30" t="str">
         <f>LOOKUP(E23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3737,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -3754,7 +3831,10 @@
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34">
+        <f>RAWDATA!F24</f>
+        <v>0</v>
+      </c>
       <c r="F24" s="30" t="str">
         <f>LOOKUP(E24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3789,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -3806,7 +3886,10 @@
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="34">
+        <f>RAWDATA!F25</f>
+        <v>0</v>
+      </c>
       <c r="F25" s="30" t="str">
         <f>LOOKUP(E25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3841,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -3858,7 +3941,10 @@
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="34">
+        <f>RAWDATA!F26</f>
+        <v>0</v>
+      </c>
       <c r="F26" s="30" t="str">
         <f>LOOKUP(E26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
@@ -3893,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3909,7 +3995,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +4010,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -3934,7 +4020,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="5" t="e">
         <f>ROUNDUP(STDEVP(F2:F18),1)</f>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3943,7 +4029,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -3957,7 +4043,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3965,19 +4051,19 @@
         <v>63</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -3985,17 +4071,17 @@
         <v>106</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="31"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4003,17 +4089,17 @@
         <v>107</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="31"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4021,17 +4107,17 @@
         <v>110</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4039,17 +4125,17 @@
         <v>111</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="31"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4057,17 +4143,17 @@
         <v>108</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="31"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4075,62 +4161,62 @@
         <v>109</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="22"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4140,8 +4226,8 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31">
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>DOZENT</formula1>
     </dataValidation>
   </dataValidations>
@@ -4161,44 +4247,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="str">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="82"/>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4223,18 +4308,18 @@
       <c r="H2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="28" t="s">
         <v>118</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4255,18 +4340,18 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="94">
+      <c r="I3" s="85">
         <f>SUM(E3:H3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="34"/>
-      <c r="K3" s="86">
+      <c r="K3" s="30">
         <f>SUM(I3:J3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4287,18 +4372,18 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
-      <c r="I4" s="94">
+      <c r="I4" s="85">
         <f t="shared" ref="I4:I27" si="0">SUM(E4:H4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="34"/>
-      <c r="K4" s="86">
+      <c r="K4" s="30">
         <f t="shared" ref="K4:K27" si="1">SUM(I4:J4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4319,18 +4404,18 @@
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="94">
+      <c r="I5" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="34"/>
-      <c r="K5" s="86">
+      <c r="K5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4351,18 +4436,18 @@
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="94">
+      <c r="I6" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="34"/>
-      <c r="K6" s="86">
+      <c r="K6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4383,18 +4468,18 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="94">
+      <c r="I7" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="34"/>
-      <c r="K7" s="86">
+      <c r="K7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -4415,18 +4500,18 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="94">
+      <c r="I8" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="34"/>
-      <c r="K8" s="86">
+      <c r="K8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -4447,18 +4532,18 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="94">
+      <c r="I9" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="34"/>
-      <c r="K9" s="86">
+      <c r="K9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -4479,18 +4564,18 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="94">
+      <c r="I10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="34"/>
-      <c r="K10" s="86">
+      <c r="K10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -4511,18 +4596,18 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="94">
+      <c r="I11" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="34"/>
-      <c r="K11" s="86">
+      <c r="K11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -4543,18 +4628,18 @@
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="94">
+      <c r="I12" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="34"/>
-      <c r="K12" s="86">
+      <c r="K12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -4575,18 +4660,18 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="94">
+      <c r="I13" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="34"/>
-      <c r="K13" s="86">
+      <c r="K13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -4607,18 +4692,18 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
-      <c r="I14" s="94">
+      <c r="I14" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="34"/>
-      <c r="K14" s="86">
+      <c r="K14" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -4639,18 +4724,18 @@
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="94">
+      <c r="I15" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="34"/>
-      <c r="K15" s="86">
+      <c r="K15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4671,18 +4756,18 @@
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="94">
+      <c r="I16" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="34"/>
-      <c r="K16" s="86">
+      <c r="K16" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4703,18 +4788,18 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
-      <c r="I17" s="94">
+      <c r="I17" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="34"/>
-      <c r="K17" s="86">
+      <c r="K17" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4735,18 +4820,18 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="94">
+      <c r="I18" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="34"/>
-      <c r="K18" s="86">
+      <c r="K18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4767,18 +4852,18 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="94">
+      <c r="I19" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="34"/>
-      <c r="K19" s="86">
+      <c r="K19" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4799,18 +4884,18 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="94">
+      <c r="I20" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="34"/>
-      <c r="K20" s="86">
+      <c r="K20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4831,18 +4916,18 @@
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="94">
+      <c r="I21" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="34"/>
-      <c r="K21" s="86">
+      <c r="K21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4863,18 +4948,18 @@
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
-      <c r="I22" s="94">
+      <c r="I22" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="34"/>
-      <c r="K22" s="86">
+      <c r="K22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4895,18 +4980,18 @@
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
-      <c r="I23" s="94">
+      <c r="I23" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="34"/>
-      <c r="K23" s="86">
+      <c r="K23" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4927,18 +5012,18 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
-      <c r="I24" s="94">
+      <c r="I24" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="34"/>
-      <c r="K24" s="86">
+      <c r="K24" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4959,18 +5044,18 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
-      <c r="I25" s="94">
+      <c r="I25" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="34"/>
-      <c r="K25" s="86">
+      <c r="K25" s="30">
         <f>SUM(I25:J25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4991,18 +5076,18 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
-      <c r="I26" s="94">
+      <c r="I26" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="34"/>
-      <c r="K26" s="86">
+      <c r="K26" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5023,88 +5108,70 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
-      <c r="I27" s="94">
+      <c r="I27" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="34"/>
-      <c r="K27" s="86">
+      <c r="K27" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="88"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="11">
         <f>AVERAGE(IF(ISNUMBER(K3:K27),K3:K27))</f>
         <v>0</v>
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="91">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="5">
         <f>ROUNDUP(STDEVP(K3:K19),1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
@@ -5117,7 +5184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5127,20 +5194,20 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -5149,7 +5216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5166,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5175,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5184,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5193,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5202,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5211,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5220,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5229,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5238,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5247,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5272,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5282,62 +5349,62 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-    </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="str">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="90" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100" t="str">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+    </row>
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5381,7 +5448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5402,43 +5469,43 @@
         <v>applicant.tag</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>RAWDATA!F2</f>
+        <f>RAWDATA!G2</f>
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="18" t="str">
-        <f>RAWDATA!G2</f>
+        <f>RAWDATA!H2</f>
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!H2</f>
+        <f>RAWDATA!I2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!I2</f>
+        <f>RAWDATA!J2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!H2)</f>
         <v/>
       </c>
-      <c r="K4" s="17" t="str">
+      <c r="K4" s="17" t="e">
         <f>IF(L4&lt;=4,"X","")</f>
-        <v/>
-      </c>
-      <c r="L4" s="17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="17" t="e">
         <f>Notenliste!F2</f>
-        <v>KP</v>
-      </c>
-      <c r="M4" s="17">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" s="17" t="str">
         <f>Notenliste!E2</f>
-        <v>0</v>
+        <v>applicant.sanitized_grade</v>
       </c>
       <c r="N4" s="19" t="str">
         <f>UPPER(Notenliste!J2)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -5459,19 +5526,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>RAWDATA!F3</f>
+        <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!G3</f>
+        <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!H3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
@@ -5495,7 +5562,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -5516,19 +5583,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>RAWDATA!F4</f>
+        <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!G4</f>
+        <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!H4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
@@ -5552,7 +5619,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -5573,19 +5640,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <f>RAWDATA!F5</f>
+        <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!G5</f>
+        <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!H5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
@@ -5609,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -5630,19 +5697,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f>RAWDATA!F6</f>
+        <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!G6</f>
+        <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!H6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
@@ -5666,7 +5733,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -5687,19 +5754,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <f>RAWDATA!F7</f>
+        <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!G7</f>
+        <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!H7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
@@ -5723,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -5744,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f>RAWDATA!F8</f>
+        <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!G8</f>
+        <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!H8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
@@ -5780,7 +5847,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -5801,19 +5868,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>RAWDATA!F9</f>
+        <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!G9</f>
+        <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!H9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
@@ -5837,7 +5904,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -5858,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>RAWDATA!F10</f>
+        <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!G10</f>
+        <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!H10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
@@ -5894,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -5915,19 +5982,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>RAWDATA!F11</f>
+        <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!G11</f>
+        <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!H11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
@@ -5951,7 +6018,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -5972,19 +6039,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>RAWDATA!F12</f>
+        <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!G12</f>
+        <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!H12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
@@ -6008,7 +6075,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6029,19 +6096,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f>RAWDATA!F13</f>
+        <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!G13</f>
+        <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!H13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
@@ -6065,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6086,19 +6153,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f>RAWDATA!F14</f>
+        <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!G14</f>
+        <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!H14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
@@ -6122,7 +6189,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6143,19 +6210,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f>RAWDATA!F15</f>
+        <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!G15</f>
+        <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!H15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
@@ -6179,7 +6246,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6200,19 +6267,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f>RAWDATA!F16</f>
+        <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!G16</f>
+        <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!H16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
@@ -6236,7 +6303,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6257,19 +6324,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>RAWDATA!F17</f>
+        <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!G17</f>
+        <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!H17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
@@ -6293,7 +6360,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6314,19 +6381,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f>RAWDATA!F18</f>
+        <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!G18</f>
+        <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!H18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
@@ -6350,7 +6417,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6371,19 +6438,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f>RAWDATA!F19</f>
+        <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!G19</f>
+        <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!H19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
@@ -6407,7 +6474,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -6428,19 +6495,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <f>RAWDATA!F20</f>
+        <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!G20</f>
+        <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!H20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
@@ -6464,7 +6531,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -6485,19 +6552,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>RAWDATA!F21</f>
+        <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!G21</f>
+        <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!H21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
@@ -6521,7 +6588,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -6542,19 +6609,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f>RAWDATA!F22</f>
+        <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!G22</f>
+        <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!H22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
@@ -6578,7 +6645,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -6599,19 +6666,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <f>RAWDATA!F23</f>
+        <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!G23</f>
+        <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!H23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
@@ -6635,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -6656,19 +6723,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <f>RAWDATA!F24</f>
+        <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!G24</f>
+        <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!H24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
@@ -6692,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -6713,19 +6780,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>RAWDATA!F25</f>
+        <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!G25</f>
+        <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!H25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
@@ -6749,7 +6816,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -6770,19 +6837,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>RAWDATA!F26</f>
+        <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!G26</f>
+        <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!H26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
@@ -6806,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -6828,87 +6895,87 @@
       <c r="M29" s="58"/>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101" t="s">
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-    </row>
-    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-    </row>
-    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-    </row>
-    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+    </row>
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+    </row>
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+    </row>
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -6935,7 +7002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6945,123 +7012,123 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="str">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="str">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="100" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="44"/>
@@ -7080,22 +7147,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="111" t="s">
+      <c r="V4" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="110"/>
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -7140,11 +7207,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="103"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7184,7 +7251,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7224,7 +7291,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7264,7 +7331,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7304,7 +7371,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -7344,7 +7411,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -7384,7 +7451,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -7424,7 +7491,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -7464,7 +7531,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -7504,7 +7571,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -7544,7 +7611,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -7584,7 +7651,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -7624,7 +7691,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -7664,7 +7731,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -7704,7 +7771,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -7744,7 +7811,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -7784,7 +7851,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -7824,7 +7891,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -7864,7 +7931,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -7904,7 +7971,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -7944,7 +8011,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -7984,7 +8051,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8024,7 +8091,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8064,7 +8131,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8104,7 +8171,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8175,25 +8242,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8219,7 +8286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8228,16 +8295,16 @@
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v>course.ects_points</v>
       </c>
-      <c r="D2" s="68" t="str">
+      <c r="D2" s="68" t="e">
         <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
-        <v xml:space="preserve"> </v>
+        <v>#N/A</v>
       </c>
       <c r="E2" s="66" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8255,7 +8322,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8273,7 +8340,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8291,7 +8358,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8309,7 +8376,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8327,7 +8394,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -8345,7 +8412,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -8363,7 +8430,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -8381,7 +8448,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -8399,7 +8466,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -8417,7 +8484,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -8435,7 +8502,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -8453,7 +8520,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -8471,7 +8538,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -8489,7 +8556,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -8507,7 +8574,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -8525,7 +8592,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -8543,7 +8610,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -8561,7 +8628,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -8579,7 +8646,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -8597,7 +8664,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -8615,7 +8682,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -8633,7 +8700,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -8651,7 +8718,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -8672,21 +8739,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -8704,26 +8771,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -8740,7 +8807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -8757,7 +8824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -8774,7 +8841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -8789,7 +8856,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -8804,7 +8871,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -8814,12 +8881,12 @@
       <c r="D6" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="71" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -8834,7 +8901,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -8849,7 +8916,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -8864,7 +8931,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -8875,7 +8942,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -8886,7 +8953,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -8897,7 +8964,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -8908,7 +8975,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -8919,7 +8986,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -8930,7 +8997,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -8941,7 +9008,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -8950,7 +9017,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>
@@ -8959,12 +9026,6 @@
       </c>
       <c r="H18" s="75"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="114"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="114"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C0C64-ABE1-4F88-B724-3A8D45A16A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +23,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -491,11 +490,17 @@
   <si>
     <t>applicant.sanitized_grade</t>
   </si>
+  <si>
+    <t>applicant.ects_points</t>
+  </si>
+  <si>
+    <t>course.teacher_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1081,12 +1086,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1106,14 +1111,17 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1166,7 +1174,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1416,41 +1424,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:H2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B1:H2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{1FDD9F40-DF9B-4ABF-9CFE-566CD69EFF35}" name="Note" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B1:I2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Nachname" dataDxfId="15"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="14"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="13"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="12"/>
+    <tableColumn id="7" name="Note" dataDxfId="11"/>
+    <tableColumn id="8" name="LP" dataDxfId="10"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="9"/>
+    <tableColumn id="6" name="Telefon" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="6">
-      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="0">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
+    <tableColumn id="4" name="Note" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="3">
+    <tableColumn id="5" name="Datum" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1742,29 +1751,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1783,20 +1792,23 @@
       <c r="F1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="I1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="J1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="K1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1816,124 +1828,142 @@
         <v>125</v>
       </c>
       <c r="G2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-      <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="41"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="41"/>
+      <c r="I14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="41"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="41"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
-      <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="41"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1941,8 +1971,9 @@
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1950,8 +1981,9 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1959,8 +1991,9 @@
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1968,28 +2001,29 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2009,555 +2043,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVW59"/>
+  <dimension ref="A1:WVX59"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.109375" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.6640625" style="2" hidden="1"/>
-    <col min="16" max="16" width="17.6640625" style="1" hidden="1"/>
-    <col min="17" max="17" width="16" style="1" hidden="1"/>
-    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.44140625" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.44140625" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.44140625" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.6640625" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.6640625" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.44140625" style="1" hidden="1"/>
-    <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.44140625" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.44140625" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.44140625" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.44140625" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.6640625" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.6640625" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.44140625" style="1" hidden="1"/>
-    <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.44140625" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.44140625" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.44140625" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.44140625" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.6640625" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.6640625" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.44140625" style="1" hidden="1"/>
-    <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.44140625" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.44140625" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.44140625" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.44140625" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.6640625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.6640625" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.44140625" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.44140625" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.44140625" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.44140625" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.44140625" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.6640625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.6640625" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.44140625" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.44140625" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.44140625" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.44140625" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.44140625" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.6640625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.6640625" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.44140625" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.44140625" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.44140625" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.44140625" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.44140625" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.6640625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.6640625" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.44140625" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.44140625" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.44140625" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.44140625" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.44140625" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.6640625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.6640625" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.44140625" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.44140625" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.44140625" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.44140625" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.44140625" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.6640625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.6640625" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.44140625" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.44140625" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.44140625" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.44140625" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.44140625" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.6640625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.6640625" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.44140625" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.44140625" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.44140625" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.44140625" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.44140625" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.6640625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.6640625" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.44140625" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.44140625" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.44140625" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.44140625" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.44140625" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.6640625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.6640625" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.44140625" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.44140625" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.44140625" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.44140625" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.44140625" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.6640625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.6640625" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.44140625" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.44140625" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.44140625" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.44140625" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.44140625" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.6640625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.6640625" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.44140625" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.44140625" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.44140625" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.44140625" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.44140625" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.6640625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.6640625" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.44140625" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.44140625" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.44140625" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.44140625" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.44140625" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.6640625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.6640625" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.44140625" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.44140625" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.44140625" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.44140625" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.44140625" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.6640625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.6640625" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.44140625" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.44140625" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.44140625" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.44140625" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.44140625" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.6640625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.6640625" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.44140625" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.44140625" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.44140625" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.44140625" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.44140625" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.6640625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.6640625" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.44140625" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.44140625" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.44140625" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.44140625" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.44140625" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.6640625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.6640625" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.44140625" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.44140625" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.44140625" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.44140625" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.44140625" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.6640625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.6640625" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.44140625" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.44140625" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.44140625" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.44140625" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.44140625" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.6640625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.6640625" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.44140625" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.44140625" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.44140625" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.44140625" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.44140625" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.6640625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.6640625" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.44140625" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.44140625" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.44140625" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.44140625" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.44140625" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.6640625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.6640625" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.44140625" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.44140625" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.44140625" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.44140625" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.44140625" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.6640625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.6640625" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.44140625" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.44140625" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.44140625" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.44140625" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.44140625" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.6640625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.6640625" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.44140625" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.44140625" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.44140625" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.44140625" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.44140625" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.6640625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.6640625" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.44140625" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.44140625" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.44140625" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.44140625" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.44140625" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.6640625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.6640625" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.44140625" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.44140625" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.44140625" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.44140625" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.44140625" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.6640625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.6640625" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.44140625" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.44140625" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.44140625" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.44140625" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.44140625" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.6640625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.6640625" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.44140625" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.44140625" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.44140625" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.44140625" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.44140625" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.6640625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.6640625" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.44140625" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.44140625" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.44140625" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.44140625" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.44140625" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.6640625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.6640625" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.44140625" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.44140625" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.44140625" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.44140625" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.44140625" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.6640625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.6640625" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.44140625" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.44140625" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.44140625" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.44140625" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.44140625" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.6640625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.6640625" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.44140625" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.44140625" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.44140625" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.44140625" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.44140625" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.6640625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.6640625" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.44140625" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.44140625" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.44140625" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.44140625" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.44140625" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.6640625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.6640625" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.44140625" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.44140625" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.44140625" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.44140625" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.44140625" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.6640625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.6640625" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.44140625" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.44140625" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.44140625" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.44140625" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.44140625" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.6640625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.6640625" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.44140625" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.44140625" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.44140625" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.44140625" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.44140625" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.6640625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.6640625" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.44140625" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.44140625" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.44140625" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.44140625" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.44140625" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.6640625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.6640625" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.44140625" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.44140625" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.44140625" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.44140625" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.44140625" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.6640625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.6640625" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.44140625" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.44140625" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.44140625" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.44140625" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.44140625" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.6640625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.6640625" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.44140625" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.44140625" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.44140625" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.44140625" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.44140625" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.6640625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.6640625" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.44140625" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.44140625" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.44140625" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.44140625" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.44140625" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.6640625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.6640625" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.44140625" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.44140625" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.44140625" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.44140625" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.44140625" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.6640625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.6640625" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.44140625" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.44140625" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.44140625" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.44140625" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.44140625" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.6640625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.6640625" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.44140625" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.44140625" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.44140625" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.44140625" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.44140625" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.6640625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.6640625" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.44140625" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.44140625" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.44140625" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.44140625" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.44140625" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.6640625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.6640625" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.44140625" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.44140625" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.44140625" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.44140625" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.44140625" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.6640625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.6640625" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.44140625" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.44140625" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.44140625" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.44140625" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.44140625" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.6640625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.6640625" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.44140625" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.44140625" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.44140625" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.44140625" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.44140625" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.6640625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.6640625" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.44140625" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.44140625" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.44140625" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.44140625" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.44140625" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.6640625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.6640625" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.44140625" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.44140625" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.44140625" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.44140625" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.44140625" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.6640625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.6640625" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.44140625" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.44140625" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.44140625" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.44140625" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.44140625" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.6640625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.6640625" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.44140625" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.44140625" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.44140625" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.44140625" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.44140625" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.6640625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.6640625" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.44140625" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.44140625" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.44140625" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.44140625" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.44140625" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.6640625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.6640625" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.44140625" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.44140625" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.44140625" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.44140625" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.44140625" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.6640625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.6640625" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.44140625" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.44140625" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.44140625" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.44140625" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.44140625" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.6640625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.6640625" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.44140625" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.44140625" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.44140625" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.44140625" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.44140625" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.6640625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.6640625" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.44140625" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.44140625" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.44140625" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.44140625" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.44140625" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.6640625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.6640625" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.44140625" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.44140625" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.44140625" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.44140625" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.44140625" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.6640625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.6640625" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.44140625" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.44140625" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.44140625" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.44140625" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.44140625" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.6640625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.6640625" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.44140625" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.44140625" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.44140625" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.44140625" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.44140625" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.6640625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.6640625" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.44140625" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.44140625" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.44140625" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.6640625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.6640625" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.44140625" style="1" hidden="1"/>
-    <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.44140625" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.44140625" style="1" hidden="1"/>
-    <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.44140625" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="1" hidden="1"/>
+    <col min="15" max="15" width="5.140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="6.7109375" style="2" hidden="1"/>
+    <col min="17" max="17" width="17.7109375" style="1" hidden="1"/>
+    <col min="18" max="18" width="16" style="1" hidden="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" hidden="1"/>
+    <col min="20" max="244" width="11.42578125" style="1" hidden="1"/>
+    <col min="245" max="245" width="15.42578125" style="1" hidden="1"/>
+    <col min="246" max="246" width="11.42578125" style="1" hidden="1"/>
+    <col min="247" max="247" width="15.7109375" style="1" hidden="1"/>
+    <col min="248" max="248" width="21.7109375" style="1" hidden="1"/>
+    <col min="249" max="251" width="11.42578125" style="1" hidden="1"/>
+    <col min="252" max="252" width="16" style="1" hidden="1"/>
+    <col min="253" max="253" width="20.42578125" style="1" hidden="1"/>
+    <col min="254" max="500" width="11.42578125" style="1" hidden="1"/>
+    <col min="501" max="501" width="15.42578125" style="1" hidden="1"/>
+    <col min="502" max="502" width="11.42578125" style="1" hidden="1"/>
+    <col min="503" max="503" width="15.7109375" style="1" hidden="1"/>
+    <col min="504" max="504" width="21.7109375" style="1" hidden="1"/>
+    <col min="505" max="507" width="11.42578125" style="1" hidden="1"/>
+    <col min="508" max="508" width="16" style="1" hidden="1"/>
+    <col min="509" max="509" width="20.42578125" style="1" hidden="1"/>
+    <col min="510" max="756" width="11.42578125" style="1" hidden="1"/>
+    <col min="757" max="757" width="15.42578125" style="1" hidden="1"/>
+    <col min="758" max="758" width="11.42578125" style="1" hidden="1"/>
+    <col min="759" max="759" width="15.7109375" style="1" hidden="1"/>
+    <col min="760" max="760" width="21.7109375" style="1" hidden="1"/>
+    <col min="761" max="763" width="11.42578125" style="1" hidden="1"/>
+    <col min="764" max="764" width="16" style="1" hidden="1"/>
+    <col min="765" max="765" width="20.42578125" style="1" hidden="1"/>
+    <col min="766" max="1012" width="11.42578125" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="15.42578125" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="11.42578125" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="15.7109375" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="21.7109375" style="1" hidden="1"/>
+    <col min="1017" max="1019" width="11.42578125" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="16" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="20.42578125" style="1" hidden="1"/>
+    <col min="1022" max="1268" width="11.42578125" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="15.42578125" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="11.42578125" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="15.7109375" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="21.7109375" style="1" hidden="1"/>
+    <col min="1273" max="1275" width="11.42578125" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="16" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="20.42578125" style="1" hidden="1"/>
+    <col min="1278" max="1524" width="11.42578125" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="15.42578125" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="11.42578125" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="15.7109375" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="21.7109375" style="1" hidden="1"/>
+    <col min="1529" max="1531" width="11.42578125" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="16" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="20.42578125" style="1" hidden="1"/>
+    <col min="1534" max="1780" width="11.42578125" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="15.42578125" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="11.42578125" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="15.7109375" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="21.7109375" style="1" hidden="1"/>
+    <col min="1785" max="1787" width="11.42578125" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="16" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="20.42578125" style="1" hidden="1"/>
+    <col min="1790" max="2036" width="11.42578125" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="15.42578125" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="11.42578125" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="15.7109375" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="21.7109375" style="1" hidden="1"/>
+    <col min="2041" max="2043" width="11.42578125" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="16" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="20.42578125" style="1" hidden="1"/>
+    <col min="2046" max="2292" width="11.42578125" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="15.42578125" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="11.42578125" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="15.7109375" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="21.7109375" style="1" hidden="1"/>
+    <col min="2297" max="2299" width="11.42578125" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="16" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="20.42578125" style="1" hidden="1"/>
+    <col min="2302" max="2548" width="11.42578125" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="15.42578125" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="11.42578125" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="15.7109375" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="21.7109375" style="1" hidden="1"/>
+    <col min="2553" max="2555" width="11.42578125" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="16" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="20.42578125" style="1" hidden="1"/>
+    <col min="2558" max="2804" width="11.42578125" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="15.42578125" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="11.42578125" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="15.7109375" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="21.7109375" style="1" hidden="1"/>
+    <col min="2809" max="2811" width="11.42578125" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="16" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="20.42578125" style="1" hidden="1"/>
+    <col min="2814" max="3060" width="11.42578125" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="15.42578125" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="11.42578125" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="15.7109375" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="21.7109375" style="1" hidden="1"/>
+    <col min="3065" max="3067" width="11.42578125" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="16" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="20.42578125" style="1" hidden="1"/>
+    <col min="3070" max="3316" width="11.42578125" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="15.42578125" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="11.42578125" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="15.7109375" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="21.7109375" style="1" hidden="1"/>
+    <col min="3321" max="3323" width="11.42578125" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="16" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="20.42578125" style="1" hidden="1"/>
+    <col min="3326" max="3572" width="11.42578125" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="15.42578125" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="11.42578125" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="15.7109375" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="21.7109375" style="1" hidden="1"/>
+    <col min="3577" max="3579" width="11.42578125" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="16" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="20.42578125" style="1" hidden="1"/>
+    <col min="3582" max="3828" width="11.42578125" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="15.42578125" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="11.42578125" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="15.7109375" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="21.7109375" style="1" hidden="1"/>
+    <col min="3833" max="3835" width="11.42578125" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="16" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="20.42578125" style="1" hidden="1"/>
+    <col min="3838" max="4084" width="11.42578125" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="15.42578125" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="11.42578125" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="15.7109375" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="21.7109375" style="1" hidden="1"/>
+    <col min="4089" max="4091" width="11.42578125" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="16" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="20.42578125" style="1" hidden="1"/>
+    <col min="4094" max="4340" width="11.42578125" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="15.42578125" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="11.42578125" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="15.7109375" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="21.7109375" style="1" hidden="1"/>
+    <col min="4345" max="4347" width="11.42578125" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="16" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="20.42578125" style="1" hidden="1"/>
+    <col min="4350" max="4596" width="11.42578125" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="15.42578125" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="11.42578125" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="15.7109375" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="21.7109375" style="1" hidden="1"/>
+    <col min="4601" max="4603" width="11.42578125" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="16" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="20.42578125" style="1" hidden="1"/>
+    <col min="4606" max="4852" width="11.42578125" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="15.42578125" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="11.42578125" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="15.7109375" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="21.7109375" style="1" hidden="1"/>
+    <col min="4857" max="4859" width="11.42578125" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="16" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="20.42578125" style="1" hidden="1"/>
+    <col min="4862" max="5108" width="11.42578125" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="15.42578125" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="11.42578125" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="15.7109375" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="21.7109375" style="1" hidden="1"/>
+    <col min="5113" max="5115" width="11.42578125" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="16" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="20.42578125" style="1" hidden="1"/>
+    <col min="5118" max="5364" width="11.42578125" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="15.42578125" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="11.42578125" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="15.7109375" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="21.7109375" style="1" hidden="1"/>
+    <col min="5369" max="5371" width="11.42578125" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="16" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="20.42578125" style="1" hidden="1"/>
+    <col min="5374" max="5620" width="11.42578125" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="15.42578125" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="11.42578125" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="15.7109375" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="21.7109375" style="1" hidden="1"/>
+    <col min="5625" max="5627" width="11.42578125" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="16" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="20.42578125" style="1" hidden="1"/>
+    <col min="5630" max="5876" width="11.42578125" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="15.42578125" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="11.42578125" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="15.7109375" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="21.7109375" style="1" hidden="1"/>
+    <col min="5881" max="5883" width="11.42578125" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="16" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="20.42578125" style="1" hidden="1"/>
+    <col min="5886" max="6132" width="11.42578125" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="15.42578125" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="11.42578125" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="15.7109375" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="21.7109375" style="1" hidden="1"/>
+    <col min="6137" max="6139" width="11.42578125" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="16" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="20.42578125" style="1" hidden="1"/>
+    <col min="6142" max="6388" width="11.42578125" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="15.42578125" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="11.42578125" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="15.7109375" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="21.7109375" style="1" hidden="1"/>
+    <col min="6393" max="6395" width="11.42578125" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="16" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="20.42578125" style="1" hidden="1"/>
+    <col min="6398" max="6644" width="11.42578125" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="15.42578125" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="11.42578125" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="15.7109375" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="21.7109375" style="1" hidden="1"/>
+    <col min="6649" max="6651" width="11.42578125" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="16" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="20.42578125" style="1" hidden="1"/>
+    <col min="6654" max="6900" width="11.42578125" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="15.42578125" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="11.42578125" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="15.7109375" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="21.7109375" style="1" hidden="1"/>
+    <col min="6905" max="6907" width="11.42578125" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="16" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="20.42578125" style="1" hidden="1"/>
+    <col min="6910" max="7156" width="11.42578125" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="15.42578125" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="11.42578125" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="15.7109375" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="21.7109375" style="1" hidden="1"/>
+    <col min="7161" max="7163" width="11.42578125" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="16" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="20.42578125" style="1" hidden="1"/>
+    <col min="7166" max="7412" width="11.42578125" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="15.42578125" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="11.42578125" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="15.7109375" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="21.7109375" style="1" hidden="1"/>
+    <col min="7417" max="7419" width="11.42578125" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="16" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="20.42578125" style="1" hidden="1"/>
+    <col min="7422" max="7668" width="11.42578125" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="15.42578125" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="11.42578125" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="15.7109375" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="21.7109375" style="1" hidden="1"/>
+    <col min="7673" max="7675" width="11.42578125" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="16" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="20.42578125" style="1" hidden="1"/>
+    <col min="7678" max="7924" width="11.42578125" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="15.42578125" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="11.42578125" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="15.7109375" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="21.7109375" style="1" hidden="1"/>
+    <col min="7929" max="7931" width="11.42578125" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="16" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="20.42578125" style="1" hidden="1"/>
+    <col min="7934" max="8180" width="11.42578125" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="15.42578125" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="11.42578125" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="15.7109375" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="21.7109375" style="1" hidden="1"/>
+    <col min="8185" max="8187" width="11.42578125" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="16" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="20.42578125" style="1" hidden="1"/>
+    <col min="8190" max="8436" width="11.42578125" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="15.42578125" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="11.42578125" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="15.7109375" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="21.7109375" style="1" hidden="1"/>
+    <col min="8441" max="8443" width="11.42578125" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="16" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="20.42578125" style="1" hidden="1"/>
+    <col min="8446" max="8692" width="11.42578125" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="15.42578125" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="11.42578125" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="15.7109375" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="21.7109375" style="1" hidden="1"/>
+    <col min="8697" max="8699" width="11.42578125" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="16" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="20.42578125" style="1" hidden="1"/>
+    <col min="8702" max="8948" width="11.42578125" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="15.42578125" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="11.42578125" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="15.7109375" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="21.7109375" style="1" hidden="1"/>
+    <col min="8953" max="8955" width="11.42578125" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="16" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="20.42578125" style="1" hidden="1"/>
+    <col min="8958" max="9204" width="11.42578125" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="15.42578125" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="11.42578125" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="15.7109375" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="21.7109375" style="1" hidden="1"/>
+    <col min="9209" max="9211" width="11.42578125" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="16" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="20.42578125" style="1" hidden="1"/>
+    <col min="9214" max="9460" width="11.42578125" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="15.42578125" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="11.42578125" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="15.7109375" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="21.7109375" style="1" hidden="1"/>
+    <col min="9465" max="9467" width="11.42578125" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="16" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="20.42578125" style="1" hidden="1"/>
+    <col min="9470" max="9716" width="11.42578125" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="15.42578125" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="11.42578125" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="15.7109375" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="21.7109375" style="1" hidden="1"/>
+    <col min="9721" max="9723" width="11.42578125" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="16" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="20.42578125" style="1" hidden="1"/>
+    <col min="9726" max="9972" width="11.42578125" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="15.42578125" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="11.42578125" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="15.7109375" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="21.7109375" style="1" hidden="1"/>
+    <col min="9977" max="9979" width="11.42578125" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="16" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="20.42578125" style="1" hidden="1"/>
+    <col min="9982" max="10228" width="11.42578125" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="15.42578125" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="11.42578125" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="15.7109375" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="21.7109375" style="1" hidden="1"/>
+    <col min="10233" max="10235" width="11.42578125" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="16" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="20.42578125" style="1" hidden="1"/>
+    <col min="10238" max="10484" width="11.42578125" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="15.42578125" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="11.42578125" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="15.7109375" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="21.7109375" style="1" hidden="1"/>
+    <col min="10489" max="10491" width="11.42578125" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="16" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="20.42578125" style="1" hidden="1"/>
+    <col min="10494" max="10740" width="11.42578125" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="15.42578125" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="11.42578125" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="15.7109375" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="21.7109375" style="1" hidden="1"/>
+    <col min="10745" max="10747" width="11.42578125" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="16" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="20.42578125" style="1" hidden="1"/>
+    <col min="10750" max="10996" width="11.42578125" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="15.42578125" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="11.42578125" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="15.7109375" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="21.7109375" style="1" hidden="1"/>
+    <col min="11001" max="11003" width="11.42578125" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="16" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="20.42578125" style="1" hidden="1"/>
+    <col min="11006" max="11252" width="11.42578125" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="15.42578125" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="11.42578125" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="15.7109375" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="21.7109375" style="1" hidden="1"/>
+    <col min="11257" max="11259" width="11.42578125" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="16" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="20.42578125" style="1" hidden="1"/>
+    <col min="11262" max="11508" width="11.42578125" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="15.42578125" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="11.42578125" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="15.7109375" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="21.7109375" style="1" hidden="1"/>
+    <col min="11513" max="11515" width="11.42578125" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="16" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="20.42578125" style="1" hidden="1"/>
+    <col min="11518" max="11764" width="11.42578125" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="15.42578125" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="11.42578125" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="15.7109375" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="21.7109375" style="1" hidden="1"/>
+    <col min="11769" max="11771" width="11.42578125" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="16" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="20.42578125" style="1" hidden="1"/>
+    <col min="11774" max="12020" width="11.42578125" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="15.42578125" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="11.42578125" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="15.7109375" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="21.7109375" style="1" hidden="1"/>
+    <col min="12025" max="12027" width="11.42578125" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="16" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="20.42578125" style="1" hidden="1"/>
+    <col min="12030" max="12276" width="11.42578125" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="15.42578125" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="11.42578125" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="15.7109375" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="21.7109375" style="1" hidden="1"/>
+    <col min="12281" max="12283" width="11.42578125" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="16" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="20.42578125" style="1" hidden="1"/>
+    <col min="12286" max="12532" width="11.42578125" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="15.42578125" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="11.42578125" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="15.7109375" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="21.7109375" style="1" hidden="1"/>
+    <col min="12537" max="12539" width="11.42578125" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="16" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="20.42578125" style="1" hidden="1"/>
+    <col min="12542" max="12788" width="11.42578125" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="15.42578125" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="11.42578125" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="15.7109375" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="21.7109375" style="1" hidden="1"/>
+    <col min="12793" max="12795" width="11.42578125" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="16" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="20.42578125" style="1" hidden="1"/>
+    <col min="12798" max="13044" width="11.42578125" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="15.42578125" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="11.42578125" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="15.7109375" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="21.7109375" style="1" hidden="1"/>
+    <col min="13049" max="13051" width="11.42578125" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="16" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="20.42578125" style="1" hidden="1"/>
+    <col min="13054" max="13300" width="11.42578125" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="15.42578125" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="11.42578125" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="15.7109375" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="21.7109375" style="1" hidden="1"/>
+    <col min="13305" max="13307" width="11.42578125" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="16" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="20.42578125" style="1" hidden="1"/>
+    <col min="13310" max="13556" width="11.42578125" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="15.42578125" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="11.42578125" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="15.7109375" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="21.7109375" style="1" hidden="1"/>
+    <col min="13561" max="13563" width="11.42578125" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="16" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="20.42578125" style="1" hidden="1"/>
+    <col min="13566" max="13812" width="11.42578125" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="15.42578125" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="11.42578125" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="15.7109375" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="21.7109375" style="1" hidden="1"/>
+    <col min="13817" max="13819" width="11.42578125" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="16" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="20.42578125" style="1" hidden="1"/>
+    <col min="13822" max="14068" width="11.42578125" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="15.42578125" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="11.42578125" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="15.7109375" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="21.7109375" style="1" hidden="1"/>
+    <col min="14073" max="14075" width="11.42578125" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="16" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="20.42578125" style="1" hidden="1"/>
+    <col min="14078" max="14324" width="11.42578125" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="15.42578125" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="11.42578125" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="15.7109375" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="21.7109375" style="1" hidden="1"/>
+    <col min="14329" max="14331" width="11.42578125" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="16" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="20.42578125" style="1" hidden="1"/>
+    <col min="14334" max="14580" width="11.42578125" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="15.42578125" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="11.42578125" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="15.7109375" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="21.7109375" style="1" hidden="1"/>
+    <col min="14585" max="14587" width="11.42578125" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="16" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="20.42578125" style="1" hidden="1"/>
+    <col min="14590" max="14836" width="11.42578125" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="15.42578125" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="11.42578125" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="15.7109375" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="21.7109375" style="1" hidden="1"/>
+    <col min="14841" max="14843" width="11.42578125" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="16" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="20.42578125" style="1" hidden="1"/>
+    <col min="14846" max="15092" width="11.42578125" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="15.42578125" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="11.42578125" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="15.7109375" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="21.7109375" style="1" hidden="1"/>
+    <col min="15097" max="15099" width="11.42578125" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="16" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="20.42578125" style="1" hidden="1"/>
+    <col min="15102" max="15348" width="11.42578125" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="15.42578125" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="11.42578125" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="15.7109375" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="21.7109375" style="1" hidden="1"/>
+    <col min="15353" max="15355" width="11.42578125" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="16" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="20.42578125" style="1" hidden="1"/>
+    <col min="15358" max="15604" width="11.42578125" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="15.42578125" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="11.42578125" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="15.7109375" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="21.7109375" style="1" hidden="1"/>
+    <col min="15609" max="15611" width="11.42578125" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="16" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="20.42578125" style="1" hidden="1"/>
+    <col min="15614" max="15860" width="11.42578125" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="15.42578125" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="11.42578125" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="15.7109375" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="21.7109375" style="1" hidden="1"/>
+    <col min="15865" max="15867" width="11.42578125" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="16" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="20.42578125" style="1" hidden="1"/>
+    <col min="15870" max="16116" width="11.42578125" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="15.42578125" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="11.42578125" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="15.7109375" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="21.7109375" style="1" hidden="1"/>
+    <col min="16121" max="16123" width="11.42578125" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="16" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="20.42578125" style="1" hidden="1"/>
+    <col min="16126" max="16128" width="11.42578125" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="15.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="11.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="15.7109375" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="21.7109375" style="1" hidden="1"/>
+    <col min="16133" max="16135" width="11.42578125" style="1" hidden="1"/>
+    <col min="16136" max="16136" width="16" style="1" hidden="1"/>
+    <col min="16137" max="16138" width="20.42578125" style="1" hidden="1"/>
+    <col min="16139" max="16140" width="11.42578125" style="1" hidden="1"/>
+    <col min="16141" max="16141" width="16" style="1" hidden="1"/>
+    <col min="16142" max="16144" width="20.42578125" style="1" hidden="1"/>
+    <col min="16145" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2577,34 +2612,37 @@
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2630,36 +2668,40 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33" t="str">
-        <f t="shared" ref="I2:I26" si="0">IF(E2&gt;0,"X","")</f>
+      <c r="H2" s="33" t="str">
+        <f>RAWDATA!G2</f>
+        <v>applicant.ects_points</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="33" t="str">
+        <f t="shared" ref="J2:J26" si="0">IF(E2&gt;0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="2" t="str">
+      <c r="K2" s="35"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="2" t="str">
         <f>IF(E2&gt;0,$B$33,0)</f>
         <v>course.ects_points</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="O2" s="2" t="str">
         <f>IF(E2&gt;0,$B$32,0)</f>
         <v>course.ger</v>
       </c>
-      <c r="O2" s="11" t="e">
+      <c r="P2" s="11" t="e">
         <f>IF(E2&gt;0,$F$28,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="Q2" s="1" t="str">
         <f>IF(E2&gt;0,$B$34,0)</f>
         <v>course.name</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="R2" s="1" t="str">
         <f>IF(E2&gt;0,$B$31,0)</f>
-        <v>Elena Moya Royo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>course.teacher_name</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2685,36 +2727,40 @@
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="33" t="str">
+      <c r="H3" s="33">
+        <f>RAWDATA!G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M26" si="1">IF(E3&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N26" si="2">IF(E3&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <f t="shared" ref="O3:O26" si="3">IF(E3&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P26" si="4">IF(E3&gt;0,$B$34,0)</f>
+        <f t="shared" ref="N3:N26" si="1">IF(E3&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" ref="O3:O26" si="2">IF(E3&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" ref="P3:P26" si="3">IF(E3&gt;0,$F$28,0)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q26" si="5">IF(E3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q3:Q26" si="4">IF(E3&gt;0,$B$34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R26" si="5">IF(E3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2740,36 +2786,40 @@
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33" t="str">
+      <c r="H4" s="33">
+        <f>RAWDATA!G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="2">
+      <c r="K4" s="35"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O4" s="11">
+      <c r="P4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2795,36 +2845,40 @@
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="33" t="str">
+      <c r="H5" s="33">
+        <f>RAWDATA!G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="2">
+      <c r="K5" s="35"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2850,36 +2904,40 @@
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="33" t="str">
+      <c r="H6" s="33">
+        <f>RAWDATA!G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="2">
+      <c r="K6" s="35"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="11">
+      <c r="P6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2905,36 +2963,40 @@
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="33" t="str">
+      <c r="H7" s="33">
+        <f>RAWDATA!G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="2">
+      <c r="K7" s="35"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="11">
+      <c r="P7" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -2960,36 +3022,40 @@
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="33" t="str">
+      <c r="H8" s="33">
+        <f>RAWDATA!G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="2">
+      <c r="K8" s="35"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="11">
+      <c r="P8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3015,36 +3081,40 @@
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="str">
+      <c r="H9" s="33">
+        <f>RAWDATA!G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="2">
+      <c r="K9" s="35"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="11">
+      <c r="P9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3070,36 +3140,40 @@
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33" t="str">
+      <c r="H10" s="33">
+        <f>RAWDATA!G10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="2">
+      <c r="K10" s="35"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3125,36 +3199,40 @@
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="33" t="str">
+      <c r="H11" s="33">
+        <f>RAWDATA!G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="2">
+      <c r="K11" s="35"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="11">
+      <c r="P11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3180,36 +3258,40 @@
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33" t="str">
+      <c r="H12" s="33">
+        <f>RAWDATA!G12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="2">
+      <c r="K12" s="35"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="11">
+      <c r="P12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3235,36 +3317,40 @@
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="33" t="str">
+      <c r="H13" s="33">
+        <f>RAWDATA!G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="2">
+      <c r="K13" s="35"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="11">
+      <c r="P13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3290,36 +3376,40 @@
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="33" t="str">
+      <c r="H14" s="33">
+        <f>RAWDATA!G14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="2">
+      <c r="K14" s="35"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="11">
+      <c r="P14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3345,36 +3435,40 @@
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="33" t="str">
+      <c r="H15" s="33">
+        <f>RAWDATA!G15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="2">
+      <c r="K15" s="35"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3400,36 +3494,40 @@
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33" t="str">
+      <c r="H16" s="33">
+        <f>RAWDATA!G16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="2">
+      <c r="K16" s="35"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="P16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3455,36 +3553,40 @@
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="33" t="str">
+      <c r="H17" s="33">
+        <f>RAWDATA!G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="2">
+      <c r="K17" s="35"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="11">
+      <c r="P17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3510,36 +3612,40 @@
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="33" t="str">
+      <c r="H18" s="33">
+        <f>RAWDATA!G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="2">
+      <c r="K18" s="35"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="11">
+      <c r="P18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3565,36 +3671,40 @@
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33" t="str">
+      <c r="H19" s="33">
+        <f>RAWDATA!G19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="2">
+      <c r="K19" s="35"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O19" s="11">
+      <c r="P19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3620,36 +3730,40 @@
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="33" t="str">
+      <c r="H20" s="33">
+        <f>RAWDATA!G20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="2">
+      <c r="K20" s="35"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
+      <c r="P20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3675,36 +3789,40 @@
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="33" t="str">
+      <c r="H21" s="33">
+        <f>RAWDATA!G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="2">
+      <c r="K21" s="35"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="11">
+      <c r="P21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -3730,36 +3848,40 @@
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33" t="str">
+      <c r="H22" s="33">
+        <f>RAWDATA!G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="2">
+      <c r="K22" s="35"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="11">
+      <c r="P22" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -3785,36 +3907,40 @@
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="33" t="str">
+      <c r="H23" s="33">
+        <f>RAWDATA!G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="2">
+      <c r="K23" s="35"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="11">
+      <c r="P23" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -3840,36 +3966,40 @@
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33" t="str">
+      <c r="H24" s="33">
+        <f>RAWDATA!G24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="2">
+      <c r="K24" s="35"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="11">
+      <c r="P24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -3895,36 +4025,40 @@
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="33" t="str">
+      <c r="H25" s="33">
+        <f>RAWDATA!G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="2">
+      <c r="K25" s="35"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="11">
+      <c r="P25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -3950,36 +4084,40 @@
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="33" t="str">
+      <c r="H26" s="33">
+        <f>RAWDATA!G26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="2">
+      <c r="K26" s="35"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3989,13 +4127,14 @@
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4004,13 +4143,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4023,13 +4163,14 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4037,18 +4178,19 @@
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="86" t="s">
@@ -4057,13 +4199,14 @@
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
       <c r="G31" s="86"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="31"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="31"/>
-      <c r="L31" s="22"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="31"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4075,13 +4218,14 @@
       <c r="E32" s="86"/>
       <c r="F32" s="86"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="31"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="31"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4093,13 +4237,14 @@
       <c r="E33" s="86"/>
       <c r="F33" s="86"/>
       <c r="G33" s="86"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="31"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="31"/>
-      <c r="L33" s="22"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="31"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4111,13 +4256,14 @@
       <c r="E34" s="86"/>
       <c r="F34" s="86"/>
       <c r="G34" s="86"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="31"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="31"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="31"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4129,13 +4275,14 @@
       <c r="E35" s="86"/>
       <c r="F35" s="86"/>
       <c r="G35" s="86"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="31"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="31"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="31"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4147,13 +4294,14 @@
       <c r="E36" s="86"/>
       <c r="F36" s="86"/>
       <c r="G36" s="86"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="31"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="31"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4165,58 +4313,65 @@
       <c r="E37" s="86"/>
       <c r="F37" s="86"/>
       <c r="G37" s="86"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="22"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4225,11 +4380,8 @@
   <mergeCells count="1">
     <mergeCell ref="D31:G37"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>DOZENT</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4247,27 +4399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4283,7 +4435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4471,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4351,7 +4503,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4383,7 +4535,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4415,7 +4567,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4447,7 +4599,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4479,7 +4631,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -4511,7 +4663,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -4543,7 +4695,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -4575,7 +4727,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -4607,7 +4759,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -4639,7 +4791,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -4671,7 +4823,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -4703,7 +4855,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -4735,7 +4887,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4767,7 +4919,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4799,7 +4951,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4831,7 +4983,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4863,7 +5015,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4895,7 +5047,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4927,7 +5079,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4959,7 +5111,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4991,7 +5143,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5023,7 +5175,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5055,7 +5207,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5087,7 +5239,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5119,7 +5271,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5135,7 +5287,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5154,7 +5306,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5184,7 +5336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5194,15 +5346,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5216,7 +5368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5233,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5242,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5251,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5260,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5269,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5278,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5287,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5296,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5305,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5314,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5339,7 +5491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5349,21 +5501,21 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5382,10 +5534,10 @@
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
-        <v>Dozent/in: Elena Moya Royo</v>
+        <v>Dozent/in: course.teacher_name</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -5404,7 +5556,7 @@
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
     </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5448,7 +5600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5469,23 +5621,23 @@
         <v>applicant.tag</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>RAWDATA!G2</f>
+        <f>RAWDATA!H2</f>
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="18" t="str">
-        <f>RAWDATA!H2</f>
+        <f>RAWDATA!I2</f>
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!I2</f>
+        <f>RAWDATA!J2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!J2</f>
+        <f>RAWDATA!K2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!H2)</f>
+        <f>UPPER(Notenliste!I2)</f>
         <v/>
       </c>
       <c r="K4" s="17" t="e">
@@ -5501,11 +5653,11 @@
         <v>applicant.sanitized_grade</v>
       </c>
       <c r="N4" s="19" t="str">
-        <f>UPPER(Notenliste!J2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -5526,23 +5678,23 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>RAWDATA!G3</f>
+        <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!H3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!H3)</f>
+        <f>UPPER(Notenliste!I3)</f>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
@@ -5558,11 +5710,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="19" t="str">
-        <f>UPPER(Notenliste!J3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -5583,23 +5735,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>RAWDATA!G4</f>
+        <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!H4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!H4)</f>
+        <f>UPPER(Notenliste!I4)</f>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
@@ -5615,11 +5767,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="19" t="str">
-        <f>UPPER(Notenliste!J4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -5640,23 +5792,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <f>RAWDATA!G5</f>
+        <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!H5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!H5)</f>
+        <f>UPPER(Notenliste!I5)</f>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
@@ -5672,11 +5824,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="19" t="str">
-        <f>UPPER(Notenliste!J5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -5697,23 +5849,23 @@
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f>RAWDATA!G6</f>
+        <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!H6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!H6)</f>
+        <f>UPPER(Notenliste!I6)</f>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
@@ -5729,11 +5881,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="19" t="str">
-        <f>UPPER(Notenliste!J6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -5754,23 +5906,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <f>RAWDATA!G7</f>
+        <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!H7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!H7)</f>
+        <f>UPPER(Notenliste!I7)</f>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
@@ -5786,11 +5938,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="19" t="str">
-        <f>UPPER(Notenliste!J7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -5811,23 +5963,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f>RAWDATA!G8</f>
+        <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!H8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!H8)</f>
+        <f>UPPER(Notenliste!I8)</f>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
@@ -5843,11 +5995,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="19" t="str">
-        <f>UPPER(Notenliste!J8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -5868,23 +6020,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>RAWDATA!G9</f>
+        <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!H9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!H9)</f>
+        <f>UPPER(Notenliste!I9)</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -5900,11 +6052,11 @@
         <v>0</v>
       </c>
       <c r="N11" s="19" t="str">
-        <f>UPPER(Notenliste!J9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -5925,23 +6077,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>RAWDATA!G10</f>
+        <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!H10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!H10)</f>
+        <f>UPPER(Notenliste!I10)</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
@@ -5957,11 +6109,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="19" t="str">
-        <f>UPPER(Notenliste!J10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -5982,23 +6134,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>RAWDATA!G11</f>
+        <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!H11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!H11)</f>
+        <f>UPPER(Notenliste!I11)</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
@@ -6014,11 +6166,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="19" t="str">
-        <f>UPPER(Notenliste!J11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6039,23 +6191,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>RAWDATA!G12</f>
+        <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!H12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!H12)</f>
+        <f>UPPER(Notenliste!I12)</f>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
@@ -6071,11 +6223,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="19" t="str">
-        <f>UPPER(Notenliste!J12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6096,23 +6248,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f>RAWDATA!G13</f>
+        <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!H13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!H13)</f>
+        <f>UPPER(Notenliste!I13)</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
@@ -6128,11 +6280,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="19" t="str">
-        <f>UPPER(Notenliste!J13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6153,23 +6305,23 @@
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f>RAWDATA!G14</f>
+        <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!H14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!H14)</f>
+        <f>UPPER(Notenliste!I14)</f>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
@@ -6185,11 +6337,11 @@
         <v>0</v>
       </c>
       <c r="N16" s="19" t="str">
-        <f>UPPER(Notenliste!J14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6210,23 +6362,23 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f>RAWDATA!G15</f>
+        <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!H15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!H15)</f>
+        <f>UPPER(Notenliste!I15)</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
@@ -6242,11 +6394,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="19" t="str">
-        <f>UPPER(Notenliste!J15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6267,23 +6419,23 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f>RAWDATA!G16</f>
+        <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!H16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!H16)</f>
+        <f>UPPER(Notenliste!I16)</f>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
@@ -6299,11 +6451,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="19" t="str">
-        <f>UPPER(Notenliste!J16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6324,23 +6476,23 @@
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>RAWDATA!G17</f>
+        <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!H17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!H17)</f>
+        <f>UPPER(Notenliste!I17)</f>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
@@ -6356,11 +6508,11 @@
         <v>0</v>
       </c>
       <c r="N19" s="19" t="str">
-        <f>UPPER(Notenliste!J17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6381,23 +6533,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f>RAWDATA!G18</f>
+        <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!H18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!H18)</f>
+        <f>UPPER(Notenliste!I18)</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
@@ -6413,11 +6565,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="19" t="str">
-        <f>UPPER(Notenliste!J18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6438,23 +6590,23 @@
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f>RAWDATA!G19</f>
+        <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!H19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!H19)</f>
+        <f>UPPER(Notenliste!I19)</f>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
@@ -6470,11 +6622,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="19" t="str">
-        <f>UPPER(Notenliste!J19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -6495,23 +6647,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <f>RAWDATA!G20</f>
+        <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!H20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!J20</f>
+        <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!H20)</f>
+        <f>UPPER(Notenliste!I20)</f>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
@@ -6527,11 +6679,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="19" t="str">
-        <f>UPPER(Notenliste!J20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -6552,23 +6704,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>RAWDATA!G21</f>
+        <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!H21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!J21</f>
+        <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!H21)</f>
+        <f>UPPER(Notenliste!I21)</f>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
@@ -6584,11 +6736,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="19" t="str">
-        <f>UPPER(Notenliste!J21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -6609,23 +6761,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f>RAWDATA!G22</f>
+        <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!H22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!J22</f>
+        <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!H22)</f>
+        <f>UPPER(Notenliste!I22)</f>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
@@ -6641,11 +6793,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="19" t="str">
-        <f>UPPER(Notenliste!J22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -6666,23 +6818,23 @@
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <f>RAWDATA!G23</f>
+        <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!H23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!J23</f>
+        <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!H23)</f>
+        <f>UPPER(Notenliste!I23)</f>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
@@ -6698,11 +6850,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="19" t="str">
-        <f>UPPER(Notenliste!J23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -6723,23 +6875,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <f>RAWDATA!G24</f>
+        <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!H24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!J24</f>
+        <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!H24)</f>
+        <f>UPPER(Notenliste!I24)</f>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
@@ -6755,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="19" t="str">
-        <f>UPPER(Notenliste!J24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -6780,23 +6932,23 @@
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>RAWDATA!G25</f>
+        <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!H25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!J25</f>
+        <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!H25)</f>
+        <f>UPPER(Notenliste!I25)</f>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
@@ -6812,11 +6964,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="19" t="str">
-        <f>UPPER(Notenliste!J25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -6837,23 +6989,23 @@
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>RAWDATA!G26</f>
+        <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!H26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!J26</f>
+        <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!H26)</f>
+        <f>UPPER(Notenliste!I26)</f>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
@@ -6869,11 +7021,11 @@
         <v>0</v>
       </c>
       <c r="N28" s="19" t="str">
-        <f>UPPER(Notenliste!J26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <f>UPPER(Notenliste!K26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -6895,7 +7047,7 @@
       <c r="M29" s="58"/>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="92" t="s">
         <v>41</v>
       </c>
@@ -6913,7 +7065,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="92"/>
     </row>
-    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="92"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -6929,7 +7081,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="92"/>
     </row>
-    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="92"/>
       <c r="B32" s="92"/>
       <c r="C32" s="92"/>
@@ -6945,7 +7097,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="92"/>
     </row>
-    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92"/>
       <c r="B33" s="92"/>
       <c r="C33" s="92"/>
@@ -6961,7 +7113,7 @@
       <c r="M33" s="92"/>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
       <c r="B34" s="92"/>
       <c r="C34" s="92"/>
@@ -7002,7 +7154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7012,24 +7164,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7058,7 +7210,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="95"/>
     </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>39</v>
       </c>
@@ -7086,10 +7238,10 @@
       <c r="W2" s="95"/>
       <c r="X2" s="95"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
-        <v>Dozent/in: Elena Moya Royo</v>
+        <v>Dozent/in: course.teacher_name</v>
       </c>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -7115,7 +7267,7 @@
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>26</v>
       </c>
@@ -7157,7 +7309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99"/>
       <c r="B5" s="99"/>
       <c r="C5" s="99"/>
@@ -7211,7 +7363,7 @@
       <c r="W5" s="94"/>
       <c r="X5" s="94"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7251,7 +7403,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7291,7 +7443,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7331,7 +7483,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7371,7 +7523,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -7411,7 +7563,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -7451,7 +7603,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -7491,7 +7643,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -7531,7 +7683,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -7571,7 +7723,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -7611,7 +7763,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -7651,7 +7803,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -7691,7 +7843,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -7731,7 +7883,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -7771,7 +7923,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -7811,7 +7963,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -7851,7 +8003,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -7891,7 +8043,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -7931,7 +8083,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -7971,7 +8123,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8011,7 +8163,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8051,7 +8203,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8091,7 +8243,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8131,7 +8283,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8171,7 +8323,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8242,25 +8394,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8286,17 +8438,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v>course.ects_points</v>
+        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</f>
+        <v>applicant.ects_points</v>
       </c>
       <c r="D2" s="68" t="e">
-        <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="66" t="str">
@@ -8304,17 +8456,17 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!H3&lt;&gt;0,Notenliste!H3,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="68" t="str">
-        <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="66" t="str">
@@ -8322,17 +8474,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!H4&lt;&gt;0,Notenliste!H4,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="68" t="str">
-        <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="66" t="str">
@@ -8340,17 +8492,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!H5&lt;&gt;0,Notenliste!H5,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="68" t="str">
-        <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="66" t="str">
@@ -8358,17 +8510,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!H6&lt;&gt;0,Notenliste!H6,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="68" t="str">
-        <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="66" t="str">
@@ -8376,17 +8528,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!H7&lt;&gt;0,Notenliste!H7,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="68" t="str">
-        <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="66" t="str">
@@ -8394,17 +8546,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!H8&lt;&gt;0,Notenliste!H8,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="68" t="str">
-        <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="66" t="str">
@@ -8412,17 +8564,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!H9&lt;&gt;0,Notenliste!H9,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="68" t="str">
-        <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="66" t="str">
@@ -8430,17 +8582,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!H10&lt;&gt;0,Notenliste!H10,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="68" t="str">
-        <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="66" t="str">
@@ -8448,17 +8600,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!H11&lt;&gt;0,Notenliste!H11,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="68" t="str">
-        <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="66" t="str">
@@ -8466,17 +8618,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!H12&lt;&gt;0,Notenliste!H12,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="68" t="str">
-        <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="66" t="str">
@@ -8484,17 +8636,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!H13&lt;&gt;0,Notenliste!H13,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="68" t="str">
-        <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="66" t="str">
@@ -8502,17 +8654,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!H14&lt;&gt;0,Notenliste!H14,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="68" t="str">
-        <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="66" t="str">
@@ -8520,17 +8672,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!H15&lt;&gt;0,Notenliste!H15,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="68" t="str">
-        <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="66" t="str">
@@ -8538,17 +8690,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!H16&lt;&gt;0,Notenliste!H16,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="68" t="str">
-        <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="66" t="str">
@@ -8556,17 +8708,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C17" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!H17&lt;&gt;0,Notenliste!H17,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="68" t="str">
-        <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="66" t="str">
@@ -8574,17 +8726,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C18" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!H18&lt;&gt;0,Notenliste!H18,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="68" t="str">
-        <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="66" t="str">
@@ -8592,17 +8744,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C19" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!H19&lt;&gt;0,Notenliste!H19,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="68" t="str">
-        <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="66" t="str">
@@ -8610,17 +8762,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C20" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!H20&lt;&gt;0,Notenliste!H20,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="68" t="str">
-        <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="66" t="str">
@@ -8628,17 +8780,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C21" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!H21&lt;&gt;0,Notenliste!H21,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="68" t="str">
-        <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="66" t="str">
@@ -8646,17 +8798,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C22" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!H22&lt;&gt;0,Notenliste!H22,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="68" t="str">
-        <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="66" t="str">
@@ -8664,17 +8816,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C23" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!H23&lt;&gt;0,Notenliste!H23,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="68" t="str">
-        <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="66" t="str">
@@ -8682,17 +8834,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C24" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!H24&lt;&gt;0,Notenliste!H24,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="68" t="str">
-        <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="66" t="str">
@@ -8700,17 +8852,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C25" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!H25&lt;&gt;0,Notenliste!H25,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="68" t="str">
-        <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="66" t="str">
@@ -8718,17 +8870,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C26" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!H26&lt;&gt;0,Notenliste!H26,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="68" t="str">
-        <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="66" t="str">
@@ -8739,21 +8891,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -8771,26 +8923,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -8807,7 +8959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -8824,7 +8976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -8841,7 +8993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -8856,7 +9008,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -8871,7 +9023,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -8886,7 +9038,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -8901,7 +9053,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -8916,7 +9068,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -8931,7 +9083,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -8942,7 +9094,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -8953,7 +9105,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -8964,7 +9116,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -8975,7 +9127,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -8986,7 +9138,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -8997,7 +9149,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9008,7 +9160,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9017,7 +9169,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC744C-D604-4E84-B294-2AC1FBE1BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -23,12 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$18,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$18,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$18,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$K$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -488,19 +489,19 @@
     <t>Lucía Serres</t>
   </si>
   <si>
-    <t>applicant.sanitized_grade</t>
-  </si>
-  <si>
-    <t>applicant.ects_points</t>
-  </si>
-  <si>
     <t>course.teacher_name</t>
+  </si>
+  <si>
+    <t>attendance.ects_points</t>
+  </si>
+  <si>
+    <t>attendance.sanitized_grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1086,13 +1087,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1109,6 +1107,9 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1174,7 +1175,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1424,42 +1425,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nachname" dataDxfId="15"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="14"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="13"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="12"/>
-    <tableColumn id="7" name="Note" dataDxfId="11"/>
-    <tableColumn id="8" name="LP" dataDxfId="10"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="9"/>
-    <tableColumn id="6" name="Telefon" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1751,29 +1752,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="39" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="39" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>103</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>126</v>
@@ -1837,7 +1838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1853,7 +1854,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1861,7 +1862,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1877,7 +1878,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1885,7 +1886,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1893,7 +1894,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1901,7 +1902,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1918,7 +1919,7 @@
       <c r="G12" s="41"/>
       <c r="I12" s="41"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="G13" s="41"/>
       <c r="I13" s="41"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="G14" s="41"/>
       <c r="I14" s="41"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="G15" s="41"/>
       <c r="I15" s="41"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="G16" s="41"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="G17" s="41"/>
       <c r="I17" s="41"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1973,7 +1974,7 @@
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1983,7 +1984,7 @@
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1993,7 +1994,7 @@
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2003,27 +2004,27 @@
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2043,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2053,546 +2054,546 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="3" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" hidden="1"/>
-    <col min="15" max="15" width="5.140625" style="1" hidden="1"/>
-    <col min="16" max="16" width="6.7109375" style="2" hidden="1"/>
-    <col min="17" max="17" width="17.7109375" style="1" hidden="1"/>
+    <col min="14" max="14" width="6.44140625" style="1" hidden="1"/>
+    <col min="15" max="15" width="5.109375" style="1" hidden="1"/>
+    <col min="16" max="16" width="6.6640625" style="2" hidden="1"/>
+    <col min="17" max="17" width="17.6640625" style="1" hidden="1"/>
     <col min="18" max="18" width="16" style="1" hidden="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" hidden="1"/>
-    <col min="20" max="244" width="11.42578125" style="1" hidden="1"/>
-    <col min="245" max="245" width="15.42578125" style="1" hidden="1"/>
-    <col min="246" max="246" width="11.42578125" style="1" hidden="1"/>
-    <col min="247" max="247" width="15.7109375" style="1" hidden="1"/>
-    <col min="248" max="248" width="21.7109375" style="1" hidden="1"/>
-    <col min="249" max="251" width="11.42578125" style="1" hidden="1"/>
+    <col min="19" max="19" width="17.6640625" style="1" hidden="1"/>
+    <col min="20" max="244" width="11.44140625" style="1" hidden="1"/>
+    <col min="245" max="245" width="15.44140625" style="1" hidden="1"/>
+    <col min="246" max="246" width="11.44140625" style="1" hidden="1"/>
+    <col min="247" max="247" width="15.6640625" style="1" hidden="1"/>
+    <col min="248" max="248" width="21.6640625" style="1" hidden="1"/>
+    <col min="249" max="251" width="11.44140625" style="1" hidden="1"/>
     <col min="252" max="252" width="16" style="1" hidden="1"/>
-    <col min="253" max="253" width="20.42578125" style="1" hidden="1"/>
-    <col min="254" max="500" width="11.42578125" style="1" hidden="1"/>
-    <col min="501" max="501" width="15.42578125" style="1" hidden="1"/>
-    <col min="502" max="502" width="11.42578125" style="1" hidden="1"/>
-    <col min="503" max="503" width="15.7109375" style="1" hidden="1"/>
-    <col min="504" max="504" width="21.7109375" style="1" hidden="1"/>
-    <col min="505" max="507" width="11.42578125" style="1" hidden="1"/>
+    <col min="253" max="253" width="20.44140625" style="1" hidden="1"/>
+    <col min="254" max="500" width="11.44140625" style="1" hidden="1"/>
+    <col min="501" max="501" width="15.44140625" style="1" hidden="1"/>
+    <col min="502" max="502" width="11.44140625" style="1" hidden="1"/>
+    <col min="503" max="503" width="15.6640625" style="1" hidden="1"/>
+    <col min="504" max="504" width="21.6640625" style="1" hidden="1"/>
+    <col min="505" max="507" width="11.44140625" style="1" hidden="1"/>
     <col min="508" max="508" width="16" style="1" hidden="1"/>
-    <col min="509" max="509" width="20.42578125" style="1" hidden="1"/>
-    <col min="510" max="756" width="11.42578125" style="1" hidden="1"/>
-    <col min="757" max="757" width="15.42578125" style="1" hidden="1"/>
-    <col min="758" max="758" width="11.42578125" style="1" hidden="1"/>
-    <col min="759" max="759" width="15.7109375" style="1" hidden="1"/>
-    <col min="760" max="760" width="21.7109375" style="1" hidden="1"/>
-    <col min="761" max="763" width="11.42578125" style="1" hidden="1"/>
+    <col min="509" max="509" width="20.44140625" style="1" hidden="1"/>
+    <col min="510" max="756" width="11.44140625" style="1" hidden="1"/>
+    <col min="757" max="757" width="15.44140625" style="1" hidden="1"/>
+    <col min="758" max="758" width="11.44140625" style="1" hidden="1"/>
+    <col min="759" max="759" width="15.6640625" style="1" hidden="1"/>
+    <col min="760" max="760" width="21.6640625" style="1" hidden="1"/>
+    <col min="761" max="763" width="11.44140625" style="1" hidden="1"/>
     <col min="764" max="764" width="16" style="1" hidden="1"/>
-    <col min="765" max="765" width="20.42578125" style="1" hidden="1"/>
-    <col min="766" max="1012" width="11.42578125" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="15.42578125" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="11.42578125" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="15.7109375" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="21.7109375" style="1" hidden="1"/>
-    <col min="1017" max="1019" width="11.42578125" style="1" hidden="1"/>
+    <col min="765" max="765" width="20.44140625" style="1" hidden="1"/>
+    <col min="766" max="1012" width="11.44140625" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="15.44140625" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="11.44140625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="15.6640625" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="21.6640625" style="1" hidden="1"/>
+    <col min="1017" max="1019" width="11.44140625" style="1" hidden="1"/>
     <col min="1020" max="1020" width="16" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="20.42578125" style="1" hidden="1"/>
-    <col min="1022" max="1268" width="11.42578125" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="15.42578125" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="11.42578125" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="15.7109375" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="21.7109375" style="1" hidden="1"/>
-    <col min="1273" max="1275" width="11.42578125" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="20.44140625" style="1" hidden="1"/>
+    <col min="1022" max="1268" width="11.44140625" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="15.44140625" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="11.44140625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="15.6640625" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="21.6640625" style="1" hidden="1"/>
+    <col min="1273" max="1275" width="11.44140625" style="1" hidden="1"/>
     <col min="1276" max="1276" width="16" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="20.42578125" style="1" hidden="1"/>
-    <col min="1278" max="1524" width="11.42578125" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="15.42578125" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="11.42578125" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="15.7109375" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="21.7109375" style="1" hidden="1"/>
-    <col min="1529" max="1531" width="11.42578125" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="20.44140625" style="1" hidden="1"/>
+    <col min="1278" max="1524" width="11.44140625" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="15.44140625" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="11.44140625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="15.6640625" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="21.6640625" style="1" hidden="1"/>
+    <col min="1529" max="1531" width="11.44140625" style="1" hidden="1"/>
     <col min="1532" max="1532" width="16" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="20.42578125" style="1" hidden="1"/>
-    <col min="1534" max="1780" width="11.42578125" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="15.42578125" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="11.42578125" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="15.7109375" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="21.7109375" style="1" hidden="1"/>
-    <col min="1785" max="1787" width="11.42578125" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="20.44140625" style="1" hidden="1"/>
+    <col min="1534" max="1780" width="11.44140625" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="15.44140625" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="11.44140625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="15.6640625" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="21.6640625" style="1" hidden="1"/>
+    <col min="1785" max="1787" width="11.44140625" style="1" hidden="1"/>
     <col min="1788" max="1788" width="16" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="20.42578125" style="1" hidden="1"/>
-    <col min="1790" max="2036" width="11.42578125" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="15.42578125" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="11.42578125" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="15.7109375" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="21.7109375" style="1" hidden="1"/>
-    <col min="2041" max="2043" width="11.42578125" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="20.44140625" style="1" hidden="1"/>
+    <col min="1790" max="2036" width="11.44140625" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="15.44140625" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="11.44140625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="15.6640625" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="21.6640625" style="1" hidden="1"/>
+    <col min="2041" max="2043" width="11.44140625" style="1" hidden="1"/>
     <col min="2044" max="2044" width="16" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="20.42578125" style="1" hidden="1"/>
-    <col min="2046" max="2292" width="11.42578125" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="15.42578125" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="11.42578125" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="15.7109375" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="21.7109375" style="1" hidden="1"/>
-    <col min="2297" max="2299" width="11.42578125" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="20.44140625" style="1" hidden="1"/>
+    <col min="2046" max="2292" width="11.44140625" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="15.44140625" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="11.44140625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="15.6640625" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="21.6640625" style="1" hidden="1"/>
+    <col min="2297" max="2299" width="11.44140625" style="1" hidden="1"/>
     <col min="2300" max="2300" width="16" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="20.42578125" style="1" hidden="1"/>
-    <col min="2302" max="2548" width="11.42578125" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="15.42578125" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="11.42578125" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="15.7109375" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="21.7109375" style="1" hidden="1"/>
-    <col min="2553" max="2555" width="11.42578125" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="20.44140625" style="1" hidden="1"/>
+    <col min="2302" max="2548" width="11.44140625" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="15.44140625" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="11.44140625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="15.6640625" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="21.6640625" style="1" hidden="1"/>
+    <col min="2553" max="2555" width="11.44140625" style="1" hidden="1"/>
     <col min="2556" max="2556" width="16" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="20.42578125" style="1" hidden="1"/>
-    <col min="2558" max="2804" width="11.42578125" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="15.42578125" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="11.42578125" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="15.7109375" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="21.7109375" style="1" hidden="1"/>
-    <col min="2809" max="2811" width="11.42578125" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="20.44140625" style="1" hidden="1"/>
+    <col min="2558" max="2804" width="11.44140625" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="15.44140625" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="11.44140625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="15.6640625" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="21.6640625" style="1" hidden="1"/>
+    <col min="2809" max="2811" width="11.44140625" style="1" hidden="1"/>
     <col min="2812" max="2812" width="16" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="20.42578125" style="1" hidden="1"/>
-    <col min="2814" max="3060" width="11.42578125" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="15.42578125" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="11.42578125" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="15.7109375" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="21.7109375" style="1" hidden="1"/>
-    <col min="3065" max="3067" width="11.42578125" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="20.44140625" style="1" hidden="1"/>
+    <col min="2814" max="3060" width="11.44140625" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="15.44140625" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="11.44140625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="15.6640625" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="21.6640625" style="1" hidden="1"/>
+    <col min="3065" max="3067" width="11.44140625" style="1" hidden="1"/>
     <col min="3068" max="3068" width="16" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="20.42578125" style="1" hidden="1"/>
-    <col min="3070" max="3316" width="11.42578125" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="15.42578125" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="11.42578125" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="15.7109375" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="21.7109375" style="1" hidden="1"/>
-    <col min="3321" max="3323" width="11.42578125" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="20.44140625" style="1" hidden="1"/>
+    <col min="3070" max="3316" width="11.44140625" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="15.44140625" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="11.44140625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="15.6640625" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="21.6640625" style="1" hidden="1"/>
+    <col min="3321" max="3323" width="11.44140625" style="1" hidden="1"/>
     <col min="3324" max="3324" width="16" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="20.42578125" style="1" hidden="1"/>
-    <col min="3326" max="3572" width="11.42578125" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="15.42578125" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="11.42578125" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="15.7109375" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="21.7109375" style="1" hidden="1"/>
-    <col min="3577" max="3579" width="11.42578125" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="20.44140625" style="1" hidden="1"/>
+    <col min="3326" max="3572" width="11.44140625" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="15.44140625" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="11.44140625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="15.6640625" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="21.6640625" style="1" hidden="1"/>
+    <col min="3577" max="3579" width="11.44140625" style="1" hidden="1"/>
     <col min="3580" max="3580" width="16" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="20.42578125" style="1" hidden="1"/>
-    <col min="3582" max="3828" width="11.42578125" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="15.42578125" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="11.42578125" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="15.7109375" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="21.7109375" style="1" hidden="1"/>
-    <col min="3833" max="3835" width="11.42578125" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="20.44140625" style="1" hidden="1"/>
+    <col min="3582" max="3828" width="11.44140625" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="15.44140625" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="11.44140625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="15.6640625" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="21.6640625" style="1" hidden="1"/>
+    <col min="3833" max="3835" width="11.44140625" style="1" hidden="1"/>
     <col min="3836" max="3836" width="16" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="20.42578125" style="1" hidden="1"/>
-    <col min="3838" max="4084" width="11.42578125" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="15.42578125" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="11.42578125" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="15.7109375" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="21.7109375" style="1" hidden="1"/>
-    <col min="4089" max="4091" width="11.42578125" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="20.44140625" style="1" hidden="1"/>
+    <col min="3838" max="4084" width="11.44140625" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="15.44140625" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="11.44140625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="15.6640625" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="21.6640625" style="1" hidden="1"/>
+    <col min="4089" max="4091" width="11.44140625" style="1" hidden="1"/>
     <col min="4092" max="4092" width="16" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="20.42578125" style="1" hidden="1"/>
-    <col min="4094" max="4340" width="11.42578125" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="15.42578125" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="11.42578125" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="15.7109375" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="21.7109375" style="1" hidden="1"/>
-    <col min="4345" max="4347" width="11.42578125" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="20.44140625" style="1" hidden="1"/>
+    <col min="4094" max="4340" width="11.44140625" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="15.44140625" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="11.44140625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="15.6640625" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="21.6640625" style="1" hidden="1"/>
+    <col min="4345" max="4347" width="11.44140625" style="1" hidden="1"/>
     <col min="4348" max="4348" width="16" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="20.42578125" style="1" hidden="1"/>
-    <col min="4350" max="4596" width="11.42578125" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="15.42578125" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="11.42578125" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="15.7109375" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="21.7109375" style="1" hidden="1"/>
-    <col min="4601" max="4603" width="11.42578125" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="20.44140625" style="1" hidden="1"/>
+    <col min="4350" max="4596" width="11.44140625" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="15.44140625" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="11.44140625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="15.6640625" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="21.6640625" style="1" hidden="1"/>
+    <col min="4601" max="4603" width="11.44140625" style="1" hidden="1"/>
     <col min="4604" max="4604" width="16" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="20.42578125" style="1" hidden="1"/>
-    <col min="4606" max="4852" width="11.42578125" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="15.42578125" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="11.42578125" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="15.7109375" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="21.7109375" style="1" hidden="1"/>
-    <col min="4857" max="4859" width="11.42578125" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="20.44140625" style="1" hidden="1"/>
+    <col min="4606" max="4852" width="11.44140625" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="15.44140625" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="11.44140625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="15.6640625" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="21.6640625" style="1" hidden="1"/>
+    <col min="4857" max="4859" width="11.44140625" style="1" hidden="1"/>
     <col min="4860" max="4860" width="16" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="20.42578125" style="1" hidden="1"/>
-    <col min="4862" max="5108" width="11.42578125" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="15.42578125" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="11.42578125" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="15.7109375" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="21.7109375" style="1" hidden="1"/>
-    <col min="5113" max="5115" width="11.42578125" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="20.44140625" style="1" hidden="1"/>
+    <col min="4862" max="5108" width="11.44140625" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="15.44140625" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="11.44140625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="15.6640625" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="21.6640625" style="1" hidden="1"/>
+    <col min="5113" max="5115" width="11.44140625" style="1" hidden="1"/>
     <col min="5116" max="5116" width="16" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="20.42578125" style="1" hidden="1"/>
-    <col min="5118" max="5364" width="11.42578125" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="15.42578125" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="11.42578125" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="15.7109375" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="21.7109375" style="1" hidden="1"/>
-    <col min="5369" max="5371" width="11.42578125" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="20.44140625" style="1" hidden="1"/>
+    <col min="5118" max="5364" width="11.44140625" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="15.44140625" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="11.44140625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="15.6640625" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="21.6640625" style="1" hidden="1"/>
+    <col min="5369" max="5371" width="11.44140625" style="1" hidden="1"/>
     <col min="5372" max="5372" width="16" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="20.42578125" style="1" hidden="1"/>
-    <col min="5374" max="5620" width="11.42578125" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="15.42578125" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="11.42578125" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="15.7109375" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="21.7109375" style="1" hidden="1"/>
-    <col min="5625" max="5627" width="11.42578125" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="20.44140625" style="1" hidden="1"/>
+    <col min="5374" max="5620" width="11.44140625" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="15.44140625" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="11.44140625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="15.6640625" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="21.6640625" style="1" hidden="1"/>
+    <col min="5625" max="5627" width="11.44140625" style="1" hidden="1"/>
     <col min="5628" max="5628" width="16" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="20.42578125" style="1" hidden="1"/>
-    <col min="5630" max="5876" width="11.42578125" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="15.42578125" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="11.42578125" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="15.7109375" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="21.7109375" style="1" hidden="1"/>
-    <col min="5881" max="5883" width="11.42578125" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="20.44140625" style="1" hidden="1"/>
+    <col min="5630" max="5876" width="11.44140625" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="15.44140625" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="11.44140625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="15.6640625" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="21.6640625" style="1" hidden="1"/>
+    <col min="5881" max="5883" width="11.44140625" style="1" hidden="1"/>
     <col min="5884" max="5884" width="16" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="20.42578125" style="1" hidden="1"/>
-    <col min="5886" max="6132" width="11.42578125" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="15.42578125" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="11.42578125" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="15.7109375" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="21.7109375" style="1" hidden="1"/>
-    <col min="6137" max="6139" width="11.42578125" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="20.44140625" style="1" hidden="1"/>
+    <col min="5886" max="6132" width="11.44140625" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="15.44140625" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="11.44140625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="15.6640625" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="21.6640625" style="1" hidden="1"/>
+    <col min="6137" max="6139" width="11.44140625" style="1" hidden="1"/>
     <col min="6140" max="6140" width="16" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="20.42578125" style="1" hidden="1"/>
-    <col min="6142" max="6388" width="11.42578125" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="15.42578125" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="11.42578125" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="15.7109375" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="21.7109375" style="1" hidden="1"/>
-    <col min="6393" max="6395" width="11.42578125" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="20.44140625" style="1" hidden="1"/>
+    <col min="6142" max="6388" width="11.44140625" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="15.44140625" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="11.44140625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="15.6640625" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="21.6640625" style="1" hidden="1"/>
+    <col min="6393" max="6395" width="11.44140625" style="1" hidden="1"/>
     <col min="6396" max="6396" width="16" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="20.42578125" style="1" hidden="1"/>
-    <col min="6398" max="6644" width="11.42578125" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="15.42578125" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="11.42578125" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="15.7109375" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="21.7109375" style="1" hidden="1"/>
-    <col min="6649" max="6651" width="11.42578125" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="20.44140625" style="1" hidden="1"/>
+    <col min="6398" max="6644" width="11.44140625" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="15.44140625" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="11.44140625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="15.6640625" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="21.6640625" style="1" hidden="1"/>
+    <col min="6649" max="6651" width="11.44140625" style="1" hidden="1"/>
     <col min="6652" max="6652" width="16" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="20.42578125" style="1" hidden="1"/>
-    <col min="6654" max="6900" width="11.42578125" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="15.42578125" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="11.42578125" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="15.7109375" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="21.7109375" style="1" hidden="1"/>
-    <col min="6905" max="6907" width="11.42578125" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="20.44140625" style="1" hidden="1"/>
+    <col min="6654" max="6900" width="11.44140625" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="15.44140625" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="11.44140625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="15.6640625" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="21.6640625" style="1" hidden="1"/>
+    <col min="6905" max="6907" width="11.44140625" style="1" hidden="1"/>
     <col min="6908" max="6908" width="16" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="20.42578125" style="1" hidden="1"/>
-    <col min="6910" max="7156" width="11.42578125" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="15.42578125" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="11.42578125" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="15.7109375" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="21.7109375" style="1" hidden="1"/>
-    <col min="7161" max="7163" width="11.42578125" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="20.44140625" style="1" hidden="1"/>
+    <col min="6910" max="7156" width="11.44140625" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="15.44140625" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="11.44140625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="15.6640625" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="21.6640625" style="1" hidden="1"/>
+    <col min="7161" max="7163" width="11.44140625" style="1" hidden="1"/>
     <col min="7164" max="7164" width="16" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="20.42578125" style="1" hidden="1"/>
-    <col min="7166" max="7412" width="11.42578125" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="15.42578125" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="11.42578125" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="15.7109375" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="21.7109375" style="1" hidden="1"/>
-    <col min="7417" max="7419" width="11.42578125" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="20.44140625" style="1" hidden="1"/>
+    <col min="7166" max="7412" width="11.44140625" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="15.44140625" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="11.44140625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="15.6640625" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="21.6640625" style="1" hidden="1"/>
+    <col min="7417" max="7419" width="11.44140625" style="1" hidden="1"/>
     <col min="7420" max="7420" width="16" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="20.42578125" style="1" hidden="1"/>
-    <col min="7422" max="7668" width="11.42578125" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="15.42578125" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="11.42578125" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="15.7109375" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="21.7109375" style="1" hidden="1"/>
-    <col min="7673" max="7675" width="11.42578125" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="20.44140625" style="1" hidden="1"/>
+    <col min="7422" max="7668" width="11.44140625" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="15.44140625" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="11.44140625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="15.6640625" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="21.6640625" style="1" hidden="1"/>
+    <col min="7673" max="7675" width="11.44140625" style="1" hidden="1"/>
     <col min="7676" max="7676" width="16" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="20.42578125" style="1" hidden="1"/>
-    <col min="7678" max="7924" width="11.42578125" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="15.42578125" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="11.42578125" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="15.7109375" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="21.7109375" style="1" hidden="1"/>
-    <col min="7929" max="7931" width="11.42578125" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="20.44140625" style="1" hidden="1"/>
+    <col min="7678" max="7924" width="11.44140625" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="15.44140625" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="11.44140625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="15.6640625" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="21.6640625" style="1" hidden="1"/>
+    <col min="7929" max="7931" width="11.44140625" style="1" hidden="1"/>
     <col min="7932" max="7932" width="16" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="20.42578125" style="1" hidden="1"/>
-    <col min="7934" max="8180" width="11.42578125" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="15.42578125" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="11.42578125" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="15.7109375" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="21.7109375" style="1" hidden="1"/>
-    <col min="8185" max="8187" width="11.42578125" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="20.44140625" style="1" hidden="1"/>
+    <col min="7934" max="8180" width="11.44140625" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="15.44140625" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="11.44140625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="15.6640625" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="21.6640625" style="1" hidden="1"/>
+    <col min="8185" max="8187" width="11.44140625" style="1" hidden="1"/>
     <col min="8188" max="8188" width="16" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="20.42578125" style="1" hidden="1"/>
-    <col min="8190" max="8436" width="11.42578125" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="15.42578125" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="11.42578125" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="15.7109375" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="21.7109375" style="1" hidden="1"/>
-    <col min="8441" max="8443" width="11.42578125" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="20.44140625" style="1" hidden="1"/>
+    <col min="8190" max="8436" width="11.44140625" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="15.44140625" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="11.44140625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="15.6640625" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="21.6640625" style="1" hidden="1"/>
+    <col min="8441" max="8443" width="11.44140625" style="1" hidden="1"/>
     <col min="8444" max="8444" width="16" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="20.42578125" style="1" hidden="1"/>
-    <col min="8446" max="8692" width="11.42578125" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="15.42578125" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="11.42578125" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="15.7109375" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="21.7109375" style="1" hidden="1"/>
-    <col min="8697" max="8699" width="11.42578125" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="20.44140625" style="1" hidden="1"/>
+    <col min="8446" max="8692" width="11.44140625" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="15.44140625" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="11.44140625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="15.6640625" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="21.6640625" style="1" hidden="1"/>
+    <col min="8697" max="8699" width="11.44140625" style="1" hidden="1"/>
     <col min="8700" max="8700" width="16" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="20.42578125" style="1" hidden="1"/>
-    <col min="8702" max="8948" width="11.42578125" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="15.42578125" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="11.42578125" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="15.7109375" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="21.7109375" style="1" hidden="1"/>
-    <col min="8953" max="8955" width="11.42578125" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="20.44140625" style="1" hidden="1"/>
+    <col min="8702" max="8948" width="11.44140625" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="15.44140625" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="11.44140625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="15.6640625" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="21.6640625" style="1" hidden="1"/>
+    <col min="8953" max="8955" width="11.44140625" style="1" hidden="1"/>
     <col min="8956" max="8956" width="16" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="20.42578125" style="1" hidden="1"/>
-    <col min="8958" max="9204" width="11.42578125" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="15.42578125" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="11.42578125" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="15.7109375" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="21.7109375" style="1" hidden="1"/>
-    <col min="9209" max="9211" width="11.42578125" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="20.44140625" style="1" hidden="1"/>
+    <col min="8958" max="9204" width="11.44140625" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="15.44140625" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="11.44140625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="15.6640625" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="21.6640625" style="1" hidden="1"/>
+    <col min="9209" max="9211" width="11.44140625" style="1" hidden="1"/>
     <col min="9212" max="9212" width="16" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="20.42578125" style="1" hidden="1"/>
-    <col min="9214" max="9460" width="11.42578125" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="15.42578125" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="11.42578125" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="15.7109375" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="21.7109375" style="1" hidden="1"/>
-    <col min="9465" max="9467" width="11.42578125" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="20.44140625" style="1" hidden="1"/>
+    <col min="9214" max="9460" width="11.44140625" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="15.44140625" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="11.44140625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="15.6640625" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="21.6640625" style="1" hidden="1"/>
+    <col min="9465" max="9467" width="11.44140625" style="1" hidden="1"/>
     <col min="9468" max="9468" width="16" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="20.42578125" style="1" hidden="1"/>
-    <col min="9470" max="9716" width="11.42578125" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="15.42578125" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="11.42578125" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="15.7109375" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="21.7109375" style="1" hidden="1"/>
-    <col min="9721" max="9723" width="11.42578125" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="20.44140625" style="1" hidden="1"/>
+    <col min="9470" max="9716" width="11.44140625" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="15.44140625" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="11.44140625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="15.6640625" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="21.6640625" style="1" hidden="1"/>
+    <col min="9721" max="9723" width="11.44140625" style="1" hidden="1"/>
     <col min="9724" max="9724" width="16" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="20.42578125" style="1" hidden="1"/>
-    <col min="9726" max="9972" width="11.42578125" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="15.42578125" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="11.42578125" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="15.7109375" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="21.7109375" style="1" hidden="1"/>
-    <col min="9977" max="9979" width="11.42578125" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="20.44140625" style="1" hidden="1"/>
+    <col min="9726" max="9972" width="11.44140625" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="15.44140625" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="11.44140625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="15.6640625" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="21.6640625" style="1" hidden="1"/>
+    <col min="9977" max="9979" width="11.44140625" style="1" hidden="1"/>
     <col min="9980" max="9980" width="16" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="20.42578125" style="1" hidden="1"/>
-    <col min="9982" max="10228" width="11.42578125" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="15.42578125" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="11.42578125" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="15.7109375" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="21.7109375" style="1" hidden="1"/>
-    <col min="10233" max="10235" width="11.42578125" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="20.44140625" style="1" hidden="1"/>
+    <col min="9982" max="10228" width="11.44140625" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="15.44140625" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="11.44140625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="15.6640625" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="21.6640625" style="1" hidden="1"/>
+    <col min="10233" max="10235" width="11.44140625" style="1" hidden="1"/>
     <col min="10236" max="10236" width="16" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="20.42578125" style="1" hidden="1"/>
-    <col min="10238" max="10484" width="11.42578125" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="15.42578125" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="11.42578125" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="15.7109375" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="21.7109375" style="1" hidden="1"/>
-    <col min="10489" max="10491" width="11.42578125" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="20.44140625" style="1" hidden="1"/>
+    <col min="10238" max="10484" width="11.44140625" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="15.44140625" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="11.44140625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="15.6640625" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="21.6640625" style="1" hidden="1"/>
+    <col min="10489" max="10491" width="11.44140625" style="1" hidden="1"/>
     <col min="10492" max="10492" width="16" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="20.42578125" style="1" hidden="1"/>
-    <col min="10494" max="10740" width="11.42578125" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="15.42578125" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="11.42578125" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="15.7109375" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="21.7109375" style="1" hidden="1"/>
-    <col min="10745" max="10747" width="11.42578125" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="20.44140625" style="1" hidden="1"/>
+    <col min="10494" max="10740" width="11.44140625" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="15.44140625" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="11.44140625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="15.6640625" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="21.6640625" style="1" hidden="1"/>
+    <col min="10745" max="10747" width="11.44140625" style="1" hidden="1"/>
     <col min="10748" max="10748" width="16" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="20.42578125" style="1" hidden="1"/>
-    <col min="10750" max="10996" width="11.42578125" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="15.42578125" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="11.42578125" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="15.7109375" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="21.7109375" style="1" hidden="1"/>
-    <col min="11001" max="11003" width="11.42578125" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="20.44140625" style="1" hidden="1"/>
+    <col min="10750" max="10996" width="11.44140625" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="15.44140625" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="11.44140625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="15.6640625" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="21.6640625" style="1" hidden="1"/>
+    <col min="11001" max="11003" width="11.44140625" style="1" hidden="1"/>
     <col min="11004" max="11004" width="16" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="20.42578125" style="1" hidden="1"/>
-    <col min="11006" max="11252" width="11.42578125" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="15.42578125" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="11.42578125" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="15.7109375" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="21.7109375" style="1" hidden="1"/>
-    <col min="11257" max="11259" width="11.42578125" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="20.44140625" style="1" hidden="1"/>
+    <col min="11006" max="11252" width="11.44140625" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="15.44140625" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="11.44140625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="15.6640625" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="21.6640625" style="1" hidden="1"/>
+    <col min="11257" max="11259" width="11.44140625" style="1" hidden="1"/>
     <col min="11260" max="11260" width="16" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="20.42578125" style="1" hidden="1"/>
-    <col min="11262" max="11508" width="11.42578125" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="15.42578125" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="11.42578125" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="15.7109375" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="21.7109375" style="1" hidden="1"/>
-    <col min="11513" max="11515" width="11.42578125" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="20.44140625" style="1" hidden="1"/>
+    <col min="11262" max="11508" width="11.44140625" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="15.44140625" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="11.44140625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="15.6640625" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="21.6640625" style="1" hidden="1"/>
+    <col min="11513" max="11515" width="11.44140625" style="1" hidden="1"/>
     <col min="11516" max="11516" width="16" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="20.42578125" style="1" hidden="1"/>
-    <col min="11518" max="11764" width="11.42578125" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="15.42578125" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="11.42578125" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="15.7109375" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="21.7109375" style="1" hidden="1"/>
-    <col min="11769" max="11771" width="11.42578125" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="20.44140625" style="1" hidden="1"/>
+    <col min="11518" max="11764" width="11.44140625" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="15.44140625" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="11.44140625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="15.6640625" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="21.6640625" style="1" hidden="1"/>
+    <col min="11769" max="11771" width="11.44140625" style="1" hidden="1"/>
     <col min="11772" max="11772" width="16" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="20.42578125" style="1" hidden="1"/>
-    <col min="11774" max="12020" width="11.42578125" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="15.42578125" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="11.42578125" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="15.7109375" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="21.7109375" style="1" hidden="1"/>
-    <col min="12025" max="12027" width="11.42578125" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="20.44140625" style="1" hidden="1"/>
+    <col min="11774" max="12020" width="11.44140625" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="15.44140625" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="11.44140625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="15.6640625" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="21.6640625" style="1" hidden="1"/>
+    <col min="12025" max="12027" width="11.44140625" style="1" hidden="1"/>
     <col min="12028" max="12028" width="16" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="20.42578125" style="1" hidden="1"/>
-    <col min="12030" max="12276" width="11.42578125" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="15.42578125" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="11.42578125" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="15.7109375" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="21.7109375" style="1" hidden="1"/>
-    <col min="12281" max="12283" width="11.42578125" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="20.44140625" style="1" hidden="1"/>
+    <col min="12030" max="12276" width="11.44140625" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="15.44140625" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="11.44140625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="15.6640625" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="21.6640625" style="1" hidden="1"/>
+    <col min="12281" max="12283" width="11.44140625" style="1" hidden="1"/>
     <col min="12284" max="12284" width="16" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="20.42578125" style="1" hidden="1"/>
-    <col min="12286" max="12532" width="11.42578125" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="15.42578125" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="11.42578125" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="15.7109375" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="21.7109375" style="1" hidden="1"/>
-    <col min="12537" max="12539" width="11.42578125" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="20.44140625" style="1" hidden="1"/>
+    <col min="12286" max="12532" width="11.44140625" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="15.44140625" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="11.44140625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="15.6640625" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="21.6640625" style="1" hidden="1"/>
+    <col min="12537" max="12539" width="11.44140625" style="1" hidden="1"/>
     <col min="12540" max="12540" width="16" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="20.42578125" style="1" hidden="1"/>
-    <col min="12542" max="12788" width="11.42578125" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="15.42578125" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="11.42578125" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="15.7109375" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="21.7109375" style="1" hidden="1"/>
-    <col min="12793" max="12795" width="11.42578125" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="20.44140625" style="1" hidden="1"/>
+    <col min="12542" max="12788" width="11.44140625" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="15.44140625" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="11.44140625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="15.6640625" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="21.6640625" style="1" hidden="1"/>
+    <col min="12793" max="12795" width="11.44140625" style="1" hidden="1"/>
     <col min="12796" max="12796" width="16" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="20.42578125" style="1" hidden="1"/>
-    <col min="12798" max="13044" width="11.42578125" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="15.42578125" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="11.42578125" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="15.7109375" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="21.7109375" style="1" hidden="1"/>
-    <col min="13049" max="13051" width="11.42578125" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="20.44140625" style="1" hidden="1"/>
+    <col min="12798" max="13044" width="11.44140625" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="15.44140625" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="11.44140625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="15.6640625" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="21.6640625" style="1" hidden="1"/>
+    <col min="13049" max="13051" width="11.44140625" style="1" hidden="1"/>
     <col min="13052" max="13052" width="16" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="20.42578125" style="1" hidden="1"/>
-    <col min="13054" max="13300" width="11.42578125" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="15.42578125" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="11.42578125" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="15.7109375" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="21.7109375" style="1" hidden="1"/>
-    <col min="13305" max="13307" width="11.42578125" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="20.44140625" style="1" hidden="1"/>
+    <col min="13054" max="13300" width="11.44140625" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="15.44140625" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="11.44140625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="15.6640625" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="21.6640625" style="1" hidden="1"/>
+    <col min="13305" max="13307" width="11.44140625" style="1" hidden="1"/>
     <col min="13308" max="13308" width="16" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="20.42578125" style="1" hidden="1"/>
-    <col min="13310" max="13556" width="11.42578125" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="15.42578125" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="11.42578125" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="15.7109375" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="21.7109375" style="1" hidden="1"/>
-    <col min="13561" max="13563" width="11.42578125" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="20.44140625" style="1" hidden="1"/>
+    <col min="13310" max="13556" width="11.44140625" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="15.44140625" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="11.44140625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="15.6640625" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="21.6640625" style="1" hidden="1"/>
+    <col min="13561" max="13563" width="11.44140625" style="1" hidden="1"/>
     <col min="13564" max="13564" width="16" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="20.42578125" style="1" hidden="1"/>
-    <col min="13566" max="13812" width="11.42578125" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="15.42578125" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="11.42578125" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="15.7109375" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="21.7109375" style="1" hidden="1"/>
-    <col min="13817" max="13819" width="11.42578125" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="20.44140625" style="1" hidden="1"/>
+    <col min="13566" max="13812" width="11.44140625" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="15.44140625" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="11.44140625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="15.6640625" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="21.6640625" style="1" hidden="1"/>
+    <col min="13817" max="13819" width="11.44140625" style="1" hidden="1"/>
     <col min="13820" max="13820" width="16" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="20.42578125" style="1" hidden="1"/>
-    <col min="13822" max="14068" width="11.42578125" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="15.42578125" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="11.42578125" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="15.7109375" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="21.7109375" style="1" hidden="1"/>
-    <col min="14073" max="14075" width="11.42578125" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="20.44140625" style="1" hidden="1"/>
+    <col min="13822" max="14068" width="11.44140625" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="15.44140625" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="11.44140625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="15.6640625" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="21.6640625" style="1" hidden="1"/>
+    <col min="14073" max="14075" width="11.44140625" style="1" hidden="1"/>
     <col min="14076" max="14076" width="16" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="20.42578125" style="1" hidden="1"/>
-    <col min="14078" max="14324" width="11.42578125" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="15.42578125" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="11.42578125" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="15.7109375" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="21.7109375" style="1" hidden="1"/>
-    <col min="14329" max="14331" width="11.42578125" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="20.44140625" style="1" hidden="1"/>
+    <col min="14078" max="14324" width="11.44140625" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="15.44140625" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="11.44140625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="15.6640625" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="21.6640625" style="1" hidden="1"/>
+    <col min="14329" max="14331" width="11.44140625" style="1" hidden="1"/>
     <col min="14332" max="14332" width="16" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="20.42578125" style="1" hidden="1"/>
-    <col min="14334" max="14580" width="11.42578125" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="15.42578125" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="11.42578125" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="15.7109375" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="21.7109375" style="1" hidden="1"/>
-    <col min="14585" max="14587" width="11.42578125" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="20.44140625" style="1" hidden="1"/>
+    <col min="14334" max="14580" width="11.44140625" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="15.44140625" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="11.44140625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="15.6640625" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="21.6640625" style="1" hidden="1"/>
+    <col min="14585" max="14587" width="11.44140625" style="1" hidden="1"/>
     <col min="14588" max="14588" width="16" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="20.42578125" style="1" hidden="1"/>
-    <col min="14590" max="14836" width="11.42578125" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="15.42578125" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="11.42578125" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="15.7109375" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="21.7109375" style="1" hidden="1"/>
-    <col min="14841" max="14843" width="11.42578125" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="20.44140625" style="1" hidden="1"/>
+    <col min="14590" max="14836" width="11.44140625" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="15.44140625" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="11.44140625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="15.6640625" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="21.6640625" style="1" hidden="1"/>
+    <col min="14841" max="14843" width="11.44140625" style="1" hidden="1"/>
     <col min="14844" max="14844" width="16" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="20.42578125" style="1" hidden="1"/>
-    <col min="14846" max="15092" width="11.42578125" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="15.42578125" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="11.42578125" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="15.7109375" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="21.7109375" style="1" hidden="1"/>
-    <col min="15097" max="15099" width="11.42578125" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="20.44140625" style="1" hidden="1"/>
+    <col min="14846" max="15092" width="11.44140625" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="15.44140625" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="11.44140625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="15.6640625" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="21.6640625" style="1" hidden="1"/>
+    <col min="15097" max="15099" width="11.44140625" style="1" hidden="1"/>
     <col min="15100" max="15100" width="16" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="20.42578125" style="1" hidden="1"/>
-    <col min="15102" max="15348" width="11.42578125" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="15.42578125" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="11.42578125" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="15.7109375" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="21.7109375" style="1" hidden="1"/>
-    <col min="15353" max="15355" width="11.42578125" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="20.44140625" style="1" hidden="1"/>
+    <col min="15102" max="15348" width="11.44140625" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="15.44140625" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="11.44140625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="15.6640625" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="21.6640625" style="1" hidden="1"/>
+    <col min="15353" max="15355" width="11.44140625" style="1" hidden="1"/>
     <col min="15356" max="15356" width="16" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="20.42578125" style="1" hidden="1"/>
-    <col min="15358" max="15604" width="11.42578125" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="15.42578125" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="11.42578125" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="15.7109375" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="21.7109375" style="1" hidden="1"/>
-    <col min="15609" max="15611" width="11.42578125" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="20.44140625" style="1" hidden="1"/>
+    <col min="15358" max="15604" width="11.44140625" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="15.44140625" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="11.44140625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="15.6640625" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="21.6640625" style="1" hidden="1"/>
+    <col min="15609" max="15611" width="11.44140625" style="1" hidden="1"/>
     <col min="15612" max="15612" width="16" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="20.42578125" style="1" hidden="1"/>
-    <col min="15614" max="15860" width="11.42578125" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="15.42578125" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="11.42578125" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="15.7109375" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="21.7109375" style="1" hidden="1"/>
-    <col min="15865" max="15867" width="11.42578125" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="20.44140625" style="1" hidden="1"/>
+    <col min="15614" max="15860" width="11.44140625" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="15.44140625" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="11.44140625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="15.6640625" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="21.6640625" style="1" hidden="1"/>
+    <col min="15865" max="15867" width="11.44140625" style="1" hidden="1"/>
     <col min="15868" max="15868" width="16" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="20.42578125" style="1" hidden="1"/>
-    <col min="15870" max="16116" width="11.42578125" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="15.42578125" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="11.42578125" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="15.7109375" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="21.7109375" style="1" hidden="1"/>
-    <col min="16121" max="16123" width="11.42578125" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="20.44140625" style="1" hidden="1"/>
+    <col min="15870" max="16116" width="11.44140625" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="15.44140625" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="11.44140625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="15.6640625" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="21.6640625" style="1" hidden="1"/>
+    <col min="16121" max="16123" width="11.44140625" style="1" hidden="1"/>
     <col min="16124" max="16124" width="16" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="20.42578125" style="1" hidden="1"/>
-    <col min="16126" max="16128" width="11.42578125" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="15.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="11.42578125" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="15.7109375" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="21.7109375" style="1" hidden="1"/>
-    <col min="16133" max="16135" width="11.42578125" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="20.44140625" style="1" hidden="1"/>
+    <col min="16126" max="16128" width="11.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="15.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="11.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="15.6640625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="21.6640625" style="1" hidden="1"/>
+    <col min="16133" max="16135" width="11.44140625" style="1" hidden="1"/>
     <col min="16136" max="16136" width="16" style="1" hidden="1"/>
-    <col min="16137" max="16138" width="20.42578125" style="1" hidden="1"/>
-    <col min="16139" max="16140" width="11.42578125" style="1" hidden="1"/>
+    <col min="16137" max="16138" width="20.44140625" style="1" hidden="1"/>
+    <col min="16139" max="16140" width="11.44140625" style="1" hidden="1"/>
     <col min="16141" max="16141" width="16" style="1" hidden="1"/>
-    <col min="16142" max="16144" width="20.42578125" style="1" hidden="1"/>
-    <col min="16145" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16142" max="16144" width="20.44140625" style="1" hidden="1"/>
+    <col min="16145" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2661,7 +2662,7 @@
       </c>
       <c r="E2" s="34" t="str">
         <f>RAWDATA!F2</f>
-        <v>applicant.sanitized_grade</v>
+        <v>attendance.sanitized_grade</v>
       </c>
       <c r="F2" s="30" t="e">
         <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
@@ -2670,7 +2671,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="33" t="str">
         <f>RAWDATA!G2</f>
-        <v>applicant.ects_points</v>
+        <v>attendance.ects_points</v>
       </c>
       <c r="I2" s="35"/>
       <c r="J2" s="33" t="str">
@@ -2701,7 +2702,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2760,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2819,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2937,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2996,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3055,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3114,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3173,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3232,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3291,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3350,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3409,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3468,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3527,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3586,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3645,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3704,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3763,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3822,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -3881,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -3940,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -3999,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4058,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4117,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4134,7 +4135,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="22"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4150,7 +4151,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4170,7 +4171,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4185,12 +4186,12 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
     </row>
-    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="86" t="s">
@@ -4206,7 +4207,7 @@
       <c r="L31" s="31"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4225,7 +4226,7 @@
       <c r="L32" s="31"/>
       <c r="M32" s="22"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4244,7 +4245,7 @@
       <c r="L33" s="31"/>
       <c r="M33" s="22"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4263,7 +4264,7 @@
       <c r="L34" s="31"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4282,7 +4283,7 @@
       <c r="L35" s="31"/>
       <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4301,7 +4302,7 @@
       <c r="L36" s="31"/>
       <c r="M36" s="22"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4320,58 +4321,52 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
     </row>
   </sheetData>
@@ -4381,7 +4376,7 @@
     <mergeCell ref="D31:G37"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36"/>
+    <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4399,27 +4394,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -4435,7 +4430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4466,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -4503,7 +4498,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -4535,7 +4530,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -4567,7 +4562,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -4599,7 +4594,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -4631,7 +4626,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -4663,7 +4658,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -4695,7 +4690,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -4727,7 +4722,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -4759,7 +4754,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -4791,7 +4786,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -4823,7 +4818,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -4855,7 +4850,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -4887,7 +4882,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4919,7 +4914,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4951,7 +4946,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4983,7 +4978,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5015,7 +5010,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5047,7 +5042,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5079,7 +5074,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5111,7 +5106,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5143,7 +5138,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5175,7 +5170,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5207,7 +5202,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5239,7 +5234,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5271,7 +5266,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5287,7 +5282,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -5306,7 +5301,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -5336,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5346,15 +5341,15 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="88" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5368,7 +5363,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -5376,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5385,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5394,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5412,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5421,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5430,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5439,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5448,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5457,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -5491,7 +5486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5501,21 +5496,21 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -5534,7 +5529,7 @@
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
     </row>
-    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -5556,7 +5551,7 @@
       <c r="M2" s="91"/>
       <c r="N2" s="91"/>
     </row>
-    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -5600,7 +5595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5650,14 +5645,14 @@
       </c>
       <c r="M4" s="17" t="str">
         <f>Notenliste!E2</f>
-        <v>applicant.sanitized_grade</v>
+        <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="19" t="str">
         <f>UPPER(Notenliste!K2)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -5714,7 +5709,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -5828,7 +5823,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -5942,7 +5937,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6056,7 +6051,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6113,7 +6108,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6170,7 +6165,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6284,7 +6279,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6341,7 +6336,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6398,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6455,7 +6450,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6512,7 +6507,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6569,7 +6564,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6626,7 +6621,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -6683,7 +6678,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -6740,7 +6735,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -6797,7 +6792,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -6854,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -6911,7 +6906,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -6968,7 +6963,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7025,7 +7020,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
@@ -7047,7 +7042,7 @@
       <c r="M29" s="58"/>
       <c r="N29" s="60"/>
     </row>
-    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="92" t="s">
         <v>41</v>
       </c>
@@ -7065,7 +7060,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="92"/>
     </row>
-    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="92"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -7081,7 +7076,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="92"/>
     </row>
-    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="92"/>
       <c r="B32" s="92"/>
       <c r="C32" s="92"/>
@@ -7097,7 +7092,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="92"/>
     </row>
-    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="92"/>
       <c r="B33" s="92"/>
       <c r="C33" s="92"/>
@@ -7113,7 +7108,7 @@
       <c r="M33" s="92"/>
       <c r="N33" s="92"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="92"/>
       <c r="B34" s="92"/>
       <c r="C34" s="92"/>
@@ -7154,7 +7149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7164,24 +7159,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="54" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="55" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="39" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
@@ -7210,7 +7205,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="95"/>
     </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>39</v>
       </c>
@@ -7238,7 +7233,7 @@
       <c r="W2" s="95"/>
       <c r="X2" s="95"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7267,7 +7262,7 @@
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
         <v>26</v>
       </c>
@@ -7309,7 +7304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
       <c r="B5" s="99"/>
       <c r="C5" s="99"/>
@@ -7363,7 +7358,7 @@
       <c r="W5" s="94"/>
       <c r="X5" s="94"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7403,7 +7398,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7443,7 +7438,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7483,7 +7478,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7523,7 +7518,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -7563,7 +7558,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -7603,7 +7598,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -7643,7 +7638,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -7683,7 +7678,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -7723,7 +7718,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -7763,7 +7758,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -7803,7 +7798,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -7843,7 +7838,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -7883,7 +7878,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -7923,7 +7918,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -7963,7 +7958,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8003,7 +7998,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8043,7 +8038,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8083,7 +8078,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8123,7 +8118,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8163,7 +8158,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8203,7 +8198,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8243,7 +8238,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8283,7 +8278,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8323,7 +8318,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8394,25 +8389,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="64" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
@@ -8438,14 +8433,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</f>
-        <v>applicant.ects_points</v>
+        <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="68" t="e">
         <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
@@ -8456,7 +8451,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8474,7 +8469,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="64" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8492,7 +8487,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="64" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8510,7 +8505,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8528,7 +8523,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8546,7 +8541,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -8564,7 +8559,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -8582,7 +8577,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -8600,7 +8595,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -8618,7 +8613,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -8636,7 +8631,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -8654,7 +8649,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -8672,7 +8667,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="64" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -8690,7 +8685,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="64" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -8708,7 +8703,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="64" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -8726,7 +8721,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="64" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -8744,7 +8739,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -8762,7 +8757,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="64" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -8780,7 +8775,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="64" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -8798,7 +8793,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="64" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -8816,7 +8811,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="64" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -8834,7 +8829,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="64" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -8852,7 +8847,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="64" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -8870,7 +8865,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="64" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -8891,21 +8886,21 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -8923,26 +8918,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
@@ -8959,7 +8954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>49</v>
       </c>
@@ -8976,7 +8971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
@@ -8993,7 +8988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>97</v>
       </c>
@@ -9008,7 +9003,7 @@
       </c>
       <c r="H4" s="72"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
@@ -9023,7 +9018,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
@@ -9038,7 +9033,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>42</v>
       </c>
@@ -9053,7 +9048,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
         <v>53</v>
       </c>
@@ -9068,7 +9063,7 @@
       </c>
       <c r="H8" s="73"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>52</v>
       </c>
@@ -9083,7 +9078,7 @@
       </c>
       <c r="H9" s="73"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="D10" s="71" t="s">
@@ -9094,7 +9089,7 @@
       </c>
       <c r="H10" s="73"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="71"/>
       <c r="B11" s="71"/>
       <c r="D11" s="71" t="s">
@@ -9105,7 +9100,7 @@
       </c>
       <c r="H11" s="73"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="D12" s="71" t="s">
@@ -9116,7 +9111,7 @@
       </c>
       <c r="H12" s="73"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -9127,7 +9122,7 @@
       </c>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -9138,7 +9133,7 @@
       </c>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -9149,7 +9144,7 @@
       </c>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71" t="s">
@@ -9160,7 +9155,7 @@
       </c>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -9169,7 +9164,7 @@
       </c>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="74"/>
       <c r="B18" s="74"/>
       <c r="D18" s="74"/>

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EC744C-D604-4E84-B294-2AC1FBE1BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E164F6-C792-41B6-9A2E-DA3F8DE3ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>attendance.sanitized_grade</t>
+  </si>
+  <si>
+    <t>Teilnahmeschein</t>
+  </si>
+  <si>
+    <t>Schein erhalten</t>
+  </si>
+  <si>
+    <t>attendance.ts_requested_str</t>
+  </si>
+  <si>
+    <t>attendance.ts_received_str</t>
   </si>
 </sst>
 </file>
@@ -793,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1085,12 +1097,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1117,9 +1142,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1425,17 +1447,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:K2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B1:K2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{D1910216-15D3-49DB-B666-966712971290}" name="Telefon" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{CC9B056A-6EAE-4DEE-AE40-9DA6626FDA5C}" name="Teilnahmeschein" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1445,21 +1469,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1753,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1768,13 +1792,15 @@
     <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
     <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" hidden="1"/>
+    <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="15" style="39" customWidth="1"/>
+    <col min="12" max="12" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1803,13 +1829,19 @@
         <v>21</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1837,8 +1869,14 @@
       <c r="I2" s="39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1846,7 +1884,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1854,7 +1892,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1862,7 +1900,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1870,7 +1908,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1878,7 +1916,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1886,7 +1924,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1894,7 +1932,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1902,7 +1940,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1910,61 +1948,61 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="41"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
-      <c r="I14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
-      <c r="I15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1973,8 +2011,10 @@
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1983,8 +2023,10 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1993,8 +2035,10 @@
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2003,28 +2047,30 @@
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2050,8 +2096,8 @@
   </sheetPr>
   <dimension ref="A1:WVX59"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2673,12 +2719,18 @@
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="35" t="str">
+        <f>RAWDATA!J2</f>
+        <v>attendance.ts_requested_str</v>
+      </c>
       <c r="J2" s="33" t="str">
         <f t="shared" ref="J2:J26" si="0">IF(E2&gt;0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="35" t="str">
+        <f>RAWDATA!K2</f>
+        <v>attendance.ts_received_str</v>
+      </c>
       <c r="L2" s="4"/>
       <c r="M2" s="22"/>
       <c r="N2" s="2" t="str">
@@ -2732,12 +2784,18 @@
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="35">
+        <f>RAWDATA!J3</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="35">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="22"/>
       <c r="N3" s="2">
@@ -2791,12 +2849,18 @@
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="35">
+        <f>RAWDATA!J4</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="35">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="4"/>
       <c r="M4" s="22"/>
       <c r="N4" s="2">
@@ -2850,12 +2914,18 @@
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="35">
+        <f>RAWDATA!J5</f>
+        <v>0</v>
+      </c>
       <c r="J5" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="35">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="22"/>
       <c r="N5" s="2">
@@ -2909,12 +2979,18 @@
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="35">
+        <f>RAWDATA!J6</f>
+        <v>0</v>
+      </c>
       <c r="J6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="35"/>
+      <c r="K6" s="35">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="22"/>
       <c r="N6" s="2">
@@ -2968,12 +3044,18 @@
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="35">
+        <f>RAWDATA!J7</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="35">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="22"/>
       <c r="N7" s="2">
@@ -3027,12 +3109,18 @@
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="35">
+        <f>RAWDATA!J8</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="35"/>
+      <c r="K8" s="35">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="22"/>
       <c r="N8" s="2">
@@ -3086,12 +3174,18 @@
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="35"/>
+      <c r="I9" s="35">
+        <f>RAWDATA!J9</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="35">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="22"/>
       <c r="N9" s="2">
@@ -3145,12 +3239,18 @@
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="35">
+        <f>RAWDATA!J10</f>
+        <v>0</v>
+      </c>
       <c r="J10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="35"/>
+      <c r="K10" s="35">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="22"/>
       <c r="N10" s="2">
@@ -3204,12 +3304,18 @@
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="35">
+        <f>RAWDATA!J11</f>
+        <v>0</v>
+      </c>
       <c r="J11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="35">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="22"/>
       <c r="N11" s="2">
@@ -3263,12 +3369,18 @@
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="35">
+        <f>RAWDATA!J12</f>
+        <v>0</v>
+      </c>
       <c r="J12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="35">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="22"/>
       <c r="N12" s="2">
@@ -3322,12 +3434,18 @@
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="35">
+        <f>RAWDATA!J13</f>
+        <v>0</v>
+      </c>
       <c r="J13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="35">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="22"/>
       <c r="N13" s="2">
@@ -3381,12 +3499,18 @@
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="35">
+        <f>RAWDATA!J14</f>
+        <v>0</v>
+      </c>
       <c r="J14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="35"/>
+      <c r="K14" s="35">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="22"/>
       <c r="N14" s="2">
@@ -3440,12 +3564,18 @@
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="35">
+        <f>RAWDATA!J15</f>
+        <v>0</v>
+      </c>
       <c r="J15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="35">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="22"/>
       <c r="N15" s="2">
@@ -3499,12 +3629,18 @@
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="35">
+        <f>RAWDATA!J16</f>
+        <v>0</v>
+      </c>
       <c r="J16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="35">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="22"/>
       <c r="N16" s="2">
@@ -3558,12 +3694,18 @@
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="35">
+        <f>RAWDATA!J17</f>
+        <v>0</v>
+      </c>
       <c r="J17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="35">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="22"/>
       <c r="N17" s="2">
@@ -3617,12 +3759,18 @@
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="35">
+        <f>RAWDATA!J18</f>
+        <v>0</v>
+      </c>
       <c r="J18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="35">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="22"/>
       <c r="N18" s="2">
@@ -3676,12 +3824,18 @@
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="35">
+        <f>RAWDATA!J19</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="35"/>
+      <c r="K19" s="35">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="22"/>
       <c r="N19" s="2">
@@ -3735,12 +3889,18 @@
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="35">
+        <f>RAWDATA!J20</f>
+        <v>0</v>
+      </c>
       <c r="J20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="35"/>
+      <c r="K20" s="35">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="22"/>
       <c r="N20" s="2">
@@ -3794,12 +3954,18 @@
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="35">
+        <f>RAWDATA!J21</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="35">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="22"/>
       <c r="N21" s="2">
@@ -3853,12 +4019,18 @@
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="35">
+        <f>RAWDATA!J22</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="35">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="22"/>
       <c r="N22" s="2">
@@ -3912,12 +4084,18 @@
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="35">
+        <f>RAWDATA!J23</f>
+        <v>0</v>
+      </c>
       <c r="J23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="35">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="22"/>
       <c r="N23" s="2">
@@ -3971,12 +4149,18 @@
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="35">
+        <f>RAWDATA!J24</f>
+        <v>0</v>
+      </c>
       <c r="J24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="35"/>
+      <c r="K24" s="35">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="22"/>
       <c r="N24" s="2">
@@ -4030,12 +4214,18 @@
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="35">
+        <f>RAWDATA!J25</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="35"/>
+      <c r="K25" s="35">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="22"/>
       <c r="N25" s="2">
@@ -4089,12 +4279,18 @@
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="35">
+        <f>RAWDATA!J26</f>
+        <v>0</v>
+      </c>
       <c r="J26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="35"/>
+      <c r="K26" s="35">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="22"/>
       <c r="N26" s="2">
@@ -5624,16 +5820,16 @@
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!J2</f>
+        <f>RAWDATA!L2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!K2</f>
+        <f>RAWDATA!M2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!I2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
         <f>IF(L4&lt;=4,"X","")</f>
@@ -5649,7 +5845,7 @@
       </c>
       <c r="N4" s="19" t="str">
         <f>UPPER(Notenliste!K2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5677,20 +5873,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!L3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!K3</f>
+        <f>RAWDATA!M3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>UPPER(Notenliste!I3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
@@ -5706,7 +5902,7 @@
       </c>
       <c r="N5" s="19" t="str">
         <f>UPPER(Notenliste!K3)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5734,20 +5930,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!L4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!K4</f>
+        <f>RAWDATA!M4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>UPPER(Notenliste!I4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5763,7 +5959,7 @@
       </c>
       <c r="N6" s="19" t="str">
         <f>UPPER(Notenliste!K4)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5791,20 +5987,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!L5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!K5</f>
+        <f>RAWDATA!M5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>UPPER(Notenliste!I5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5820,7 +6016,7 @@
       </c>
       <c r="N7" s="19" t="str">
         <f>UPPER(Notenliste!K5)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5848,20 +6044,20 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!L6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!K6</f>
+        <f>RAWDATA!M6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>UPPER(Notenliste!I6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5877,7 +6073,7 @@
       </c>
       <c r="N8" s="19" t="str">
         <f>UPPER(Notenliste!K6)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5905,20 +6101,20 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!L7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!K7</f>
+        <f>RAWDATA!M7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>UPPER(Notenliste!I7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5934,7 +6130,7 @@
       </c>
       <c r="N9" s="19" t="str">
         <f>UPPER(Notenliste!K7)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -5962,20 +6158,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!L8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!K8</f>
+        <f>RAWDATA!M8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
         <f>UPPER(Notenliste!I8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5991,7 +6187,7 @@
       </c>
       <c r="N10" s="19" t="str">
         <f>UPPER(Notenliste!K8)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6019,20 +6215,20 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!L9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!K9</f>
+        <f>RAWDATA!M9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>UPPER(Notenliste!I9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6048,7 +6244,7 @@
       </c>
       <c r="N11" s="19" t="str">
         <f>UPPER(Notenliste!K9)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6076,20 +6272,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!L10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!K10</f>
+        <f>RAWDATA!M10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>UPPER(Notenliste!I10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6105,7 +6301,7 @@
       </c>
       <c r="N12" s="19" t="str">
         <f>UPPER(Notenliste!K10)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6133,20 +6329,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!L11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!K11</f>
+        <f>RAWDATA!M11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>UPPER(Notenliste!I11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6162,7 +6358,7 @@
       </c>
       <c r="N13" s="19" t="str">
         <f>UPPER(Notenliste!K11)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6190,20 +6386,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!L12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!K12</f>
+        <f>RAWDATA!M12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>UPPER(Notenliste!I12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6219,7 +6415,7 @@
       </c>
       <c r="N14" s="19" t="str">
         <f>UPPER(Notenliste!K12)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6247,20 +6443,20 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!L13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!K13</f>
+        <f>RAWDATA!M13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>UPPER(Notenliste!I13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6276,7 +6472,7 @@
       </c>
       <c r="N15" s="19" t="str">
         <f>UPPER(Notenliste!K13)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6304,20 +6500,20 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!L14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!K14</f>
+        <f>RAWDATA!M14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>UPPER(Notenliste!I14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6333,7 +6529,7 @@
       </c>
       <c r="N16" s="19" t="str">
         <f>UPPER(Notenliste!K14)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6361,20 +6557,20 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!L15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!K15</f>
+        <f>RAWDATA!M15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>UPPER(Notenliste!I15)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6390,7 +6586,7 @@
       </c>
       <c r="N17" s="19" t="str">
         <f>UPPER(Notenliste!K15)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6418,20 +6614,20 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!L16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!K16</f>
+        <f>RAWDATA!M16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>UPPER(Notenliste!I16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6447,7 +6643,7 @@
       </c>
       <c r="N18" s="19" t="str">
         <f>UPPER(Notenliste!K16)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6475,20 +6671,20 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!L17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!K17</f>
+        <f>RAWDATA!M17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>UPPER(Notenliste!I17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6504,7 +6700,7 @@
       </c>
       <c r="N19" s="19" t="str">
         <f>UPPER(Notenliste!K17)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6532,20 +6728,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!L18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!K18</f>
+        <f>RAWDATA!M18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>UPPER(Notenliste!I18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6561,7 +6757,7 @@
       </c>
       <c r="N20" s="19" t="str">
         <f>UPPER(Notenliste!K18)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6589,20 +6785,20 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!L19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!K19</f>
+        <f>RAWDATA!M19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>UPPER(Notenliste!I19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6618,7 +6814,7 @@
       </c>
       <c r="N21" s="19" t="str">
         <f>UPPER(Notenliste!K19)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6646,20 +6842,20 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!J20</f>
+        <f>RAWDATA!L20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!K20</f>
+        <f>RAWDATA!M20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>UPPER(Notenliste!I20)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6675,7 +6871,7 @@
       </c>
       <c r="N22" s="19" t="str">
         <f>UPPER(Notenliste!K20)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6703,20 +6899,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!J21</f>
+        <f>RAWDATA!L21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!K21</f>
+        <f>RAWDATA!M21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>UPPER(Notenliste!I21)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6732,7 +6928,7 @@
       </c>
       <c r="N23" s="19" t="str">
         <f>UPPER(Notenliste!K21)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6760,20 +6956,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!J22</f>
+        <f>RAWDATA!L22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!K22</f>
+        <f>RAWDATA!M22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
         <f>UPPER(Notenliste!I22)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6789,7 +6985,7 @@
       </c>
       <c r="N24" s="19" t="str">
         <f>UPPER(Notenliste!K22)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6817,20 +7013,20 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!J23</f>
+        <f>RAWDATA!L23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!K23</f>
+        <f>RAWDATA!M23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>UPPER(Notenliste!I23)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6846,7 +7042,7 @@
       </c>
       <c r="N25" s="19" t="str">
         <f>UPPER(Notenliste!K23)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6874,20 +7070,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!J24</f>
+        <f>RAWDATA!L24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!K24</f>
+        <f>RAWDATA!M24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
         <f>UPPER(Notenliste!I24)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6903,7 +7099,7 @@
       </c>
       <c r="N26" s="19" t="str">
         <f>UPPER(Notenliste!K24)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6931,20 +7127,20 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!J25</f>
+        <f>RAWDATA!L25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!K25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
         <f>UPPER(Notenliste!I25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6960,7 +7156,7 @@
       </c>
       <c r="N27" s="19" t="str">
         <f>UPPER(Notenliste!K25)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
@@ -6988,20 +7184,20 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!J26</f>
+        <f>RAWDATA!L26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!K26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
         <f>UPPER(Notenliste!I26)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7017,7 +7213,7 @@
       </c>
       <c r="N28" s="19" t="str">
         <f>UPPER(Notenliste!K26)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E164F6-C792-41B6-9A2E-DA3F8DE3ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE34040-ABC6-4D7F-BB6A-89D7D109EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -508,6 +508,15 @@
   </si>
   <si>
     <t>attendance.ts_received_str</t>
+  </si>
+  <si>
+    <t>bestanden</t>
+  </si>
+  <si>
+    <t>attendance.hide_grade_str</t>
+  </si>
+  <si>
+    <t>bestanden statt Note</t>
   </si>
 </sst>
 </file>
@@ -805,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1046,6 +1055,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,8 +1113,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1106,16 +1126,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1142,6 +1153,18 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1447,19 +1470,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:K2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B1:K2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{D1910216-15D3-49DB-B666-966712971290}" name="Telefon" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{CC9B056A-6EAE-4DEE-AE40-9DA6626FDA5C}" name="Teilnahmeschein" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LP" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{D1910216-15D3-49DB-B666-966712971290}" name="Telefon" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B618FA26-BA39-4395-8A64-1C286D143CA7}" name="bestanden" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{CC9B056A-6EAE-4DEE-AE40-9DA6626FDA5C}" name="Teilnahmeschein" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1469,21 +1493,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="8">
-      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="5">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1777,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1793,14 +1817,15 @@
     <col min="6" max="7" width="7.109375" style="40" customWidth="1"/>
     <col min="8" max="8" width="31.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="15" style="39" customWidth="1"/>
-    <col min="12" max="12" width="45.109375" style="39" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="39" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" hidden="1"/>
+    <col min="10" max="10" width="11.33203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="15" style="39" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" style="39" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="39" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
@@ -1829,19 +1854,22 @@
         <v>21</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="L1" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1870,13 +1898,16 @@
         <v>105</v>
       </c>
       <c r="J2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1884,7 +1915,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1892,7 +1923,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1900,7 +1931,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1908,7 +1939,7 @@
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1916,7 +1947,7 @@
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1924,7 +1955,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1932,7 +1963,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1940,7 +1971,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1948,61 +1979,61 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2013,8 +2044,9 @@
       <c r="I18" s="41"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2025,8 +2057,9 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2037,8 +2070,9 @@
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2049,28 +2083,29 @@
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2094,10 +2129,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVX59"/>
+  <dimension ref="A1:WVY59"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2109,537 +2144,538 @@
     <col min="5" max="5" width="22.33203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" style="1" hidden="1"/>
-    <col min="15" max="15" width="5.109375" style="1" hidden="1"/>
-    <col min="16" max="16" width="6.6640625" style="2" hidden="1"/>
-    <col min="17" max="17" width="17.6640625" style="1" hidden="1"/>
-    <col min="18" max="18" width="16" style="1" hidden="1"/>
-    <col min="19" max="19" width="17.6640625" style="1" hidden="1"/>
-    <col min="20" max="244" width="11.44140625" style="1" hidden="1"/>
-    <col min="245" max="245" width="15.44140625" style="1" hidden="1"/>
-    <col min="246" max="246" width="11.44140625" style="1" hidden="1"/>
-    <col min="247" max="247" width="15.6640625" style="1" hidden="1"/>
-    <col min="248" max="248" width="21.6640625" style="1" hidden="1"/>
-    <col min="249" max="251" width="11.44140625" style="1" hidden="1"/>
-    <col min="252" max="252" width="16" style="1" hidden="1"/>
-    <col min="253" max="253" width="20.44140625" style="1" hidden="1"/>
-    <col min="254" max="500" width="11.44140625" style="1" hidden="1"/>
-    <col min="501" max="501" width="15.44140625" style="1" hidden="1"/>
-    <col min="502" max="502" width="11.44140625" style="1" hidden="1"/>
-    <col min="503" max="503" width="15.6640625" style="1" hidden="1"/>
-    <col min="504" max="504" width="21.6640625" style="1" hidden="1"/>
-    <col min="505" max="507" width="11.44140625" style="1" hidden="1"/>
-    <col min="508" max="508" width="16" style="1" hidden="1"/>
-    <col min="509" max="509" width="20.44140625" style="1" hidden="1"/>
-    <col min="510" max="756" width="11.44140625" style="1" hidden="1"/>
-    <col min="757" max="757" width="15.44140625" style="1" hidden="1"/>
-    <col min="758" max="758" width="11.44140625" style="1" hidden="1"/>
-    <col min="759" max="759" width="15.6640625" style="1" hidden="1"/>
-    <col min="760" max="760" width="21.6640625" style="1" hidden="1"/>
-    <col min="761" max="763" width="11.44140625" style="1" hidden="1"/>
-    <col min="764" max="764" width="16" style="1" hidden="1"/>
-    <col min="765" max="765" width="20.44140625" style="1" hidden="1"/>
-    <col min="766" max="1012" width="11.44140625" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="15.44140625" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="11.44140625" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="15.6640625" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="21.6640625" style="1" hidden="1"/>
-    <col min="1017" max="1019" width="11.44140625" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="16" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="20.44140625" style="1" hidden="1"/>
-    <col min="1022" max="1268" width="11.44140625" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="15.44140625" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="11.44140625" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="15.6640625" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="21.6640625" style="1" hidden="1"/>
-    <col min="1273" max="1275" width="11.44140625" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="16" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="20.44140625" style="1" hidden="1"/>
-    <col min="1278" max="1524" width="11.44140625" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="15.44140625" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="11.44140625" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="15.6640625" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="21.6640625" style="1" hidden="1"/>
-    <col min="1529" max="1531" width="11.44140625" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="16" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="20.44140625" style="1" hidden="1"/>
-    <col min="1534" max="1780" width="11.44140625" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="15.44140625" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="11.44140625" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="15.6640625" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="21.6640625" style="1" hidden="1"/>
-    <col min="1785" max="1787" width="11.44140625" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="16" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="20.44140625" style="1" hidden="1"/>
-    <col min="1790" max="2036" width="11.44140625" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="15.44140625" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="11.44140625" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="15.6640625" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="21.6640625" style="1" hidden="1"/>
-    <col min="2041" max="2043" width="11.44140625" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="16" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="20.44140625" style="1" hidden="1"/>
-    <col min="2046" max="2292" width="11.44140625" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="15.44140625" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="11.44140625" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="15.6640625" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="21.6640625" style="1" hidden="1"/>
-    <col min="2297" max="2299" width="11.44140625" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="16" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="20.44140625" style="1" hidden="1"/>
-    <col min="2302" max="2548" width="11.44140625" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="15.44140625" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="11.44140625" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="15.6640625" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="21.6640625" style="1" hidden="1"/>
-    <col min="2553" max="2555" width="11.44140625" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="16" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="20.44140625" style="1" hidden="1"/>
-    <col min="2558" max="2804" width="11.44140625" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="15.44140625" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="11.44140625" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="15.6640625" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="21.6640625" style="1" hidden="1"/>
-    <col min="2809" max="2811" width="11.44140625" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="16" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="20.44140625" style="1" hidden="1"/>
-    <col min="2814" max="3060" width="11.44140625" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="15.44140625" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="11.44140625" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="15.6640625" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="21.6640625" style="1" hidden="1"/>
-    <col min="3065" max="3067" width="11.44140625" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="16" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="20.44140625" style="1" hidden="1"/>
-    <col min="3070" max="3316" width="11.44140625" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="15.44140625" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="11.44140625" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="15.6640625" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="21.6640625" style="1" hidden="1"/>
-    <col min="3321" max="3323" width="11.44140625" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="16" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="20.44140625" style="1" hidden="1"/>
-    <col min="3326" max="3572" width="11.44140625" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="15.44140625" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="11.44140625" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="15.6640625" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="21.6640625" style="1" hidden="1"/>
-    <col min="3577" max="3579" width="11.44140625" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="16" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="20.44140625" style="1" hidden="1"/>
-    <col min="3582" max="3828" width="11.44140625" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="15.44140625" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="11.44140625" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="15.6640625" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="21.6640625" style="1" hidden="1"/>
-    <col min="3833" max="3835" width="11.44140625" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="16" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="20.44140625" style="1" hidden="1"/>
-    <col min="3838" max="4084" width="11.44140625" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="15.44140625" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="11.44140625" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="15.6640625" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="21.6640625" style="1" hidden="1"/>
-    <col min="4089" max="4091" width="11.44140625" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="16" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="20.44140625" style="1" hidden="1"/>
-    <col min="4094" max="4340" width="11.44140625" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="15.44140625" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="11.44140625" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="15.6640625" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="21.6640625" style="1" hidden="1"/>
-    <col min="4345" max="4347" width="11.44140625" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="16" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="20.44140625" style="1" hidden="1"/>
-    <col min="4350" max="4596" width="11.44140625" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="15.44140625" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="11.44140625" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="15.6640625" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="21.6640625" style="1" hidden="1"/>
-    <col min="4601" max="4603" width="11.44140625" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="16" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="20.44140625" style="1" hidden="1"/>
-    <col min="4606" max="4852" width="11.44140625" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="15.44140625" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="11.44140625" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="15.6640625" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="21.6640625" style="1" hidden="1"/>
-    <col min="4857" max="4859" width="11.44140625" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="16" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="20.44140625" style="1" hidden="1"/>
-    <col min="4862" max="5108" width="11.44140625" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="15.44140625" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="11.44140625" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="15.6640625" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="21.6640625" style="1" hidden="1"/>
-    <col min="5113" max="5115" width="11.44140625" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="16" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="20.44140625" style="1" hidden="1"/>
-    <col min="5118" max="5364" width="11.44140625" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="15.44140625" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="11.44140625" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="15.6640625" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="21.6640625" style="1" hidden="1"/>
-    <col min="5369" max="5371" width="11.44140625" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="16" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="20.44140625" style="1" hidden="1"/>
-    <col min="5374" max="5620" width="11.44140625" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="15.44140625" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="11.44140625" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="15.6640625" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="21.6640625" style="1" hidden="1"/>
-    <col min="5625" max="5627" width="11.44140625" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="16" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="20.44140625" style="1" hidden="1"/>
-    <col min="5630" max="5876" width="11.44140625" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="15.44140625" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="11.44140625" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="15.6640625" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="21.6640625" style="1" hidden="1"/>
-    <col min="5881" max="5883" width="11.44140625" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="16" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="20.44140625" style="1" hidden="1"/>
-    <col min="5886" max="6132" width="11.44140625" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="15.44140625" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="11.44140625" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="15.6640625" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="21.6640625" style="1" hidden="1"/>
-    <col min="6137" max="6139" width="11.44140625" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="16" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="20.44140625" style="1" hidden="1"/>
-    <col min="6142" max="6388" width="11.44140625" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="15.44140625" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="11.44140625" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="15.6640625" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="21.6640625" style="1" hidden="1"/>
-    <col min="6393" max="6395" width="11.44140625" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="16" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="20.44140625" style="1" hidden="1"/>
-    <col min="6398" max="6644" width="11.44140625" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="15.44140625" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="11.44140625" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="15.6640625" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="21.6640625" style="1" hidden="1"/>
-    <col min="6649" max="6651" width="11.44140625" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="16" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="20.44140625" style="1" hidden="1"/>
-    <col min="6654" max="6900" width="11.44140625" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="15.44140625" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="11.44140625" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="15.6640625" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="21.6640625" style="1" hidden="1"/>
-    <col min="6905" max="6907" width="11.44140625" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="16" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="20.44140625" style="1" hidden="1"/>
-    <col min="6910" max="7156" width="11.44140625" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="15.44140625" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="11.44140625" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="15.6640625" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="21.6640625" style="1" hidden="1"/>
-    <col min="7161" max="7163" width="11.44140625" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="16" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="20.44140625" style="1" hidden="1"/>
-    <col min="7166" max="7412" width="11.44140625" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="15.44140625" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="11.44140625" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="15.6640625" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="21.6640625" style="1" hidden="1"/>
-    <col min="7417" max="7419" width="11.44140625" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="16" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="20.44140625" style="1" hidden="1"/>
-    <col min="7422" max="7668" width="11.44140625" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="15.44140625" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="11.44140625" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="15.6640625" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="21.6640625" style="1" hidden="1"/>
-    <col min="7673" max="7675" width="11.44140625" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="16" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="20.44140625" style="1" hidden="1"/>
-    <col min="7678" max="7924" width="11.44140625" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="15.44140625" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="11.44140625" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="15.6640625" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="21.6640625" style="1" hidden="1"/>
-    <col min="7929" max="7931" width="11.44140625" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="16" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="20.44140625" style="1" hidden="1"/>
-    <col min="7934" max="8180" width="11.44140625" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="15.44140625" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="11.44140625" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="15.6640625" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="21.6640625" style="1" hidden="1"/>
-    <col min="8185" max="8187" width="11.44140625" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="16" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="20.44140625" style="1" hidden="1"/>
-    <col min="8190" max="8436" width="11.44140625" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="15.44140625" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="11.44140625" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="15.6640625" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="21.6640625" style="1" hidden="1"/>
-    <col min="8441" max="8443" width="11.44140625" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="16" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="20.44140625" style="1" hidden="1"/>
-    <col min="8446" max="8692" width="11.44140625" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="15.44140625" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="11.44140625" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="15.6640625" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="21.6640625" style="1" hidden="1"/>
-    <col min="8697" max="8699" width="11.44140625" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="16" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="20.44140625" style="1" hidden="1"/>
-    <col min="8702" max="8948" width="11.44140625" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="15.44140625" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="11.44140625" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="15.6640625" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="21.6640625" style="1" hidden="1"/>
-    <col min="8953" max="8955" width="11.44140625" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="16" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="20.44140625" style="1" hidden="1"/>
-    <col min="8958" max="9204" width="11.44140625" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="15.44140625" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="11.44140625" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="15.6640625" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="21.6640625" style="1" hidden="1"/>
-    <col min="9209" max="9211" width="11.44140625" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="16" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="20.44140625" style="1" hidden="1"/>
-    <col min="9214" max="9460" width="11.44140625" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="15.44140625" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="11.44140625" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="15.6640625" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="21.6640625" style="1" hidden="1"/>
-    <col min="9465" max="9467" width="11.44140625" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="16" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="20.44140625" style="1" hidden="1"/>
-    <col min="9470" max="9716" width="11.44140625" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="15.44140625" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="11.44140625" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="15.6640625" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="21.6640625" style="1" hidden="1"/>
-    <col min="9721" max="9723" width="11.44140625" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="16" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="20.44140625" style="1" hidden="1"/>
-    <col min="9726" max="9972" width="11.44140625" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="15.44140625" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="11.44140625" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="15.6640625" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="21.6640625" style="1" hidden="1"/>
-    <col min="9977" max="9979" width="11.44140625" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="16" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="20.44140625" style="1" hidden="1"/>
-    <col min="9982" max="10228" width="11.44140625" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="15.44140625" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="11.44140625" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="15.6640625" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="21.6640625" style="1" hidden="1"/>
-    <col min="10233" max="10235" width="11.44140625" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="16" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="20.44140625" style="1" hidden="1"/>
-    <col min="10238" max="10484" width="11.44140625" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="15.44140625" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="11.44140625" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="15.6640625" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="21.6640625" style="1" hidden="1"/>
-    <col min="10489" max="10491" width="11.44140625" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="16" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="20.44140625" style="1" hidden="1"/>
-    <col min="10494" max="10740" width="11.44140625" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="15.44140625" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="11.44140625" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="15.6640625" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="21.6640625" style="1" hidden="1"/>
-    <col min="10745" max="10747" width="11.44140625" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="16" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="20.44140625" style="1" hidden="1"/>
-    <col min="10750" max="10996" width="11.44140625" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="15.44140625" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="11.44140625" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="15.6640625" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="21.6640625" style="1" hidden="1"/>
-    <col min="11001" max="11003" width="11.44140625" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="16" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="20.44140625" style="1" hidden="1"/>
-    <col min="11006" max="11252" width="11.44140625" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="15.44140625" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="11.44140625" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="15.6640625" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="21.6640625" style="1" hidden="1"/>
-    <col min="11257" max="11259" width="11.44140625" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="16" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="20.44140625" style="1" hidden="1"/>
-    <col min="11262" max="11508" width="11.44140625" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="15.44140625" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="11.44140625" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="15.6640625" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="21.6640625" style="1" hidden="1"/>
-    <col min="11513" max="11515" width="11.44140625" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="16" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="20.44140625" style="1" hidden="1"/>
-    <col min="11518" max="11764" width="11.44140625" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="15.44140625" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="11.44140625" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="15.6640625" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="21.6640625" style="1" hidden="1"/>
-    <col min="11769" max="11771" width="11.44140625" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="16" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="20.44140625" style="1" hidden="1"/>
-    <col min="11774" max="12020" width="11.44140625" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="15.44140625" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="11.44140625" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="15.6640625" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="21.6640625" style="1" hidden="1"/>
-    <col min="12025" max="12027" width="11.44140625" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="16" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="20.44140625" style="1" hidden="1"/>
-    <col min="12030" max="12276" width="11.44140625" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="15.44140625" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="11.44140625" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="15.6640625" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="21.6640625" style="1" hidden="1"/>
-    <col min="12281" max="12283" width="11.44140625" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="16" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="20.44140625" style="1" hidden="1"/>
-    <col min="12286" max="12532" width="11.44140625" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="15.44140625" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="11.44140625" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="15.6640625" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="21.6640625" style="1" hidden="1"/>
-    <col min="12537" max="12539" width="11.44140625" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="16" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="20.44140625" style="1" hidden="1"/>
-    <col min="12542" max="12788" width="11.44140625" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="15.44140625" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="11.44140625" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="15.6640625" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="21.6640625" style="1" hidden="1"/>
-    <col min="12793" max="12795" width="11.44140625" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="16" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="20.44140625" style="1" hidden="1"/>
-    <col min="12798" max="13044" width="11.44140625" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="15.44140625" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="11.44140625" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="15.6640625" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="21.6640625" style="1" hidden="1"/>
-    <col min="13049" max="13051" width="11.44140625" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="16" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="20.44140625" style="1" hidden="1"/>
-    <col min="13054" max="13300" width="11.44140625" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="15.44140625" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="11.44140625" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="15.6640625" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="21.6640625" style="1" hidden="1"/>
-    <col min="13305" max="13307" width="11.44140625" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="16" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="20.44140625" style="1" hidden="1"/>
-    <col min="13310" max="13556" width="11.44140625" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="15.44140625" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="11.44140625" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="15.6640625" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="21.6640625" style="1" hidden="1"/>
-    <col min="13561" max="13563" width="11.44140625" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="16" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="20.44140625" style="1" hidden="1"/>
-    <col min="13566" max="13812" width="11.44140625" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="15.44140625" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="11.44140625" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="15.6640625" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="21.6640625" style="1" hidden="1"/>
-    <col min="13817" max="13819" width="11.44140625" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="16" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="20.44140625" style="1" hidden="1"/>
-    <col min="13822" max="14068" width="11.44140625" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="15.44140625" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="11.44140625" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="15.6640625" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="21.6640625" style="1" hidden="1"/>
-    <col min="14073" max="14075" width="11.44140625" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="16" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="20.44140625" style="1" hidden="1"/>
-    <col min="14078" max="14324" width="11.44140625" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="15.44140625" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="11.44140625" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="15.6640625" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="21.6640625" style="1" hidden="1"/>
-    <col min="14329" max="14331" width="11.44140625" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="16" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="20.44140625" style="1" hidden="1"/>
-    <col min="14334" max="14580" width="11.44140625" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="15.44140625" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="11.44140625" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="15.6640625" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="21.6640625" style="1" hidden="1"/>
-    <col min="14585" max="14587" width="11.44140625" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="16" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="20.44140625" style="1" hidden="1"/>
-    <col min="14590" max="14836" width="11.44140625" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="15.44140625" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="11.44140625" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="15.6640625" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="21.6640625" style="1" hidden="1"/>
-    <col min="14841" max="14843" width="11.44140625" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="16" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="20.44140625" style="1" hidden="1"/>
-    <col min="14846" max="15092" width="11.44140625" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="15.44140625" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="11.44140625" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="15.6640625" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="21.6640625" style="1" hidden="1"/>
-    <col min="15097" max="15099" width="11.44140625" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="16" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="20.44140625" style="1" hidden="1"/>
-    <col min="15102" max="15348" width="11.44140625" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="15.44140625" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="11.44140625" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="15.6640625" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="21.6640625" style="1" hidden="1"/>
-    <col min="15353" max="15355" width="11.44140625" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="16" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="20.44140625" style="1" hidden="1"/>
-    <col min="15358" max="15604" width="11.44140625" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="15.44140625" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="11.44140625" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="15.6640625" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="21.6640625" style="1" hidden="1"/>
-    <col min="15609" max="15611" width="11.44140625" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="16" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="20.44140625" style="1" hidden="1"/>
-    <col min="15614" max="15860" width="11.44140625" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="15.44140625" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="11.44140625" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="15.6640625" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="21.6640625" style="1" hidden="1"/>
-    <col min="15865" max="15867" width="11.44140625" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="16" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="20.44140625" style="1" hidden="1"/>
-    <col min="15870" max="16116" width="11.44140625" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="15.44140625" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="11.44140625" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="15.6640625" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="21.6640625" style="1" hidden="1"/>
-    <col min="16121" max="16123" width="11.44140625" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="16" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="20.44140625" style="1" hidden="1"/>
-    <col min="16126" max="16128" width="11.44140625" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="15.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="11.44140625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="15.6640625" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="21.6640625" style="1" hidden="1"/>
-    <col min="16133" max="16135" width="11.44140625" style="1" hidden="1"/>
-    <col min="16136" max="16136" width="16" style="1" hidden="1"/>
-    <col min="16137" max="16138" width="20.44140625" style="1" hidden="1"/>
-    <col min="16139" max="16140" width="11.44140625" style="1" hidden="1"/>
-    <col min="16141" max="16141" width="16" style="1" hidden="1"/>
-    <col min="16142" max="16144" width="20.44140625" style="1" hidden="1"/>
-    <col min="16145" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.109375" style="1" hidden="1"/>
+    <col min="17" max="17" width="6.6640625" style="2" hidden="1"/>
+    <col min="18" max="18" width="17.6640625" style="1" hidden="1"/>
+    <col min="19" max="19" width="16" style="1" hidden="1"/>
+    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
+    <col min="21" max="245" width="11.44140625" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.44140625" style="1" hidden="1"/>
+    <col min="247" max="247" width="11.44140625" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.6640625" style="1" hidden="1"/>
+    <col min="249" max="249" width="21.6640625" style="1" hidden="1"/>
+    <col min="250" max="252" width="11.44140625" style="1" hidden="1"/>
+    <col min="253" max="253" width="16" style="1" hidden="1"/>
+    <col min="254" max="254" width="20.44140625" style="1" hidden="1"/>
+    <col min="255" max="501" width="11.44140625" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.44140625" style="1" hidden="1"/>
+    <col min="503" max="503" width="11.44140625" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.6640625" style="1" hidden="1"/>
+    <col min="505" max="505" width="21.6640625" style="1" hidden="1"/>
+    <col min="506" max="508" width="11.44140625" style="1" hidden="1"/>
+    <col min="509" max="509" width="16" style="1" hidden="1"/>
+    <col min="510" max="510" width="20.44140625" style="1" hidden="1"/>
+    <col min="511" max="757" width="11.44140625" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.44140625" style="1" hidden="1"/>
+    <col min="759" max="759" width="11.44140625" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.6640625" style="1" hidden="1"/>
+    <col min="761" max="761" width="21.6640625" style="1" hidden="1"/>
+    <col min="762" max="764" width="11.44140625" style="1" hidden="1"/>
+    <col min="765" max="765" width="16" style="1" hidden="1"/>
+    <col min="766" max="766" width="20.44140625" style="1" hidden="1"/>
+    <col min="767" max="1013" width="11.44140625" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.44140625" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="11.44140625" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.6640625" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="21.6640625" style="1" hidden="1"/>
+    <col min="1018" max="1020" width="11.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="16" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="20.44140625" style="1" hidden="1"/>
+    <col min="1023" max="1269" width="11.44140625" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.44140625" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="11.44140625" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.6640625" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="21.6640625" style="1" hidden="1"/>
+    <col min="1274" max="1276" width="11.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="16" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="20.44140625" style="1" hidden="1"/>
+    <col min="1279" max="1525" width="11.44140625" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.44140625" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="11.44140625" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.6640625" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="21.6640625" style="1" hidden="1"/>
+    <col min="1530" max="1532" width="11.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="16" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="20.44140625" style="1" hidden="1"/>
+    <col min="1535" max="1781" width="11.44140625" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.44140625" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="11.44140625" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.6640625" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="21.6640625" style="1" hidden="1"/>
+    <col min="1786" max="1788" width="11.44140625" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="16" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="20.44140625" style="1" hidden="1"/>
+    <col min="1791" max="2037" width="11.44140625" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.44140625" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="11.44140625" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.6640625" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="21.6640625" style="1" hidden="1"/>
+    <col min="2042" max="2044" width="11.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="16" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="20.44140625" style="1" hidden="1"/>
+    <col min="2047" max="2293" width="11.44140625" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.44140625" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="11.44140625" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.6640625" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="21.6640625" style="1" hidden="1"/>
+    <col min="2298" max="2300" width="11.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="16" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="20.44140625" style="1" hidden="1"/>
+    <col min="2303" max="2549" width="11.44140625" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.44140625" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="11.44140625" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.6640625" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="21.6640625" style="1" hidden="1"/>
+    <col min="2554" max="2556" width="11.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="16" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="20.44140625" style="1" hidden="1"/>
+    <col min="2559" max="2805" width="11.44140625" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.44140625" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="11.44140625" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.6640625" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="21.6640625" style="1" hidden="1"/>
+    <col min="2810" max="2812" width="11.44140625" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="16" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="20.44140625" style="1" hidden="1"/>
+    <col min="2815" max="3061" width="11.44140625" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.44140625" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="11.44140625" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.6640625" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="21.6640625" style="1" hidden="1"/>
+    <col min="3066" max="3068" width="11.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="16" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="20.44140625" style="1" hidden="1"/>
+    <col min="3071" max="3317" width="11.44140625" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.44140625" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="11.44140625" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.6640625" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="21.6640625" style="1" hidden="1"/>
+    <col min="3322" max="3324" width="11.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="16" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="20.44140625" style="1" hidden="1"/>
+    <col min="3327" max="3573" width="11.44140625" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.44140625" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="11.44140625" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.6640625" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="21.6640625" style="1" hidden="1"/>
+    <col min="3578" max="3580" width="11.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="16" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="20.44140625" style="1" hidden="1"/>
+    <col min="3583" max="3829" width="11.44140625" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.44140625" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="11.44140625" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.6640625" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="21.6640625" style="1" hidden="1"/>
+    <col min="3834" max="3836" width="11.44140625" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="16" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="20.44140625" style="1" hidden="1"/>
+    <col min="3839" max="4085" width="11.44140625" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.44140625" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="11.44140625" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.6640625" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="21.6640625" style="1" hidden="1"/>
+    <col min="4090" max="4092" width="11.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="16" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="20.44140625" style="1" hidden="1"/>
+    <col min="4095" max="4341" width="11.44140625" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.44140625" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="11.44140625" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.6640625" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="21.6640625" style="1" hidden="1"/>
+    <col min="4346" max="4348" width="11.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="16" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="20.44140625" style="1" hidden="1"/>
+    <col min="4351" max="4597" width="11.44140625" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.44140625" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="11.44140625" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.6640625" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="21.6640625" style="1" hidden="1"/>
+    <col min="4602" max="4604" width="11.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="16" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="20.44140625" style="1" hidden="1"/>
+    <col min="4607" max="4853" width="11.44140625" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.44140625" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="11.44140625" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.6640625" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="21.6640625" style="1" hidden="1"/>
+    <col min="4858" max="4860" width="11.44140625" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="16" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="20.44140625" style="1" hidden="1"/>
+    <col min="4863" max="5109" width="11.44140625" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.44140625" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="11.44140625" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.6640625" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="21.6640625" style="1" hidden="1"/>
+    <col min="5114" max="5116" width="11.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="16" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="20.44140625" style="1" hidden="1"/>
+    <col min="5119" max="5365" width="11.44140625" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.44140625" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="11.44140625" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.6640625" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="21.6640625" style="1" hidden="1"/>
+    <col min="5370" max="5372" width="11.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="16" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="20.44140625" style="1" hidden="1"/>
+    <col min="5375" max="5621" width="11.44140625" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.44140625" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="11.44140625" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.6640625" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="21.6640625" style="1" hidden="1"/>
+    <col min="5626" max="5628" width="11.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="16" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="20.44140625" style="1" hidden="1"/>
+    <col min="5631" max="5877" width="11.44140625" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.44140625" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="11.44140625" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.6640625" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="21.6640625" style="1" hidden="1"/>
+    <col min="5882" max="5884" width="11.44140625" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="16" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="20.44140625" style="1" hidden="1"/>
+    <col min="5887" max="6133" width="11.44140625" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.44140625" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="11.44140625" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.6640625" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="21.6640625" style="1" hidden="1"/>
+    <col min="6138" max="6140" width="11.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="16" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="20.44140625" style="1" hidden="1"/>
+    <col min="6143" max="6389" width="11.44140625" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.44140625" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="11.44140625" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.6640625" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="21.6640625" style="1" hidden="1"/>
+    <col min="6394" max="6396" width="11.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="16" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="20.44140625" style="1" hidden="1"/>
+    <col min="6399" max="6645" width="11.44140625" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.44140625" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="11.44140625" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.6640625" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="21.6640625" style="1" hidden="1"/>
+    <col min="6650" max="6652" width="11.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="16" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="20.44140625" style="1" hidden="1"/>
+    <col min="6655" max="6901" width="11.44140625" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.44140625" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="11.44140625" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.6640625" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="21.6640625" style="1" hidden="1"/>
+    <col min="6906" max="6908" width="11.44140625" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="16" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="20.44140625" style="1" hidden="1"/>
+    <col min="6911" max="7157" width="11.44140625" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.44140625" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="11.44140625" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.6640625" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="21.6640625" style="1" hidden="1"/>
+    <col min="7162" max="7164" width="11.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="16" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="20.44140625" style="1" hidden="1"/>
+    <col min="7167" max="7413" width="11.44140625" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.44140625" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="11.44140625" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.6640625" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="21.6640625" style="1" hidden="1"/>
+    <col min="7418" max="7420" width="11.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="16" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="20.44140625" style="1" hidden="1"/>
+    <col min="7423" max="7669" width="11.44140625" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.44140625" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="11.44140625" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.6640625" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="21.6640625" style="1" hidden="1"/>
+    <col min="7674" max="7676" width="11.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="16" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="20.44140625" style="1" hidden="1"/>
+    <col min="7679" max="7925" width="11.44140625" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.44140625" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="11.44140625" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.6640625" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="21.6640625" style="1" hidden="1"/>
+    <col min="7930" max="7932" width="11.44140625" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="16" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="20.44140625" style="1" hidden="1"/>
+    <col min="7935" max="8181" width="11.44140625" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.44140625" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="11.44140625" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.6640625" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="21.6640625" style="1" hidden="1"/>
+    <col min="8186" max="8188" width="11.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="16" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="20.44140625" style="1" hidden="1"/>
+    <col min="8191" max="8437" width="11.44140625" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.44140625" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="11.44140625" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.6640625" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="21.6640625" style="1" hidden="1"/>
+    <col min="8442" max="8444" width="11.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="16" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="20.44140625" style="1" hidden="1"/>
+    <col min="8447" max="8693" width="11.44140625" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.44140625" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="11.44140625" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.6640625" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="21.6640625" style="1" hidden="1"/>
+    <col min="8698" max="8700" width="11.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="16" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="20.44140625" style="1" hidden="1"/>
+    <col min="8703" max="8949" width="11.44140625" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.44140625" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="11.44140625" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.6640625" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="21.6640625" style="1" hidden="1"/>
+    <col min="8954" max="8956" width="11.44140625" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="16" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="20.44140625" style="1" hidden="1"/>
+    <col min="8959" max="9205" width="11.44140625" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.44140625" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="11.44140625" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.6640625" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="21.6640625" style="1" hidden="1"/>
+    <col min="9210" max="9212" width="11.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="16" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="20.44140625" style="1" hidden="1"/>
+    <col min="9215" max="9461" width="11.44140625" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.44140625" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="11.44140625" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.6640625" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="21.6640625" style="1" hidden="1"/>
+    <col min="9466" max="9468" width="11.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="16" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="20.44140625" style="1" hidden="1"/>
+    <col min="9471" max="9717" width="11.44140625" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.44140625" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="11.44140625" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.6640625" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="21.6640625" style="1" hidden="1"/>
+    <col min="9722" max="9724" width="11.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="16" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="20.44140625" style="1" hidden="1"/>
+    <col min="9727" max="9973" width="11.44140625" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.44140625" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="11.44140625" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.6640625" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="21.6640625" style="1" hidden="1"/>
+    <col min="9978" max="9980" width="11.44140625" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="16" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="20.44140625" style="1" hidden="1"/>
+    <col min="9983" max="10229" width="11.44140625" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.44140625" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="11.44140625" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.6640625" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="21.6640625" style="1" hidden="1"/>
+    <col min="10234" max="10236" width="11.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="16" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="20.44140625" style="1" hidden="1"/>
+    <col min="10239" max="10485" width="11.44140625" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.44140625" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="11.44140625" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.6640625" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="21.6640625" style="1" hidden="1"/>
+    <col min="10490" max="10492" width="11.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="16" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="20.44140625" style="1" hidden="1"/>
+    <col min="10495" max="10741" width="11.44140625" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.44140625" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="11.44140625" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.6640625" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="21.6640625" style="1" hidden="1"/>
+    <col min="10746" max="10748" width="11.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="16" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="20.44140625" style="1" hidden="1"/>
+    <col min="10751" max="10997" width="11.44140625" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.44140625" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="11.44140625" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.6640625" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="21.6640625" style="1" hidden="1"/>
+    <col min="11002" max="11004" width="11.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="16" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="20.44140625" style="1" hidden="1"/>
+    <col min="11007" max="11253" width="11.44140625" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.44140625" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="11.44140625" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.6640625" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="21.6640625" style="1" hidden="1"/>
+    <col min="11258" max="11260" width="11.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="16" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="20.44140625" style="1" hidden="1"/>
+    <col min="11263" max="11509" width="11.44140625" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.44140625" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="11.44140625" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.6640625" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="21.6640625" style="1" hidden="1"/>
+    <col min="11514" max="11516" width="11.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="16" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="20.44140625" style="1" hidden="1"/>
+    <col min="11519" max="11765" width="11.44140625" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.44140625" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="11.44140625" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.6640625" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="21.6640625" style="1" hidden="1"/>
+    <col min="11770" max="11772" width="11.44140625" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="16" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="20.44140625" style="1" hidden="1"/>
+    <col min="11775" max="12021" width="11.44140625" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.44140625" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="11.44140625" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.6640625" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="21.6640625" style="1" hidden="1"/>
+    <col min="12026" max="12028" width="11.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="16" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="20.44140625" style="1" hidden="1"/>
+    <col min="12031" max="12277" width="11.44140625" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.44140625" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="11.44140625" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.6640625" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="21.6640625" style="1" hidden="1"/>
+    <col min="12282" max="12284" width="11.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="16" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="20.44140625" style="1" hidden="1"/>
+    <col min="12287" max="12533" width="11.44140625" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.44140625" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="11.44140625" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.6640625" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="21.6640625" style="1" hidden="1"/>
+    <col min="12538" max="12540" width="11.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="16" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="20.44140625" style="1" hidden="1"/>
+    <col min="12543" max="12789" width="11.44140625" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.44140625" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="11.44140625" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.6640625" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="21.6640625" style="1" hidden="1"/>
+    <col min="12794" max="12796" width="11.44140625" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="16" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="20.44140625" style="1" hidden="1"/>
+    <col min="12799" max="13045" width="11.44140625" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.44140625" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="11.44140625" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.6640625" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="21.6640625" style="1" hidden="1"/>
+    <col min="13050" max="13052" width="11.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="16" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="20.44140625" style="1" hidden="1"/>
+    <col min="13055" max="13301" width="11.44140625" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.44140625" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="11.44140625" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.6640625" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="21.6640625" style="1" hidden="1"/>
+    <col min="13306" max="13308" width="11.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="16" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="20.44140625" style="1" hidden="1"/>
+    <col min="13311" max="13557" width="11.44140625" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.44140625" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="11.44140625" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.6640625" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="21.6640625" style="1" hidden="1"/>
+    <col min="13562" max="13564" width="11.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="16" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="20.44140625" style="1" hidden="1"/>
+    <col min="13567" max="13813" width="11.44140625" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.44140625" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="11.44140625" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.6640625" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="21.6640625" style="1" hidden="1"/>
+    <col min="13818" max="13820" width="11.44140625" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="16" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="20.44140625" style="1" hidden="1"/>
+    <col min="13823" max="14069" width="11.44140625" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.44140625" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="11.44140625" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.6640625" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="21.6640625" style="1" hidden="1"/>
+    <col min="14074" max="14076" width="11.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="16" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="20.44140625" style="1" hidden="1"/>
+    <col min="14079" max="14325" width="11.44140625" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.44140625" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="11.44140625" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.6640625" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="21.6640625" style="1" hidden="1"/>
+    <col min="14330" max="14332" width="11.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="16" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="20.44140625" style="1" hidden="1"/>
+    <col min="14335" max="14581" width="11.44140625" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.44140625" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="11.44140625" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.6640625" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="21.6640625" style="1" hidden="1"/>
+    <col min="14586" max="14588" width="11.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="16" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="20.44140625" style="1" hidden="1"/>
+    <col min="14591" max="14837" width="11.44140625" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.44140625" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="11.44140625" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.6640625" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="21.6640625" style="1" hidden="1"/>
+    <col min="14842" max="14844" width="11.44140625" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="16" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="20.44140625" style="1" hidden="1"/>
+    <col min="14847" max="15093" width="11.44140625" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.44140625" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="11.44140625" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.6640625" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="21.6640625" style="1" hidden="1"/>
+    <col min="15098" max="15100" width="11.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="16" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="20.44140625" style="1" hidden="1"/>
+    <col min="15103" max="15349" width="11.44140625" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.44140625" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="11.44140625" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.6640625" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="21.6640625" style="1" hidden="1"/>
+    <col min="15354" max="15356" width="11.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="16" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="20.44140625" style="1" hidden="1"/>
+    <col min="15359" max="15605" width="11.44140625" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.44140625" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="11.44140625" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.6640625" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="21.6640625" style="1" hidden="1"/>
+    <col min="15610" max="15612" width="11.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="16" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="20.44140625" style="1" hidden="1"/>
+    <col min="15615" max="15861" width="11.44140625" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.44140625" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="11.44140625" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.6640625" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="21.6640625" style="1" hidden="1"/>
+    <col min="15866" max="15868" width="11.44140625" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="16" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="20.44140625" style="1" hidden="1"/>
+    <col min="15871" max="16117" width="11.44140625" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.44140625" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="11.44140625" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.6640625" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="21.6640625" style="1" hidden="1"/>
+    <col min="16122" max="16124" width="11.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="16" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="20.44140625" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="15.6640625" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="21.6640625" style="1" hidden="1"/>
+    <col min="16134" max="16136" width="11.44140625" style="1" hidden="1"/>
+    <col min="16137" max="16137" width="16" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="20.44140625" style="1" hidden="1"/>
+    <col min="16140" max="16141" width="11.44140625" style="1" hidden="1"/>
+    <col min="16142" max="16142" width="16" style="1" hidden="1"/>
+    <col min="16143" max="16145" width="20.44140625" style="1" hidden="1"/>
+    <col min="16146" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2660,36 +2696,39 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2715,46 +2754,50 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="33" t="str">
+      <c r="H2" s="107" t="str">
+        <f>RAWDATA!J2</f>
+        <v>attendance.hide_grade_str</v>
+      </c>
+      <c r="I2" s="106" t="str">
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="I2" s="35" t="str">
-        <f>RAWDATA!J2</f>
+      <c r="J2" s="35" t="str">
+        <f>RAWDATA!K2</f>
         <v>attendance.ts_requested_str</v>
       </c>
-      <c r="J2" s="33" t="str">
-        <f t="shared" ref="J2:J26" si="0">IF(E2&gt;0,"X","")</f>
+      <c r="K2" s="33" t="str">
+        <f t="shared" ref="K2:K26" si="0">IF(E2&gt;0,"X","")</f>
         <v>X</v>
       </c>
-      <c r="K2" s="35" t="str">
-        <f>RAWDATA!K2</f>
+      <c r="L2" s="35" t="str">
+        <f>RAWDATA!L2</f>
         <v>attendance.ts_received_str</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="2" t="str">
+      <c r="M2" s="4"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="2" t="str">
         <f>IF(E2&gt;0,$B$33,0)</f>
         <v>course.ects_points</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="P2" s="2" t="str">
         <f>IF(E2&gt;0,$B$32,0)</f>
         <v>course.ger</v>
       </c>
-      <c r="P2" s="11" t="e">
+      <c r="Q2" s="11" t="e">
         <f>IF(E2&gt;0,$F$28,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="R2" s="1" t="str">
         <f>IF(E2&gt;0,$B$34,0)</f>
         <v>course.name</v>
       </c>
-      <c r="R2" s="1" t="str">
+      <c r="S2" s="1" t="str">
         <f>IF(E2&gt;0,$B$31,0)</f>
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2780,46 +2823,50 @@
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="33">
+      <c r="H3" s="107">
+        <f>RAWDATA!J3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="106">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="35">
-        <f>RAWDATA!J3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="33" t="str">
+      <c r="J3" s="35">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K3" s="35">
-        <f>RAWDATA!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N26" si="1">IF(E3&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L3" s="35">
+        <f>RAWDATA!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O26" si="2">IF(E3&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <f t="shared" ref="P3:P26" si="3">IF(E3&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q26" si="4">IF(E3&gt;0,$B$34,0)</f>
+        <f t="shared" ref="O3:O26" si="1">IF(E3&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P26" si="2">IF(E3&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q26" si="3">IF(E3&gt;0,$F$28,0)</f>
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R26" si="5">IF(E3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R3:R26" si="4">IF(E3&gt;0,$B$34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S26" si="5">IF(E3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2845,46 +2892,50 @@
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="33">
+      <c r="H4" s="107">
+        <f>RAWDATA!J4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="106">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="35">
-        <f>RAWDATA!J4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="str">
+      <c r="J4" s="35">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K4" s="35">
-        <f>RAWDATA!K4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="2">
+      <c r="L4" s="35">
+        <f>RAWDATA!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2910,46 +2961,50 @@
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="33">
+      <c r="H5" s="107">
+        <f>RAWDATA!J5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="106">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="35">
-        <f>RAWDATA!J5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="33" t="str">
+      <c r="J5" s="35">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K5" s="35">
-        <f>RAWDATA!K5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="2">
+      <c r="L5" s="35">
+        <f>RAWDATA!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2975,46 +3030,50 @@
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="33">
+      <c r="H6" s="107">
+        <f>RAWDATA!J6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="106">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="35">
-        <f>RAWDATA!J6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="33" t="str">
+      <c r="J6" s="35">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K6" s="35">
-        <f>RAWDATA!K6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="2">
+      <c r="L6" s="35">
+        <f>RAWDATA!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3040,46 +3099,50 @@
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="33">
+      <c r="H7" s="107">
+        <f>RAWDATA!J7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="106">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="35">
-        <f>RAWDATA!J7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="str">
+      <c r="J7" s="35">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K7" s="35">
-        <f>RAWDATA!K7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="2">
+      <c r="L7" s="35">
+        <f>RAWDATA!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3105,46 +3168,50 @@
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="33">
+      <c r="H8" s="107">
+        <f>RAWDATA!J8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="106">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="35">
-        <f>RAWDATA!J8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="33" t="str">
+      <c r="J8" s="35">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K8" s="35">
-        <f>RAWDATA!K8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="2">
+      <c r="L8" s="35">
+        <f>RAWDATA!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3170,46 +3237,50 @@
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="33">
+      <c r="H9" s="107">
+        <f>RAWDATA!J9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="106">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="35">
-        <f>RAWDATA!J9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="33" t="str">
+      <c r="J9" s="35">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K9" s="35">
-        <f>RAWDATA!K9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="2">
+      <c r="L9" s="35">
+        <f>RAWDATA!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="11">
+      <c r="Q9" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3235,46 +3306,50 @@
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="33">
+      <c r="H10" s="107">
+        <f>RAWDATA!J10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="106">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="35">
-        <f>RAWDATA!J10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="33" t="str">
+      <c r="J10" s="35">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" s="35">
-        <f>RAWDATA!K10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="2">
+      <c r="L10" s="35">
+        <f>RAWDATA!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3300,46 +3375,50 @@
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="33">
+      <c r="H11" s="107">
+        <f>RAWDATA!J11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="106">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="35">
-        <f>RAWDATA!J11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="33" t="str">
+      <c r="J11" s="35">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K11" s="35">
-        <f>RAWDATA!K11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="2">
+      <c r="L11" s="35">
+        <f>RAWDATA!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3365,46 +3444,50 @@
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="33">
+      <c r="H12" s="107">
+        <f>RAWDATA!J12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="106">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="35">
-        <f>RAWDATA!J12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="33" t="str">
+      <c r="J12" s="35">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="35">
-        <f>RAWDATA!K12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="2">
+      <c r="L12" s="35">
+        <f>RAWDATA!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="11">
+      <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3430,46 +3513,50 @@
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="33">
+      <c r="H13" s="107">
+        <f>RAWDATA!J13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="106">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="35">
-        <f>RAWDATA!J13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="33" t="str">
+      <c r="J13" s="35">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" s="35">
-        <f>RAWDATA!K13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="2">
+      <c r="L13" s="35">
+        <f>RAWDATA!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
+      <c r="Q13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3495,46 +3582,50 @@
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="33">
+      <c r="H14" s="107">
+        <f>RAWDATA!J14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="106">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="35">
-        <f>RAWDATA!J14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="33" t="str">
+      <c r="J14" s="35">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K14" s="35">
-        <f>RAWDATA!K14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="2">
+      <c r="L14" s="35">
+        <f>RAWDATA!L14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="11">
+      <c r="Q14" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3560,46 +3651,50 @@
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="33">
+      <c r="H15" s="107">
+        <f>RAWDATA!J15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="106">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="35">
-        <f>RAWDATA!J15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="35">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K15" s="35">
-        <f>RAWDATA!K15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="2">
+      <c r="L15" s="35">
+        <f>RAWDATA!L15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3625,46 +3720,50 @@
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="33">
+      <c r="H16" s="107">
+        <f>RAWDATA!J16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="106">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="35">
-        <f>RAWDATA!J16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="35">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K16" s="35">
-        <f>RAWDATA!K16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="2">
+      <c r="L16" s="35">
+        <f>RAWDATA!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="11">
+      <c r="Q16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3690,46 +3789,50 @@
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="33">
+      <c r="H17" s="107">
+        <f>RAWDATA!J17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="106">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="35">
-        <f>RAWDATA!J17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="33" t="str">
+      <c r="J17" s="35">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K17" s="35">
-        <f>RAWDATA!K17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="2">
+      <c r="L17" s="35">
+        <f>RAWDATA!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="11">
+      <c r="Q17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3755,46 +3858,50 @@
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="33">
+      <c r="H18" s="107">
+        <f>RAWDATA!J18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="106">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="35">
-        <f>RAWDATA!J18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="33" t="str">
+      <c r="J18" s="35">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K18" s="35">
-        <f>RAWDATA!K18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="2">
+      <c r="L18" s="35">
+        <f>RAWDATA!L18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="11">
+      <c r="Q18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3820,46 +3927,50 @@
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="33">
+      <c r="H19" s="107">
+        <f>RAWDATA!J19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="106">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="35">
-        <f>RAWDATA!J19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="33" t="str">
+      <c r="J19" s="35">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K19" s="35">
-        <f>RAWDATA!K19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="2">
+      <c r="L19" s="35">
+        <f>RAWDATA!L19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="11">
+      <c r="Q19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3885,46 +3996,50 @@
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="33">
+      <c r="H20" s="107">
+        <f>RAWDATA!J20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="106">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
-        <f>RAWDATA!J20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="33" t="str">
+      <c r="J20" s="35">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K20" s="35">
-        <f>RAWDATA!K20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="2">
+      <c r="L20" s="35">
+        <f>RAWDATA!L20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="11">
+      <c r="Q20" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3950,46 +4065,50 @@
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="33">
+      <c r="H21" s="107">
+        <f>RAWDATA!J21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="106">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="35">
-        <f>RAWDATA!J21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="33" t="str">
+      <c r="J21" s="35">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K21" s="35">
-        <f>RAWDATA!K21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="2">
+      <c r="L21" s="35">
+        <f>RAWDATA!L21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="11">
+      <c r="Q21" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4015,46 +4134,50 @@
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="33">
+      <c r="H22" s="107">
+        <f>RAWDATA!J22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="106">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="35">
-        <f>RAWDATA!J22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="33" t="str">
+      <c r="J22" s="35">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K22" s="35">
-        <f>RAWDATA!K22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="2">
+      <c r="L22" s="35">
+        <f>RAWDATA!L22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="11">
+      <c r="Q22" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4080,46 +4203,50 @@
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="33">
+      <c r="H23" s="107">
+        <f>RAWDATA!J23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="106">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="35">
-        <f>RAWDATA!J23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="33" t="str">
+      <c r="J23" s="35">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K23" s="35">
-        <f>RAWDATA!K23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="2">
+      <c r="L23" s="35">
+        <f>RAWDATA!L23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="11">
+      <c r="Q23" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4145,46 +4272,50 @@
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="33">
+      <c r="H24" s="107">
+        <f>RAWDATA!J24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="106">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="35">
-        <f>RAWDATA!J24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="35">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K24" s="35">
-        <f>RAWDATA!K24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="2">
+      <c r="L24" s="35">
+        <f>RAWDATA!L24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="11">
+      <c r="Q24" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4210,46 +4341,50 @@
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="33">
+      <c r="H25" s="107">
+        <f>RAWDATA!J25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="106">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="35">
-        <f>RAWDATA!J25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="33" t="str">
+      <c r="J25" s="35">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K25" s="35">
-        <f>RAWDATA!K25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="2">
+      <c r="L25" s="35">
+        <f>RAWDATA!L25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="11">
+      <c r="Q25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4275,46 +4410,50 @@
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="33">
+      <c r="H26" s="107">
+        <f>RAWDATA!J26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="106">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="35">
-        <f>RAWDATA!J26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="33" t="str">
+      <c r="J26" s="35">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K26" s="35">
-        <f>RAWDATA!K26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="2">
+      <c r="L26" s="35">
+        <f>RAWDATA!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -4324,14 +4463,15 @@
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="22"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M27" s="4"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -4340,14 +4480,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="22"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M28" s="4"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -4360,14 +4501,15 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M29" s="4"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4375,14 +4517,15 @@
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-    </row>
-    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -4390,20 +4533,21 @@
         <v>125</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="31"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="31"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M31" s="31"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -4411,18 +4555,19 @@
         <v>106</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="31"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="31"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="31"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -4430,18 +4575,19 @@
         <v>107</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="31"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="25"/>
       <c r="L33" s="31"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="31"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -4449,18 +4595,19 @@
         <v>110</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="31"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="31"/>
-      <c r="M34" s="22"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="31"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -4468,18 +4615,19 @@
         <v>111</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="31"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="31"/>
-      <c r="M35" s="22"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="31"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4487,18 +4635,19 @@
         <v>108</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="31"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="31"/>
-      <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="31"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4506,39 +4655,40 @@
         <v>109</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="22"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="25"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-    </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="22"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56"/>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
     </row>
     <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -4571,7 +4721,7 @@
   <mergeCells count="1">
     <mergeCell ref="D31:G37"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Inkorrekte Semesterangabe" error="Bitte wählen Sie aus der Dropdown-Liste aus._x000a__x000a_Ihre Eingabe wird nicht automatisch korrigiert." promptTitle="Semester" prompt="Bitte geben Sie das entsprechende Semester an. Wählen Sie aus der Dropdown-Liste." sqref="B36" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
@@ -4615,12 +4765,12 @@
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="82"/>
       <c r="J1" s="83" t="s">
         <v>120</v>
@@ -5546,11 +5696,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="str">
+      <c r="A1" s="90" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -5707,45 +5857,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="91" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="str">
+      <c r="A2" s="92" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91" t="str">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -5820,15 +5970,15 @@
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!L2</f>
+        <f>RAWDATA!M2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!M2</f>
+        <f>RAWDATA!N2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!I2)</f>
+        <f>UPPER(Notenliste!J2)</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
@@ -5844,7 +5994,7 @@
         <v>attendance.sanitized_grade</v>
       </c>
       <c r="N4" s="19" t="str">
-        <f>UPPER(Notenliste!K2)</f>
+        <f>UPPER(Notenliste!L2)</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
     </row>
@@ -5873,19 +6023,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!K3</f>
+        <f>RAWDATA!L3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!M3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!M3</f>
+        <f>RAWDATA!N3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!I3)</f>
+        <f>UPPER(Notenliste!J3)</f>
         <v>0</v>
       </c>
       <c r="K5" s="17" t="str">
@@ -5901,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="19" t="str">
-        <f>UPPER(Notenliste!K3)</f>
+        <f>UPPER(Notenliste!L3)</f>
         <v>0</v>
       </c>
     </row>
@@ -5930,19 +6080,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!K4</f>
+        <f>RAWDATA!L4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!M4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!M4</f>
+        <f>RAWDATA!N4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!I4)</f>
+        <f>UPPER(Notenliste!J4)</f>
         <v>0</v>
       </c>
       <c r="K6" s="17" t="str">
@@ -5958,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="19" t="str">
-        <f>UPPER(Notenliste!K4)</f>
+        <f>UPPER(Notenliste!L4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5987,19 +6137,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!K5</f>
+        <f>RAWDATA!L5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!M5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!M5</f>
+        <f>RAWDATA!N5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!I5)</f>
+        <f>UPPER(Notenliste!J5)</f>
         <v>0</v>
       </c>
       <c r="K7" s="17" t="str">
@@ -6015,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="19" t="str">
-        <f>UPPER(Notenliste!K5)</f>
+        <f>UPPER(Notenliste!L5)</f>
         <v>0</v>
       </c>
     </row>
@@ -6044,19 +6194,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!K6</f>
+        <f>RAWDATA!L6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!M6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!M6</f>
+        <f>RAWDATA!N6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!I6)</f>
+        <f>UPPER(Notenliste!J6)</f>
         <v>0</v>
       </c>
       <c r="K8" s="17" t="str">
@@ -6072,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="19" t="str">
-        <f>UPPER(Notenliste!K6)</f>
+        <f>UPPER(Notenliste!L6)</f>
         <v>0</v>
       </c>
     </row>
@@ -6101,19 +6251,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!K7</f>
+        <f>RAWDATA!L7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!M7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!M7</f>
+        <f>RAWDATA!N7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!I7)</f>
+        <f>UPPER(Notenliste!J7)</f>
         <v>0</v>
       </c>
       <c r="K9" s="17" t="str">
@@ -6129,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="19" t="str">
-        <f>UPPER(Notenliste!K7)</f>
+        <f>UPPER(Notenliste!L7)</f>
         <v>0</v>
       </c>
     </row>
@@ -6158,19 +6308,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!K8</f>
+        <f>RAWDATA!L8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!M8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!M8</f>
+        <f>RAWDATA!N8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!I8)</f>
+        <f>UPPER(Notenliste!J8)</f>
         <v>0</v>
       </c>
       <c r="K10" s="17" t="str">
@@ -6186,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="19" t="str">
-        <f>UPPER(Notenliste!K8)</f>
+        <f>UPPER(Notenliste!L8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6215,19 +6365,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!K9</f>
+        <f>RAWDATA!L9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!M9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!M9</f>
+        <f>RAWDATA!N9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!I9)</f>
+        <f>UPPER(Notenliste!J9)</f>
         <v>0</v>
       </c>
       <c r="K11" s="17" t="str">
@@ -6243,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="19" t="str">
-        <f>UPPER(Notenliste!K9)</f>
+        <f>UPPER(Notenliste!L9)</f>
         <v>0</v>
       </c>
     </row>
@@ -6272,19 +6422,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!K10</f>
+        <f>RAWDATA!L10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!M10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!M10</f>
+        <f>RAWDATA!N10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!I10)</f>
+        <f>UPPER(Notenliste!J10)</f>
         <v>0</v>
       </c>
       <c r="K12" s="17" t="str">
@@ -6300,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="19" t="str">
-        <f>UPPER(Notenliste!K10)</f>
+        <f>UPPER(Notenliste!L10)</f>
         <v>0</v>
       </c>
     </row>
@@ -6329,19 +6479,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!K11</f>
+        <f>RAWDATA!L11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!M11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!M11</f>
+        <f>RAWDATA!N11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!I11)</f>
+        <f>UPPER(Notenliste!J11)</f>
         <v>0</v>
       </c>
       <c r="K13" s="17" t="str">
@@ -6357,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="19" t="str">
-        <f>UPPER(Notenliste!K11)</f>
+        <f>UPPER(Notenliste!L11)</f>
         <v>0</v>
       </c>
     </row>
@@ -6386,19 +6536,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!K12</f>
+        <f>RAWDATA!L12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!M12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!M12</f>
+        <f>RAWDATA!N12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!I12)</f>
+        <f>UPPER(Notenliste!J12)</f>
         <v>0</v>
       </c>
       <c r="K14" s="17" t="str">
@@ -6414,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="19" t="str">
-        <f>UPPER(Notenliste!K12)</f>
+        <f>UPPER(Notenliste!L12)</f>
         <v>0</v>
       </c>
     </row>
@@ -6443,19 +6593,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!K13</f>
+        <f>RAWDATA!L13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!M13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!M13</f>
+        <f>RAWDATA!N13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!I13)</f>
+        <f>UPPER(Notenliste!J13)</f>
         <v>0</v>
       </c>
       <c r="K15" s="17" t="str">
@@ -6471,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="19" t="str">
-        <f>UPPER(Notenliste!K13)</f>
+        <f>UPPER(Notenliste!L13)</f>
         <v>0</v>
       </c>
     </row>
@@ -6500,19 +6650,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!K14</f>
+        <f>RAWDATA!L14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!M14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!M14</f>
+        <f>RAWDATA!N14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!I14)</f>
+        <f>UPPER(Notenliste!J14)</f>
         <v>0</v>
       </c>
       <c r="K16" s="17" t="str">
@@ -6528,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="19" t="str">
-        <f>UPPER(Notenliste!K14)</f>
+        <f>UPPER(Notenliste!L14)</f>
         <v>0</v>
       </c>
     </row>
@@ -6557,19 +6707,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!K15</f>
+        <f>RAWDATA!L15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!M15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!M15</f>
+        <f>RAWDATA!N15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!I15)</f>
+        <f>UPPER(Notenliste!J15)</f>
         <v>0</v>
       </c>
       <c r="K17" s="17" t="str">
@@ -6585,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="19" t="str">
-        <f>UPPER(Notenliste!K15)</f>
+        <f>UPPER(Notenliste!L15)</f>
         <v>0</v>
       </c>
     </row>
@@ -6614,19 +6764,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!K16</f>
+        <f>RAWDATA!L16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!M16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!M16</f>
+        <f>RAWDATA!N16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!I16)</f>
+        <f>UPPER(Notenliste!J16)</f>
         <v>0</v>
       </c>
       <c r="K18" s="17" t="str">
@@ -6642,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="19" t="str">
-        <f>UPPER(Notenliste!K16)</f>
+        <f>UPPER(Notenliste!L16)</f>
         <v>0</v>
       </c>
     </row>
@@ -6671,19 +6821,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!K17</f>
+        <f>RAWDATA!L17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!M17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!M17</f>
+        <f>RAWDATA!N17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!I17)</f>
+        <f>UPPER(Notenliste!J17)</f>
         <v>0</v>
       </c>
       <c r="K19" s="17" t="str">
@@ -6699,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="19" t="str">
-        <f>UPPER(Notenliste!K17)</f>
+        <f>UPPER(Notenliste!L17)</f>
         <v>0</v>
       </c>
     </row>
@@ -6728,19 +6878,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!K18</f>
+        <f>RAWDATA!L18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!M18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!M18</f>
+        <f>RAWDATA!N18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!I18)</f>
+        <f>UPPER(Notenliste!J18)</f>
         <v>0</v>
       </c>
       <c r="K20" s="17" t="str">
@@ -6756,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="19" t="str">
-        <f>UPPER(Notenliste!K18)</f>
+        <f>UPPER(Notenliste!L18)</f>
         <v>0</v>
       </c>
     </row>
@@ -6785,19 +6935,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!K19</f>
+        <f>RAWDATA!L19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!M19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!M19</f>
+        <f>RAWDATA!N19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!I19)</f>
+        <f>UPPER(Notenliste!J19)</f>
         <v>0</v>
       </c>
       <c r="K21" s="17" t="str">
@@ -6813,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="19" t="str">
-        <f>UPPER(Notenliste!K19)</f>
+        <f>UPPER(Notenliste!L19)</f>
         <v>0</v>
       </c>
     </row>
@@ -6842,19 +6992,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!K20</f>
+        <f>RAWDATA!L20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!M20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!M20</f>
+        <f>RAWDATA!N20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!I20)</f>
+        <f>UPPER(Notenliste!J20)</f>
         <v>0</v>
       </c>
       <c r="K22" s="17" t="str">
@@ -6870,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="19" t="str">
-        <f>UPPER(Notenliste!K20)</f>
+        <f>UPPER(Notenliste!L20)</f>
         <v>0</v>
       </c>
     </row>
@@ -6899,19 +7049,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!K21</f>
+        <f>RAWDATA!L21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!M21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!M21</f>
+        <f>RAWDATA!N21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!I21)</f>
+        <f>UPPER(Notenliste!J21)</f>
         <v>0</v>
       </c>
       <c r="K23" s="17" t="str">
@@ -6927,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="19" t="str">
-        <f>UPPER(Notenliste!K21)</f>
+        <f>UPPER(Notenliste!L21)</f>
         <v>0</v>
       </c>
     </row>
@@ -6956,19 +7106,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!K22</f>
+        <f>RAWDATA!L22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!M22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!M22</f>
+        <f>RAWDATA!N22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!I22)</f>
+        <f>UPPER(Notenliste!J22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="17" t="str">
@@ -6984,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="19" t="str">
-        <f>UPPER(Notenliste!K22)</f>
+        <f>UPPER(Notenliste!L22)</f>
         <v>0</v>
       </c>
     </row>
@@ -7013,19 +7163,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!K23</f>
+        <f>RAWDATA!L23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!M23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!M23</f>
+        <f>RAWDATA!N23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!I23)</f>
+        <f>UPPER(Notenliste!J23)</f>
         <v>0</v>
       </c>
       <c r="K25" s="17" t="str">
@@ -7041,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="19" t="str">
-        <f>UPPER(Notenliste!K23)</f>
+        <f>UPPER(Notenliste!L23)</f>
         <v>0</v>
       </c>
     </row>
@@ -7070,19 +7220,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!K24</f>
+        <f>RAWDATA!L24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!M24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!M24</f>
+        <f>RAWDATA!N24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!I24)</f>
+        <f>UPPER(Notenliste!J24)</f>
         <v>0</v>
       </c>
       <c r="K26" s="17" t="str">
@@ -7098,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="19" t="str">
-        <f>UPPER(Notenliste!K24)</f>
+        <f>UPPER(Notenliste!L24)</f>
         <v>0</v>
       </c>
     </row>
@@ -7127,19 +7277,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!K25</f>
+        <f>RAWDATA!L25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!M25</f>
+        <f>RAWDATA!N25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!I25)</f>
+        <f>UPPER(Notenliste!J25)</f>
         <v>0</v>
       </c>
       <c r="K27" s="17" t="str">
@@ -7155,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="19" t="str">
-        <f>UPPER(Notenliste!K25)</f>
+        <f>UPPER(Notenliste!L25)</f>
         <v>0</v>
       </c>
     </row>
@@ -7184,19 +7334,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!K26</f>
+        <f>RAWDATA!L26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!M26</f>
+        <f>RAWDATA!N26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!I26)</f>
+        <f>UPPER(Notenliste!J26)</f>
         <v>0</v>
       </c>
       <c r="K28" s="17" t="str">
@@ -7212,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="19" t="str">
-        <f>UPPER(Notenliste!K26)</f>
+        <f>UPPER(Notenliste!L26)</f>
         <v>0</v>
       </c>
     </row>
@@ -7239,86 +7389,86 @@
       <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
     </row>
     <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
     </row>
     <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
     </row>
     <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -7373,105 +7523,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="98" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="102" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="44"/>
@@ -7490,22 +7640,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="93" t="s">
+      <c r="X4" s="95" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="101"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -7550,9 +7700,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
@@ -8635,7 +8785,7 @@
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!H2&lt;&gt;0,Notenliste!H2,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!I2&lt;&gt;0,Notenliste!I2,Notenliste!$B$33)," ")</f>
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="68" t="e">
@@ -8653,7 +8803,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!H3&lt;&gt;0,Notenliste!H3,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!I3&lt;&gt;0,Notenliste!I3,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="68" t="str">
@@ -8671,7 +8821,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!H4&lt;&gt;0,Notenliste!H4,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!I4&lt;&gt;0,Notenliste!I4,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="68" t="str">
@@ -8689,7 +8839,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!H5&lt;&gt;0,Notenliste!H5,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!I5&lt;&gt;0,Notenliste!I5,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="68" t="str">
@@ -8707,7 +8857,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!H6&lt;&gt;0,Notenliste!H6,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!I6&lt;&gt;0,Notenliste!I6,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="68" t="str">
@@ -8725,7 +8875,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!H7&lt;&gt;0,Notenliste!H7,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!I7&lt;&gt;0,Notenliste!I7,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="68" t="str">
@@ -8743,7 +8893,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!H8&lt;&gt;0,Notenliste!H8,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!I8&lt;&gt;0,Notenliste!I8,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="68" t="str">
@@ -8761,7 +8911,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!H9&lt;&gt;0,Notenliste!H9,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!I9&lt;&gt;0,Notenliste!I9,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="68" t="str">
@@ -8779,7 +8929,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!H10&lt;&gt;0,Notenliste!H10,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!I10&lt;&gt;0,Notenliste!I10,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="68" t="str">
@@ -8797,7 +8947,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!H11&lt;&gt;0,Notenliste!H11,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!I11&lt;&gt;0,Notenliste!I11,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="68" t="str">
@@ -8815,7 +8965,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!H12&lt;&gt;0,Notenliste!H12,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!I12&lt;&gt;0,Notenliste!I12,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="68" t="str">
@@ -8833,7 +8983,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!H13&lt;&gt;0,Notenliste!H13,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!I13&lt;&gt;0,Notenliste!I13,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="68" t="str">
@@ -8851,7 +9001,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!H14&lt;&gt;0,Notenliste!H14,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!I14&lt;&gt;0,Notenliste!I14,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="68" t="str">
@@ -8869,7 +9019,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!H15&lt;&gt;0,Notenliste!H15,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!I15&lt;&gt;0,Notenliste!I15,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="68" t="str">
@@ -8887,7 +9037,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!H16&lt;&gt;0,Notenliste!H16,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!I16&lt;&gt;0,Notenliste!I16,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="68" t="str">
@@ -8905,7 +9055,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C17" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!H17&lt;&gt;0,Notenliste!H17,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!I17&lt;&gt;0,Notenliste!I17,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="68" t="str">
@@ -8923,7 +9073,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C18" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!H18&lt;&gt;0,Notenliste!H18,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!I18&lt;&gt;0,Notenliste!I18,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="68" t="str">
@@ -8941,7 +9091,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C19" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!H19&lt;&gt;0,Notenliste!H19,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!I19&lt;&gt;0,Notenliste!I19,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="68" t="str">
@@ -8959,7 +9109,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C20" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!H20&lt;&gt;0,Notenliste!H20,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!I20&lt;&gt;0,Notenliste!I20,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="68" t="str">
@@ -8977,7 +9127,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C21" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!H21&lt;&gt;0,Notenliste!H21,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!I21&lt;&gt;0,Notenliste!I21,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="68" t="str">
@@ -8995,7 +9145,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C22" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!H22&lt;&gt;0,Notenliste!H22,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!I22&lt;&gt;0,Notenliste!I22,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="68" t="str">
@@ -9013,7 +9163,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C23" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!H23&lt;&gt;0,Notenliste!H23,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!I23&lt;&gt;0,Notenliste!I23,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="68" t="str">
@@ -9031,7 +9181,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C24" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!H24&lt;&gt;0,Notenliste!H24,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!I24&lt;&gt;0,Notenliste!I24,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="68" t="str">
@@ -9049,7 +9199,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C25" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!H25&lt;&gt;0,Notenliste!H25,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!I25&lt;&gt;0,Notenliste!I25,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="68" t="str">
@@ -9067,7 +9217,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C26" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!H26&lt;&gt;0,Notenliste!H26,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!I26&lt;&gt;0,Notenliste!I26,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="68" t="str">

--- a/src/spz/templates/export/spanisch.xlsx
+++ b/src/spz/templates/export/spanisch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE34040-ABC6-4D7F-BB6A-89D7D109EE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E9D677-9E58-446B-89B6-4D704BB1B7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,6 +1059,14 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1112,14 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:WVY59"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2728,7 +2728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2754,11 +2754,11 @@
         <v>#N/A</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="107" t="str">
+      <c r="H2" s="89" t="str">
         <f>RAWDATA!J2</f>
         <v>attendance.hide_grade_str</v>
       </c>
-      <c r="I2" s="106" t="str">
+      <c r="I2" s="88" t="str">
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
@@ -2823,11 +2823,11 @@
         <v>KP</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="107">
+      <c r="H3" s="89">
         <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="88">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
@@ -2892,11 +2892,11 @@
         <v>KP</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="107">
+      <c r="H4" s="89">
         <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="88">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
@@ -2961,11 +2961,11 @@
         <v>KP</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="107">
+      <c r="H5" s="89">
         <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="88">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
@@ -3030,11 +3030,11 @@
         <v>KP</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="107">
+      <c r="H6" s="89">
         <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="88">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
@@ -3099,11 +3099,11 @@
         <v>KP</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="107">
+      <c r="H7" s="89">
         <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="88">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
@@ -3168,11 +3168,11 @@
         <v>KP</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="107">
+      <c r="H8" s="89">
         <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="88">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
@@ -3237,11 +3237,11 @@
         <v>KP</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="107">
+      <c r="H9" s="89">
         <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="88">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
@@ -3306,11 +3306,11 @@
         <v>KP</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="107">
+      <c r="H10" s="89">
         <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="88">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
@@ -3375,11 +3375,11 @@
         <v>KP</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="107">
+      <c r="H11" s="89">
         <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="88">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
@@ -3444,11 +3444,11 @@
         <v>KP</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="107">
+      <c r="H12" s="89">
         <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="106">
+      <c r="I12" s="88">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
@@ -3513,11 +3513,11 @@
         <v>KP</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="107">
+      <c r="H13" s="89">
         <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="106">
+      <c r="I13" s="88">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
@@ -3582,11 +3582,11 @@
         <v>KP</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="107">
+      <c r="H14" s="89">
         <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="88">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
@@ -3651,11 +3651,11 @@
         <v>KP</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="107">
+      <c r="H15" s="89">
         <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="88">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
@@ -3720,11 +3720,11 @@
         <v>KP</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="107">
+      <c r="H16" s="89">
         <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="88">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
@@ -3789,11 +3789,11 @@
         <v>KP</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="107">
+      <c r="H17" s="89">
         <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="106">
+      <c r="I17" s="88">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
@@ -3858,11 +3858,11 @@
         <v>KP</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="107">
+      <c r="H18" s="89">
         <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="88">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
@@ -3927,11 +3927,11 @@
         <v>KP</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="107">
+      <c r="H19" s="89">
         <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="88">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
@@ -3996,11 +3996,11 @@
         <v>KP</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="107">
+      <c r="H20" s="89">
         <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="88">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
@@ -4065,11 +4065,11 @@
         <v>KP</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="107">
+      <c r="H21" s="89">
         <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="88">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
@@ -4134,11 +4134,11 @@
         <v>KP</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="107">
+      <c r="H22" s="89">
         <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="88">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
@@ -4203,11 +4203,11 @@
         <v>KP</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="107">
+      <c r="H23" s="89">
         <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="88">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
@@ -4272,11 +4272,11 @@
         <v>KP</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="107">
+      <c r="H24" s="89">
         <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="88">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
@@ -4341,11 +4341,11 @@
         <v>KP</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="107">
+      <c r="H25" s="89">
         <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="88">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
@@ -4410,11 +4410,11 @@
         <v>KP</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="107">
+      <c r="H26" s="89">
         <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="88">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
@@ -4533,12 +4533,12 @@
         <v>125</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="86"/>
       <c r="I31" s="25"/>
       <c r="J31" s="31"/>
@@ -4555,10 +4555,10 @@
         <v>106</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="86"/>
       <c r="I32" s="25"/>
       <c r="J32" s="31"/>
@@ -4575,10 +4575,10 @@
         <v>107</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
       <c r="H33" s="86"/>
       <c r="I33" s="25"/>
       <c r="J33" s="31"/>
@@ -4595,10 +4595,10 @@
         <v>110</v>
       </c>
       <c r="C34" s="23"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="86"/>
       <c r="I34" s="25"/>
       <c r="J34" s="31"/>
@@ -4615,10 +4615,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="86"/>
       <c r="I35" s="25"/>
       <c r="J35" s="31"/>
@@ -4635,10 +4635,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="86"/>
       <c r="I36" s="25"/>
       <c r="J36" s="31"/>
@@ -4655,10 +4655,10 @@
         <v>109</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="86"/>
       <c r="I37" s="25"/>
       <c r="J37" s="22"/>
@@ -4765,12 +4765,12 @@
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="82"/>
       <c r="J1" s="83" t="s">
         <v>120</v>
@@ -5696,11 +5696,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
@@ -5857,45 +5857,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="str">
+      <c r="A1" s="93" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
     </row>
     <row r="2" spans="1:14" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="str">
+      <c r="A2" s="94" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93" t="str">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95" t="str">
         <f>"Semster: "&amp;Notenliste!B36</f>
         <v>Semster: semester</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
     </row>
     <row r="3" spans="1:14" s="62" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -7389,86 +7389,86 @@
       <c r="N29" s="60"/>
     </row>
     <row r="30" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
     </row>
     <row r="31" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
     </row>
     <row r="32" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
     </row>
     <row r="33" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
       <c r="O34" s="61"/>
     </row>
   </sheetData>
@@ -7523,105 +7523,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;" / "&amp;Notenliste!B35</f>
         <v>course.name / course.name_english</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
     </row>
     <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="str">
+      <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="104" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="44"/>
@@ -7640,22 +7640,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="46"/>
-      <c r="V4" s="104" t="s">
+      <c r="V4" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="95" t="s">
+      <c r="X4" s="97" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="103"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="47"/>
       <c r="G5" s="45">
         <v>1</v>
@@ -7700,9 +7700,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="48"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
